--- a/public/excel/mei.xlsx
+++ b/public/excel/mei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A2A78-9AA7-4B48-B1F9-4282497411DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FECC26-9F4F-EF44-BB62-A6ED8C030008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPENGANTAR" sheetId="12" r:id="rId1"/>
@@ -3617,107 +3617,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3725,14 +3743,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3755,24 +3770,90 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3782,86 +3863,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3878,18 +3902,6 @@
     <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3902,17 +3914,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3932,30 +3956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3965,6 +3965,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3990,27 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5249,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5474,81 +5474,81 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="358" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="381"/>
-      <c r="D9" s="364" t="s">
+      <c r="C9" s="359"/>
+      <c r="D9" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="367"/>
-      <c r="F9" s="363" t="s">
+      <c r="E9" s="371"/>
+      <c r="F9" s="383" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="364"/>
-      <c r="H9" s="364"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="364"/>
-      <c r="K9" s="364"/>
-      <c r="L9" s="364"/>
-      <c r="M9" s="367"/>
-      <c r="N9" s="363" t="s">
+      <c r="G9" s="370"/>
+      <c r="H9" s="370"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="370"/>
+      <c r="K9" s="370"/>
+      <c r="L9" s="370"/>
+      <c r="M9" s="371"/>
+      <c r="N9" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
+      <c r="O9" s="370"/>
+      <c r="P9" s="370"/>
+      <c r="Q9" s="370"/>
+      <c r="R9" s="370"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="378"/>
-      <c r="B10" s="382"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="376" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="386" t="s">
+      <c r="A10" s="356"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="377" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="364" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="368" t="s">
+      <c r="F10" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="369"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="368" t="s">
+      <c r="G10" s="379"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="369"/>
-      <c r="K10" s="370"/>
-      <c r="L10" s="359" t="s">
+      <c r="J10" s="379"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="357" t="s">
+      <c r="M10" s="386" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="361" t="s">
+      <c r="N10" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="362"/>
-      <c r="P10" s="361" t="s">
+      <c r="O10" s="382"/>
+      <c r="P10" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="365" t="s">
+      <c r="Q10" s="382"/>
+      <c r="R10" s="384" t="s">
         <v>207</v>
       </c>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" s="33" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="379"/>
-      <c r="B11" s="384"/>
-      <c r="C11" s="385"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
+      <c r="A11" s="357"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="365"/>
+      <c r="E11" s="365"/>
       <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
@@ -5567,8 +5567,8 @@
       <c r="K11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="360"/>
-      <c r="M11" s="358"/>
+      <c r="L11" s="388"/>
+      <c r="M11" s="365"/>
       <c r="N11" s="37" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5581,17 @@
       <c r="Q11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="366"/>
+      <c r="R11" s="385"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="387">
+      <c r="B12" s="368">
         <v>2</v>
       </c>
-      <c r="C12" s="388"/>
+      <c r="C12" s="369"/>
       <c r="D12" s="39">
         <v>3</v>
       </c>
@@ -5643,11 +5643,11 @@
       <c r="A13" s="271">
         <v>1</v>
       </c>
-      <c r="B13" s="355">
+      <c r="B13" s="366">
         <f>INPUT!C3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="356"/>
+      <c r="C13" s="367"/>
       <c r="D13" s="272">
         <f>INPUT!D3</f>
         <v>0</v>
@@ -5714,11 +5714,11 @@
       <c r="A14" s="277">
         <v>2</v>
       </c>
-      <c r="B14" s="355">
+      <c r="B14" s="366">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="356"/>
+      <c r="C14" s="367"/>
       <c r="D14" s="272">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -5785,11 +5785,11 @@
       <c r="A15" s="277">
         <v>3</v>
       </c>
-      <c r="B15" s="355">
+      <c r="B15" s="366">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="356"/>
+      <c r="C15" s="367"/>
       <c r="D15" s="272">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -5856,11 +5856,11 @@
       <c r="A16" s="277">
         <v>4</v>
       </c>
-      <c r="B16" s="355">
+      <c r="B16" s="366">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="356"/>
+      <c r="C16" s="367"/>
       <c r="D16" s="272">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -5927,11 +5927,11 @@
       <c r="A17" s="271">
         <v>5</v>
       </c>
-      <c r="B17" s="355">
+      <c r="B17" s="366">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="356"/>
+      <c r="C17" s="367"/>
       <c r="D17" s="272">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -5998,11 +5998,11 @@
       <c r="A18" s="277">
         <v>6</v>
       </c>
-      <c r="B18" s="355">
+      <c r="B18" s="366">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="356"/>
+      <c r="C18" s="367"/>
       <c r="D18" s="272">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -6069,11 +6069,11 @@
       <c r="A19" s="277">
         <v>7</v>
       </c>
-      <c r="B19" s="355">
+      <c r="B19" s="366">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="356"/>
+      <c r="C19" s="367"/>
       <c r="D19" s="272">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -6140,11 +6140,11 @@
       <c r="A20" s="277">
         <v>8</v>
       </c>
-      <c r="B20" s="355">
+      <c r="B20" s="366">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="356"/>
+      <c r="C20" s="367"/>
       <c r="D20" s="272">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -6211,11 +6211,11 @@
       <c r="A21" s="278">
         <v>9</v>
       </c>
-      <c r="B21" s="355">
+      <c r="B21" s="366">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="356"/>
+      <c r="C21" s="367"/>
       <c r="D21" s="272">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -6282,11 +6282,11 @@
       <c r="A22" s="277">
         <v>10</v>
       </c>
-      <c r="B22" s="355">
+      <c r="B22" s="366">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="356"/>
+      <c r="C22" s="367"/>
       <c r="D22" s="272">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -6353,11 +6353,11 @@
       <c r="A23" s="277">
         <v>11</v>
       </c>
-      <c r="B23" s="355">
+      <c r="B23" s="366">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="356"/>
+      <c r="C23" s="367"/>
       <c r="D23" s="272">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -6424,11 +6424,11 @@
       <c r="A24" s="277">
         <v>12</v>
       </c>
-      <c r="B24" s="355">
+      <c r="B24" s="366">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="356"/>
+      <c r="C24" s="367"/>
       <c r="D24" s="272">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -6495,11 +6495,11 @@
       <c r="A25" s="278">
         <v>13</v>
       </c>
-      <c r="B25" s="355">
+      <c r="B25" s="366">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="356"/>
+      <c r="C25" s="367"/>
       <c r="D25" s="272">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -6566,11 +6566,11 @@
       <c r="A26" s="277">
         <v>14</v>
       </c>
-      <c r="B26" s="355">
+      <c r="B26" s="366">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="356"/>
+      <c r="C26" s="367"/>
       <c r="D26" s="272">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -6637,11 +6637,11 @@
       <c r="A27" s="277">
         <v>15</v>
       </c>
-      <c r="B27" s="355">
+      <c r="B27" s="366">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="356"/>
+      <c r="C27" s="367"/>
       <c r="D27" s="272">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -6708,11 +6708,11 @@
       <c r="A28" s="277">
         <v>16</v>
       </c>
-      <c r="B28" s="355">
+      <c r="B28" s="366">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="356"/>
+      <c r="C28" s="367"/>
       <c r="D28" s="272">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -6779,11 +6779,11 @@
       <c r="A29" s="278">
         <v>17</v>
       </c>
-      <c r="B29" s="355">
+      <c r="B29" s="366">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="356"/>
+      <c r="C29" s="367"/>
       <c r="D29" s="272">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -6850,11 +6850,11 @@
       <c r="A30" s="277">
         <v>18</v>
       </c>
-      <c r="B30" s="355">
+      <c r="B30" s="366">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="356"/>
+      <c r="C30" s="367"/>
       <c r="D30" s="272">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -6921,11 +6921,11 @@
       <c r="A31" s="277">
         <v>19</v>
       </c>
-      <c r="B31" s="355">
+      <c r="B31" s="366">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="356"/>
+      <c r="C31" s="367"/>
       <c r="D31" s="272">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -6992,11 +6992,11 @@
       <c r="A32" s="277">
         <v>20</v>
       </c>
-      <c r="B32" s="355">
+      <c r="B32" s="366">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="356"/>
+      <c r="C32" s="367"/>
       <c r="D32" s="272">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -7063,11 +7063,11 @@
       <c r="A33" s="278">
         <v>21</v>
       </c>
-      <c r="B33" s="355">
+      <c r="B33" s="366">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="356"/>
+      <c r="C33" s="367"/>
       <c r="D33" s="272">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -7134,11 +7134,11 @@
       <c r="A34" s="277">
         <v>22</v>
       </c>
-      <c r="B34" s="355">
+      <c r="B34" s="366">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="356"/>
+      <c r="C34" s="367"/>
       <c r="D34" s="272">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -7205,11 +7205,11 @@
       <c r="A35" s="277">
         <v>23</v>
       </c>
-      <c r="B35" s="355">
+      <c r="B35" s="366">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="356"/>
+      <c r="C35" s="367"/>
       <c r="D35" s="272">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -7276,11 +7276,11 @@
       <c r="A36" s="277">
         <v>24</v>
       </c>
-      <c r="B36" s="355">
+      <c r="B36" s="366">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="356"/>
+      <c r="C36" s="367"/>
       <c r="D36" s="272">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -7347,11 +7347,11 @@
       <c r="A37" s="42">
         <v>25</v>
       </c>
-      <c r="B37" s="355">
+      <c r="B37" s="366">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="356"/>
+      <c r="C37" s="367"/>
       <c r="D37" s="272">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -7418,11 +7418,11 @@
       <c r="A38" s="42">
         <v>26</v>
       </c>
-      <c r="B38" s="355">
+      <c r="B38" s="366">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C38" s="356"/>
+      <c r="C38" s="367"/>
       <c r="D38" s="272">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -7489,11 +7489,11 @@
       <c r="A39" s="42">
         <v>27</v>
       </c>
-      <c r="B39" s="355">
+      <c r="B39" s="366">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C39" s="356"/>
+      <c r="C39" s="367"/>
       <c r="D39" s="272">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -7560,11 +7560,11 @@
       <c r="A40" s="42">
         <v>28</v>
       </c>
-      <c r="B40" s="355">
+      <c r="B40" s="366">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C40" s="356"/>
+      <c r="C40" s="367"/>
       <c r="D40" s="272">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -7631,11 +7631,11 @@
       <c r="A41" s="42">
         <v>29</v>
       </c>
-      <c r="B41" s="355">
+      <c r="B41" s="366">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C41" s="356"/>
+      <c r="C41" s="367"/>
       <c r="D41" s="272">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -7702,11 +7702,11 @@
       <c r="A42" s="42">
         <v>30</v>
       </c>
-      <c r="B42" s="355">
+      <c r="B42" s="366">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="356"/>
+      <c r="C42" s="367"/>
       <c r="D42" s="272">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -7773,11 +7773,11 @@
       <c r="A43" s="42">
         <v>31</v>
       </c>
-      <c r="B43" s="355">
+      <c r="B43" s="366">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C43" s="356"/>
+      <c r="C43" s="367"/>
       <c r="D43" s="272">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -7844,11 +7844,11 @@
       <c r="A44" s="42">
         <v>32</v>
       </c>
-      <c r="B44" s="355">
+      <c r="B44" s="366">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C44" s="356"/>
+      <c r="C44" s="367"/>
       <c r="D44" s="272">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -7915,11 +7915,11 @@
       <c r="A45" s="42">
         <v>33</v>
       </c>
-      <c r="B45" s="355">
+      <c r="B45" s="366">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="356"/>
+      <c r="C45" s="367"/>
       <c r="D45" s="272">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -7986,11 +7986,11 @@
       <c r="A46" s="42">
         <v>34</v>
       </c>
-      <c r="B46" s="355">
+      <c r="B46" s="366">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C46" s="356"/>
+      <c r="C46" s="367"/>
       <c r="D46" s="272">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -8057,11 +8057,11 @@
       <c r="A47" s="42">
         <v>35</v>
       </c>
-      <c r="B47" s="355">
+      <c r="B47" s="366">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C47" s="356"/>
+      <c r="C47" s="367"/>
       <c r="D47" s="272">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -8128,11 +8128,11 @@
       <c r="A48" s="42">
         <v>36</v>
       </c>
-      <c r="B48" s="355">
+      <c r="B48" s="366">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C48" s="356"/>
+      <c r="C48" s="367"/>
       <c r="D48" s="272">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -8199,11 +8199,11 @@
       <c r="A49" s="42">
         <v>37</v>
       </c>
-      <c r="B49" s="355">
+      <c r="B49" s="366">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="356"/>
+      <c r="C49" s="367"/>
       <c r="D49" s="272">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -8270,11 +8270,11 @@
       <c r="A50" s="42">
         <v>38</v>
       </c>
-      <c r="B50" s="355">
+      <c r="B50" s="366">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C50" s="356"/>
+      <c r="C50" s="367"/>
       <c r="D50" s="272">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -8341,11 +8341,11 @@
       <c r="A51" s="42">
         <v>39</v>
       </c>
-      <c r="B51" s="355">
+      <c r="B51" s="366">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C51" s="356"/>
+      <c r="C51" s="367"/>
       <c r="D51" s="272">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -8412,11 +8412,11 @@
       <c r="A52" s="42">
         <v>40</v>
       </c>
-      <c r="B52" s="355">
+      <c r="B52" s="366">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C52" s="356"/>
+      <c r="C52" s="367"/>
       <c r="D52" s="272">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -8483,11 +8483,11 @@
       <c r="A53" s="42">
         <v>41</v>
       </c>
-      <c r="B53" s="355">
+      <c r="B53" s="366">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C53" s="356"/>
+      <c r="C53" s="367"/>
       <c r="D53" s="272">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -8554,11 +8554,11 @@
       <c r="A54" s="42">
         <v>42</v>
       </c>
-      <c r="B54" s="355">
+      <c r="B54" s="366">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C54" s="356"/>
+      <c r="C54" s="367"/>
       <c r="D54" s="272">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -8625,11 +8625,11 @@
       <c r="A55" s="42">
         <v>43</v>
       </c>
-      <c r="B55" s="355">
+      <c r="B55" s="366">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C55" s="356"/>
+      <c r="C55" s="367"/>
       <c r="D55" s="272">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -8696,11 +8696,11 @@
       <c r="A56" s="42">
         <v>44</v>
       </c>
-      <c r="B56" s="355">
+      <c r="B56" s="366">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="356"/>
+      <c r="C56" s="367"/>
       <c r="D56" s="272">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -8767,11 +8767,11 @@
       <c r="A57" s="42">
         <v>45</v>
       </c>
-      <c r="B57" s="355">
+      <c r="B57" s="366">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C57" s="356"/>
+      <c r="C57" s="367"/>
       <c r="D57" s="272">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -8838,11 +8838,11 @@
       <c r="A58" s="42">
         <v>46</v>
       </c>
-      <c r="B58" s="355">
+      <c r="B58" s="366">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C58" s="356"/>
+      <c r="C58" s="367"/>
       <c r="D58" s="272">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -8909,11 +8909,11 @@
       <c r="A59" s="42">
         <v>47</v>
       </c>
-      <c r="B59" s="355">
+      <c r="B59" s="366">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C59" s="356"/>
+      <c r="C59" s="367"/>
       <c r="D59" s="272">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -8980,11 +8980,11 @@
       <c r="A60" s="42">
         <v>48</v>
       </c>
-      <c r="B60" s="355">
+      <c r="B60" s="366">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C60" s="356"/>
+      <c r="C60" s="367"/>
       <c r="D60" s="272">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -9051,11 +9051,11 @@
       <c r="A61" s="42">
         <v>49</v>
       </c>
-      <c r="B61" s="355">
+      <c r="B61" s="366">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C61" s="356"/>
+      <c r="C61" s="367"/>
       <c r="D61" s="272">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -9122,11 +9122,11 @@
       <c r="A62" s="42">
         <v>50</v>
       </c>
-      <c r="B62" s="355">
+      <c r="B62" s="366">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C62" s="356"/>
+      <c r="C62" s="367"/>
       <c r="D62" s="272">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -9193,11 +9193,11 @@
       <c r="A63" s="42">
         <v>51</v>
       </c>
-      <c r="B63" s="355">
+      <c r="B63" s="366">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C63" s="356"/>
+      <c r="C63" s="367"/>
       <c r="D63" s="272">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -9264,11 +9264,11 @@
       <c r="A64" s="42">
         <v>52</v>
       </c>
-      <c r="B64" s="355">
+      <c r="B64" s="366">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C64" s="356"/>
+      <c r="C64" s="367"/>
       <c r="D64" s="272">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -9335,11 +9335,11 @@
       <c r="A65" s="42">
         <v>53</v>
       </c>
-      <c r="B65" s="355">
+      <c r="B65" s="366">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C65" s="356"/>
+      <c r="C65" s="367"/>
       <c r="D65" s="272">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -9406,11 +9406,11 @@
       <c r="A66" s="42">
         <v>54</v>
       </c>
-      <c r="B66" s="355">
+      <c r="B66" s="366">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C66" s="356"/>
+      <c r="C66" s="367"/>
       <c r="D66" s="272">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -9477,11 +9477,11 @@
       <c r="A67" s="42">
         <v>55</v>
       </c>
-      <c r="B67" s="355">
+      <c r="B67" s="366">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C67" s="356"/>
+      <c r="C67" s="367"/>
       <c r="D67" s="272">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -9548,11 +9548,11 @@
       <c r="A68" s="42">
         <v>56</v>
       </c>
-      <c r="B68" s="355">
+      <c r="B68" s="366">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C68" s="356"/>
+      <c r="C68" s="367"/>
       <c r="D68" s="272">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -9619,11 +9619,11 @@
       <c r="A69" s="42">
         <v>57</v>
       </c>
-      <c r="B69" s="355">
+      <c r="B69" s="366">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C69" s="356"/>
+      <c r="C69" s="367"/>
       <c r="D69" s="272">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -9690,11 +9690,11 @@
       <c r="A70" s="42">
         <v>58</v>
       </c>
-      <c r="B70" s="355">
+      <c r="B70" s="366">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C70" s="356"/>
+      <c r="C70" s="367"/>
       <c r="D70" s="272">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -9761,11 +9761,11 @@
       <c r="A71" s="42">
         <v>59</v>
       </c>
-      <c r="B71" s="355">
+      <c r="B71" s="366">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C71" s="356"/>
+      <c r="C71" s="367"/>
       <c r="D71" s="272">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -9832,11 +9832,11 @@
       <c r="A72" s="42">
         <v>60</v>
       </c>
-      <c r="B72" s="355">
+      <c r="B72" s="366">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C72" s="356"/>
+      <c r="C72" s="367"/>
       <c r="D72" s="272">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -9903,11 +9903,11 @@
       <c r="A73" s="42">
         <v>61</v>
       </c>
-      <c r="B73" s="355">
+      <c r="B73" s="366">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C73" s="356"/>
+      <c r="C73" s="367"/>
       <c r="D73" s="272">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -9974,11 +9974,11 @@
       <c r="A74" s="42">
         <v>62</v>
       </c>
-      <c r="B74" s="355">
+      <c r="B74" s="366">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C74" s="356"/>
+      <c r="C74" s="367"/>
       <c r="D74" s="272">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -10045,11 +10045,11 @@
       <c r="A75" s="42">
         <v>63</v>
       </c>
-      <c r="B75" s="355">
+      <c r="B75" s="366">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C75" s="356"/>
+      <c r="C75" s="367"/>
       <c r="D75" s="272">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -10116,11 +10116,11 @@
       <c r="A76" s="42">
         <v>64</v>
       </c>
-      <c r="B76" s="355">
+      <c r="B76" s="366">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C76" s="356"/>
+      <c r="C76" s="367"/>
       <c r="D76" s="272">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -10187,11 +10187,11 @@
       <c r="A77" s="42">
         <v>65</v>
       </c>
-      <c r="B77" s="355">
+      <c r="B77" s="366">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C77" s="356"/>
+      <c r="C77" s="367"/>
       <c r="D77" s="272">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -10258,11 +10258,11 @@
       <c r="A78" s="42">
         <v>66</v>
       </c>
-      <c r="B78" s="355">
+      <c r="B78" s="366">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C78" s="356"/>
+      <c r="C78" s="367"/>
       <c r="D78" s="272">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -10329,11 +10329,11 @@
       <c r="A79" s="42">
         <v>67</v>
       </c>
-      <c r="B79" s="355">
+      <c r="B79" s="366">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C79" s="356"/>
+      <c r="C79" s="367"/>
       <c r="D79" s="272">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -10400,11 +10400,11 @@
       <c r="A80" s="42">
         <v>68</v>
       </c>
-      <c r="B80" s="355">
+      <c r="B80" s="366">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C80" s="356"/>
+      <c r="C80" s="367"/>
       <c r="D80" s="272">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -10471,11 +10471,11 @@
       <c r="A81" s="42">
         <v>69</v>
       </c>
-      <c r="B81" s="355">
+      <c r="B81" s="366">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C81" s="356"/>
+      <c r="C81" s="367"/>
       <c r="D81" s="272">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -10542,11 +10542,11 @@
       <c r="A82" s="42">
         <v>70</v>
       </c>
-      <c r="B82" s="355">
+      <c r="B82" s="366">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C82" s="356"/>
+      <c r="C82" s="367"/>
       <c r="D82" s="272">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -10613,11 +10613,11 @@
       <c r="A83" s="42">
         <v>71</v>
       </c>
-      <c r="B83" s="355">
+      <c r="B83" s="366">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C83" s="356"/>
+      <c r="C83" s="367"/>
       <c r="D83" s="272">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -10684,11 +10684,11 @@
       <c r="A84" s="42">
         <v>72</v>
       </c>
-      <c r="B84" s="355">
+      <c r="B84" s="366">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C84" s="356"/>
+      <c r="C84" s="367"/>
       <c r="D84" s="272">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -10753,8 +10753,8 @@
     </row>
     <row r="85" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="190"/>
-      <c r="B85" s="374"/>
-      <c r="C85" s="375"/>
+      <c r="B85" s="375"/>
+      <c r="C85" s="376"/>
       <c r="D85" s="48"/>
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
@@ -10773,11 +10773,11 @@
       <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" s="33" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="371" t="s">
+      <c r="A86" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="372"/>
-      <c r="C86" s="373"/>
+      <c r="B86" s="373"/>
+      <c r="C86" s="374"/>
       <c r="D86" s="55">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F86" s="57">
-        <f>SUM(F14:F85)</f>
+        <f>SUM(F13:F85)</f>
         <v>0</v>
       </c>
       <c r="G86" s="58"/>
@@ -10796,7 +10796,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I86" s="57">
-        <f>SUM(I14:I85)</f>
+        <f>SUM(I13:I85)</f>
         <v>0</v>
       </c>
       <c r="J86" s="58"/>
@@ -11238,12 +11238,73 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D10:D11"/>
@@ -11260,73 +11321,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496063" top="0.78740157480314998" bottom="0.39370078740157499" header="0.31496062992126" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11399,10 +11399,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="394" t="s">
+      <c r="S2" s="399" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="395"/>
+      <c r="T2" s="400"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -11560,51 +11560,51 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="381"/>
-      <c r="D9" s="391" t="s">
+      <c r="C9" s="359"/>
+      <c r="D9" s="394" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="391" t="s">
+      <c r="E9" s="394" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="399" t="s">
+      <c r="F9" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="399"/>
-      <c r="H9" s="399"/>
-      <c r="I9" s="399" t="s">
+      <c r="G9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="404" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="399"/>
-      <c r="K9" s="399"/>
-      <c r="L9" s="396" t="s">
+      <c r="J9" s="404"/>
+      <c r="K9" s="404"/>
+      <c r="L9" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="397"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="396" t="s">
+      <c r="M9" s="402"/>
+      <c r="N9" s="403"/>
+      <c r="O9" s="401" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="397"/>
-      <c r="Q9" s="398"/>
-      <c r="R9" s="363" t="s">
+      <c r="P9" s="402"/>
+      <c r="Q9" s="403"/>
+      <c r="R9" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="364"/>
-      <c r="T9" s="400"/>
+      <c r="S9" s="370"/>
+      <c r="T9" s="405"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="379"/>
-      <c r="B10" s="384"/>
-      <c r="C10" s="385"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
       <c r="F10" s="131" t="s">
         <v>44</v>
       </c>
@@ -11655,10 +11655,10 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="404">
+      <c r="B11" s="397">
         <v>2</v>
       </c>
-      <c r="C11" s="405"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="134">
         <v>3</v>
       </c>
@@ -11737,11 +11737,11 @@
       <c r="A13" s="256">
         <v>1</v>
       </c>
-      <c r="B13" s="389">
+      <c r="B13" s="395">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C13" s="390"/>
+      <c r="C13" s="396"/>
       <c r="D13" s="213">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -11776,11 +11776,11 @@
       <c r="A14" s="256">
         <v>2</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="395">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="390"/>
+      <c r="C14" s="396"/>
       <c r="D14" s="213">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -11815,11 +11815,11 @@
       <c r="A15" s="256">
         <v>3</v>
       </c>
-      <c r="B15" s="389">
+      <c r="B15" s="395">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C15" s="390"/>
+      <c r="C15" s="396"/>
       <c r="D15" s="213">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -11854,11 +11854,11 @@
       <c r="A16" s="256">
         <v>4</v>
       </c>
-      <c r="B16" s="389">
+      <c r="B16" s="395">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C16" s="390"/>
+      <c r="C16" s="396"/>
       <c r="D16" s="245">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -11893,11 +11893,11 @@
       <c r="A17" s="256">
         <v>5</v>
       </c>
-      <c r="B17" s="389">
+      <c r="B17" s="395">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="390"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="245">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -11932,11 +11932,11 @@
       <c r="A18" s="256">
         <v>6</v>
       </c>
-      <c r="B18" s="389">
+      <c r="B18" s="395">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="390"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="245">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -11971,11 +11971,11 @@
       <c r="A19" s="256">
         <v>7</v>
       </c>
-      <c r="B19" s="389">
+      <c r="B19" s="395">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="390"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="245">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -12010,11 +12010,11 @@
       <c r="A20" s="256">
         <v>8</v>
       </c>
-      <c r="B20" s="389">
+      <c r="B20" s="395">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C20" s="390"/>
+      <c r="C20" s="396"/>
       <c r="D20" s="245">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -12049,11 +12049,11 @@
       <c r="A21" s="256">
         <v>9</v>
       </c>
-      <c r="B21" s="389">
+      <c r="B21" s="395">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C21" s="390"/>
+      <c r="C21" s="396"/>
       <c r="D21" s="245">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -12088,11 +12088,11 @@
       <c r="A22" s="256">
         <v>10</v>
       </c>
-      <c r="B22" s="389">
+      <c r="B22" s="395">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C22" s="390"/>
+      <c r="C22" s="396"/>
       <c r="D22" s="245">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -12127,11 +12127,11 @@
       <c r="A23" s="256">
         <v>11</v>
       </c>
-      <c r="B23" s="389">
+      <c r="B23" s="395">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C23" s="390"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="245">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -12166,11 +12166,11 @@
       <c r="A24" s="256">
         <v>12</v>
       </c>
-      <c r="B24" s="389">
+      <c r="B24" s="395">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="390"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="245">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -12205,11 +12205,11 @@
       <c r="A25" s="256">
         <v>13</v>
       </c>
-      <c r="B25" s="389">
+      <c r="B25" s="395">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C25" s="390"/>
+      <c r="C25" s="396"/>
       <c r="D25" s="245">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -12244,11 +12244,11 @@
       <c r="A26" s="256">
         <v>14</v>
       </c>
-      <c r="B26" s="389">
+      <c r="B26" s="395">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C26" s="390"/>
+      <c r="C26" s="396"/>
       <c r="D26" s="245">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -12283,11 +12283,11 @@
       <c r="A27" s="256">
         <v>15</v>
       </c>
-      <c r="B27" s="389">
+      <c r="B27" s="395">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C27" s="390"/>
+      <c r="C27" s="396"/>
       <c r="D27" s="245">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -12322,11 +12322,11 @@
       <c r="A28" s="256">
         <v>16</v>
       </c>
-      <c r="B28" s="389">
+      <c r="B28" s="395">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C28" s="390"/>
+      <c r="C28" s="396"/>
       <c r="D28" s="245">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -12361,11 +12361,11 @@
       <c r="A29" s="256">
         <v>17</v>
       </c>
-      <c r="B29" s="392">
+      <c r="B29" s="389">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C29" s="393"/>
+      <c r="C29" s="390"/>
       <c r="D29" s="245">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -12400,11 +12400,11 @@
       <c r="A30" s="256">
         <v>18</v>
       </c>
-      <c r="B30" s="392">
+      <c r="B30" s="389">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C30" s="393"/>
+      <c r="C30" s="390"/>
       <c r="D30" s="245">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -12439,11 +12439,11 @@
       <c r="A31" s="256">
         <v>19</v>
       </c>
-      <c r="B31" s="392">
+      <c r="B31" s="389">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C31" s="393"/>
+      <c r="C31" s="390"/>
       <c r="D31" s="245">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -12478,11 +12478,11 @@
       <c r="A32" s="256">
         <v>20</v>
       </c>
-      <c r="B32" s="392">
+      <c r="B32" s="389">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C32" s="393"/>
+      <c r="C32" s="390"/>
       <c r="D32" s="245">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -12517,11 +12517,11 @@
       <c r="A33" s="256">
         <v>21</v>
       </c>
-      <c r="B33" s="392">
+      <c r="B33" s="389">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C33" s="393"/>
+      <c r="C33" s="390"/>
       <c r="D33" s="245">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -12556,11 +12556,11 @@
       <c r="A34" s="256">
         <v>22</v>
       </c>
-      <c r="B34" s="392">
+      <c r="B34" s="389">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C34" s="393"/>
+      <c r="C34" s="390"/>
       <c r="D34" s="245">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -12595,11 +12595,11 @@
       <c r="A35" s="256">
         <v>23</v>
       </c>
-      <c r="B35" s="392">
+      <c r="B35" s="389">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C35" s="393"/>
+      <c r="C35" s="390"/>
       <c r="D35" s="245">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -12634,11 +12634,11 @@
       <c r="A36" s="256">
         <v>24</v>
       </c>
-      <c r="B36" s="389">
+      <c r="B36" s="395">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C36" s="390"/>
+      <c r="C36" s="396"/>
       <c r="D36" s="245">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -12673,11 +12673,11 @@
       <c r="A37" s="256">
         <v>25</v>
       </c>
-      <c r="B37" s="389">
+      <c r="B37" s="395">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C37" s="390"/>
+      <c r="C37" s="396"/>
       <c r="D37" s="245">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -12712,11 +12712,11 @@
       <c r="A38" s="256">
         <v>26</v>
       </c>
-      <c r="B38" s="389">
+      <c r="B38" s="395">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="390"/>
+      <c r="C38" s="396"/>
       <c r="D38" s="245">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -12751,11 +12751,11 @@
       <c r="A39" s="256">
         <v>27</v>
       </c>
-      <c r="B39" s="389">
+      <c r="B39" s="395">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="390"/>
+      <c r="C39" s="396"/>
       <c r="D39" s="245">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -12790,11 +12790,11 @@
       <c r="A40" s="256">
         <v>28</v>
       </c>
-      <c r="B40" s="389">
+      <c r="B40" s="395">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C40" s="390"/>
+      <c r="C40" s="396"/>
       <c r="D40" s="245">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -12829,11 +12829,11 @@
       <c r="A41" s="256">
         <v>29</v>
       </c>
-      <c r="B41" s="389">
+      <c r="B41" s="395">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="390"/>
+      <c r="C41" s="396"/>
       <c r="D41" s="245">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -12868,11 +12868,11 @@
       <c r="A42" s="256">
         <v>30</v>
       </c>
-      <c r="B42" s="389">
+      <c r="B42" s="395">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C42" s="390"/>
+      <c r="C42" s="396"/>
       <c r="D42" s="245">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -12907,11 +12907,11 @@
       <c r="A43" s="256">
         <v>31</v>
       </c>
-      <c r="B43" s="389">
+      <c r="B43" s="395">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="390"/>
+      <c r="C43" s="396"/>
       <c r="D43" s="245">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -12946,11 +12946,11 @@
       <c r="A44" s="256">
         <v>32</v>
       </c>
-      <c r="B44" s="389">
+      <c r="B44" s="395">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C44" s="390"/>
+      <c r="C44" s="396"/>
       <c r="D44" s="245">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -12985,11 +12985,11 @@
       <c r="A45" s="256">
         <v>33</v>
       </c>
-      <c r="B45" s="389">
+      <c r="B45" s="395">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C45" s="390"/>
+      <c r="C45" s="396"/>
       <c r="D45" s="245">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -13024,11 +13024,11 @@
       <c r="A46" s="256">
         <v>34</v>
       </c>
-      <c r="B46" s="389">
+      <c r="B46" s="395">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C46" s="390"/>
+      <c r="C46" s="396"/>
       <c r="D46" s="245">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -13063,11 +13063,11 @@
       <c r="A47" s="256">
         <v>35</v>
       </c>
-      <c r="B47" s="389">
+      <c r="B47" s="395">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C47" s="390"/>
+      <c r="C47" s="396"/>
       <c r="D47" s="245">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -13102,11 +13102,11 @@
       <c r="A48" s="256">
         <v>36</v>
       </c>
-      <c r="B48" s="389">
+      <c r="B48" s="395">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C48" s="390"/>
+      <c r="C48" s="396"/>
       <c r="D48" s="245">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -13141,11 +13141,11 @@
       <c r="A49" s="256">
         <v>37</v>
       </c>
-      <c r="B49" s="389">
+      <c r="B49" s="395">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C49" s="390"/>
+      <c r="C49" s="396"/>
       <c r="D49" s="245">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -13180,11 +13180,11 @@
       <c r="A50" s="256">
         <v>38</v>
       </c>
-      <c r="B50" s="389">
+      <c r="B50" s="395">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C50" s="390"/>
+      <c r="C50" s="396"/>
       <c r="D50" s="245">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -13219,11 +13219,11 @@
       <c r="A51" s="256">
         <v>39</v>
       </c>
-      <c r="B51" s="389">
+      <c r="B51" s="395">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C51" s="390"/>
+      <c r="C51" s="396"/>
       <c r="D51" s="245">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -13258,11 +13258,11 @@
       <c r="A52" s="256">
         <v>40</v>
       </c>
-      <c r="B52" s="389">
+      <c r="B52" s="395">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="390"/>
+      <c r="C52" s="396"/>
       <c r="D52" s="245">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -13297,11 +13297,11 @@
       <c r="A53" s="256">
         <v>41</v>
       </c>
-      <c r="B53" s="389">
+      <c r="B53" s="395">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C53" s="390"/>
+      <c r="C53" s="396"/>
       <c r="D53" s="245">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -13336,11 +13336,11 @@
       <c r="A54" s="256">
         <v>42</v>
       </c>
-      <c r="B54" s="389">
+      <c r="B54" s="395">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C54" s="390"/>
+      <c r="C54" s="396"/>
       <c r="D54" s="245">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -13375,11 +13375,11 @@
       <c r="A55" s="256">
         <v>43</v>
       </c>
-      <c r="B55" s="389">
+      <c r="B55" s="395">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C55" s="390"/>
+      <c r="C55" s="396"/>
       <c r="D55" s="245">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -13414,11 +13414,11 @@
       <c r="A56" s="256">
         <v>44</v>
       </c>
-      <c r="B56" s="389">
+      <c r="B56" s="395">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C56" s="390"/>
+      <c r="C56" s="396"/>
       <c r="D56" s="245">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -13453,11 +13453,11 @@
       <c r="A57" s="256">
         <v>45</v>
       </c>
-      <c r="B57" s="389">
+      <c r="B57" s="395">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="390"/>
+      <c r="C57" s="396"/>
       <c r="D57" s="245">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -13492,11 +13492,11 @@
       <c r="A58" s="256">
         <v>46</v>
       </c>
-      <c r="B58" s="389">
+      <c r="B58" s="395">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C58" s="390"/>
+      <c r="C58" s="396"/>
       <c r="D58" s="245">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -13531,11 +13531,11 @@
       <c r="A59" s="256">
         <v>47</v>
       </c>
-      <c r="B59" s="389">
+      <c r="B59" s="395">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C59" s="390"/>
+      <c r="C59" s="396"/>
       <c r="D59" s="245">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -13570,11 +13570,11 @@
       <c r="A60" s="256">
         <v>48</v>
       </c>
-      <c r="B60" s="389">
+      <c r="B60" s="395">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C60" s="390"/>
+      <c r="C60" s="396"/>
       <c r="D60" s="245">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -13609,11 +13609,11 @@
       <c r="A61" s="256">
         <v>49</v>
       </c>
-      <c r="B61" s="389">
+      <c r="B61" s="395">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C61" s="390"/>
+      <c r="C61" s="396"/>
       <c r="D61" s="245">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -13648,11 +13648,11 @@
       <c r="A62" s="256">
         <v>50</v>
       </c>
-      <c r="B62" s="389">
+      <c r="B62" s="395">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C62" s="390"/>
+      <c r="C62" s="396"/>
       <c r="D62" s="245">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -13687,11 +13687,11 @@
       <c r="A63" s="256">
         <v>51</v>
       </c>
-      <c r="B63" s="389">
+      <c r="B63" s="395">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C63" s="390"/>
+      <c r="C63" s="396"/>
       <c r="D63" s="245">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -13726,11 +13726,11 @@
       <c r="A64" s="256">
         <v>52</v>
       </c>
-      <c r="B64" s="389">
+      <c r="B64" s="395">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C64" s="390"/>
+      <c r="C64" s="396"/>
       <c r="D64" s="245">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -13765,11 +13765,11 @@
       <c r="A65" s="256">
         <v>53</v>
       </c>
-      <c r="B65" s="389">
+      <c r="B65" s="395">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C65" s="390"/>
+      <c r="C65" s="396"/>
       <c r="D65" s="245">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -13804,11 +13804,11 @@
       <c r="A66" s="256">
         <v>54</v>
       </c>
-      <c r="B66" s="389">
+      <c r="B66" s="395">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C66" s="390"/>
+      <c r="C66" s="396"/>
       <c r="D66" s="245">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -13843,11 +13843,11 @@
       <c r="A67" s="256">
         <v>55</v>
       </c>
-      <c r="B67" s="389">
+      <c r="B67" s="395">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C67" s="390"/>
+      <c r="C67" s="396"/>
       <c r="D67" s="245">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -13882,11 +13882,11 @@
       <c r="A68" s="256">
         <v>56</v>
       </c>
-      <c r="B68" s="389">
+      <c r="B68" s="395">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C68" s="390"/>
+      <c r="C68" s="396"/>
       <c r="D68" s="245">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -13921,11 +13921,11 @@
       <c r="A69" s="256">
         <v>57</v>
       </c>
-      <c r="B69" s="389">
+      <c r="B69" s="395">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C69" s="390"/>
+      <c r="C69" s="396"/>
       <c r="D69" s="245">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -13960,11 +13960,11 @@
       <c r="A70" s="256">
         <v>58</v>
       </c>
-      <c r="B70" s="389">
+      <c r="B70" s="395">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C70" s="390"/>
+      <c r="C70" s="396"/>
       <c r="D70" s="245">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -13999,11 +13999,11 @@
       <c r="A71" s="256">
         <v>59</v>
       </c>
-      <c r="B71" s="389">
+      <c r="B71" s="395">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C71" s="390"/>
+      <c r="C71" s="396"/>
       <c r="D71" s="245">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -14038,11 +14038,11 @@
       <c r="A72" s="256">
         <v>60</v>
       </c>
-      <c r="B72" s="389">
+      <c r="B72" s="395">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C72" s="390"/>
+      <c r="C72" s="396"/>
       <c r="D72" s="245">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -14077,11 +14077,11 @@
       <c r="A73" s="256">
         <v>61</v>
       </c>
-      <c r="B73" s="389">
+      <c r="B73" s="395">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C73" s="390"/>
+      <c r="C73" s="396"/>
       <c r="D73" s="245">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -14116,11 +14116,11 @@
       <c r="A74" s="256">
         <v>62</v>
       </c>
-      <c r="B74" s="389">
+      <c r="B74" s="395">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C74" s="390"/>
+      <c r="C74" s="396"/>
       <c r="D74" s="245">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -14155,11 +14155,11 @@
       <c r="A75" s="256">
         <v>63</v>
       </c>
-      <c r="B75" s="389">
+      <c r="B75" s="395">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C75" s="390"/>
+      <c r="C75" s="396"/>
       <c r="D75" s="245">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -14194,11 +14194,11 @@
       <c r="A76" s="256">
         <v>64</v>
       </c>
-      <c r="B76" s="389">
+      <c r="B76" s="395">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C76" s="390"/>
+      <c r="C76" s="396"/>
       <c r="D76" s="245">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -14233,11 +14233,11 @@
       <c r="A77" s="256">
         <v>65</v>
       </c>
-      <c r="B77" s="389">
+      <c r="B77" s="395">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C77" s="390"/>
+      <c r="C77" s="396"/>
       <c r="D77" s="245">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -14272,11 +14272,11 @@
       <c r="A78" s="256">
         <v>66</v>
       </c>
-      <c r="B78" s="389">
+      <c r="B78" s="395">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C78" s="390"/>
+      <c r="C78" s="396"/>
       <c r="D78" s="245">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -14311,11 +14311,11 @@
       <c r="A79" s="256">
         <v>67</v>
       </c>
-      <c r="B79" s="389">
+      <c r="B79" s="395">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C79" s="390"/>
+      <c r="C79" s="396"/>
       <c r="D79" s="245">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -14350,11 +14350,11 @@
       <c r="A80" s="256">
         <v>68</v>
       </c>
-      <c r="B80" s="389">
+      <c r="B80" s="395">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="390"/>
+      <c r="C80" s="396"/>
       <c r="D80" s="245">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -14389,11 +14389,11 @@
       <c r="A81" s="256">
         <v>69</v>
       </c>
-      <c r="B81" s="389">
+      <c r="B81" s="395">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C81" s="390"/>
+      <c r="C81" s="396"/>
       <c r="D81" s="245">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -14428,11 +14428,11 @@
       <c r="A82" s="256">
         <v>70</v>
       </c>
-      <c r="B82" s="389">
+      <c r="B82" s="395">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C82" s="390"/>
+      <c r="C82" s="396"/>
       <c r="D82" s="245">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -14467,11 +14467,11 @@
       <c r="A83" s="256">
         <v>71</v>
       </c>
-      <c r="B83" s="389">
+      <c r="B83" s="395">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C83" s="390"/>
+      <c r="C83" s="396"/>
       <c r="D83" s="245">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -14506,11 +14506,11 @@
       <c r="A84" s="256">
         <v>72</v>
       </c>
-      <c r="B84" s="389">
+      <c r="B84" s="395">
         <f>INPUT!C75</f>
         <v>0</v>
       </c>
-      <c r="C84" s="390"/>
+      <c r="C84" s="396"/>
       <c r="D84" s="245">
         <f>INPUT!D75</f>
         <v>0</v>
@@ -14586,11 +14586,11 @@
       <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="401" t="s">
+      <c r="A87" s="391" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="402"/>
-      <c r="C87" s="403"/>
+      <c r="B87" s="392"/>
+      <c r="C87" s="393"/>
       <c r="D87" s="147">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -14912,11 +14912,69 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C10"/>
@@ -14933,69 +14991,11 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.15748031496063" top="0.74803149606299202" bottom="0.39370078740157499" header="0.31496062992126" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15109,53 +15109,53 @@
       <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A9" s="413" t="s">
+      <c r="A9" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="415" t="s">
+      <c r="B9" s="421" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="416"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="391" t="s">
+      <c r="C9" s="422"/>
+      <c r="D9" s="423"/>
+      <c r="E9" s="394" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="391" t="s">
+      <c r="F9" s="394" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="391" t="s">
+      <c r="G9" s="394" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="391" t="s">
+      <c r="H9" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="391" t="s">
+      <c r="I9" s="394" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="391" t="s">
+      <c r="J9" s="394" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="430" t="s">
+      <c r="K9" s="411" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="431"/>
+      <c r="L9" s="412"/>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="414"/>
-      <c r="B10" s="418"/>
-      <c r="C10" s="419"/>
-      <c r="D10" s="420"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="432"/>
-      <c r="L10" s="433"/>
+      <c r="A10" s="420"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
+      <c r="G10" s="365"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="414"/>
       <c r="O10" s="7" t="s">
         <v>25</v>
       </c>
@@ -15164,11 +15164,11 @@
       <c r="A11" s="199">
         <v>1</v>
       </c>
-      <c r="B11" s="421">
+      <c r="B11" s="409">
         <v>2</v>
       </c>
-      <c r="C11" s="422"/>
-      <c r="D11" s="423"/>
+      <c r="C11" s="427"/>
+      <c r="D11" s="428"/>
       <c r="E11" s="200">
         <v>3</v>
       </c>
@@ -15185,35 +15185,35 @@
       <c r="J11" s="201">
         <v>7</v>
       </c>
-      <c r="K11" s="421">
+      <c r="K11" s="409">
         <v>8</v>
       </c>
-      <c r="L11" s="429"/>
+      <c r="L11" s="410"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickTop="1">
       <c r="A12" s="202"/>
-      <c r="B12" s="424"/>
-      <c r="C12" s="425"/>
-      <c r="D12" s="426"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="429"/>
+      <c r="D12" s="430"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="424"/>
-      <c r="L12" s="436"/>
+      <c r="K12" s="417"/>
+      <c r="L12" s="418"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1">
       <c r="A13" s="259">
         <v>1</v>
       </c>
-      <c r="B13" s="389">
+      <c r="B13" s="395">
         <f>PBJ!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="406"/>
-      <c r="D13" s="390"/>
+      <c r="D13" s="396"/>
       <c r="E13" s="247">
         <f>PBJ!D13</f>
         <v>0</v>
@@ -15230,12 +15230,12 @@
       <c r="A14" s="259">
         <v>2</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="395">
         <f>PBJ!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="406"/>
-      <c r="D14" s="390"/>
+      <c r="D14" s="396"/>
       <c r="E14" s="247">
         <f>PBJ!D14</f>
         <v>0</v>
@@ -15252,12 +15252,12 @@
       <c r="A15" s="259">
         <v>3</v>
       </c>
-      <c r="B15" s="389">
+      <c r="B15" s="395">
         <f>PBJ!B16</f>
         <v>0</v>
       </c>
       <c r="C15" s="406"/>
-      <c r="D15" s="390"/>
+      <c r="D15" s="396"/>
       <c r="E15" s="247">
         <f>PBJ!D16</f>
         <v>0</v>
@@ -15267,19 +15267,19 @@
       <c r="H15" s="251"/>
       <c r="I15" s="251"/>
       <c r="J15" s="258"/>
-      <c r="K15" s="434"/>
-      <c r="L15" s="435"/>
+      <c r="K15" s="415"/>
+      <c r="L15" s="416"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
       <c r="A16" s="259">
         <v>4</v>
       </c>
-      <c r="B16" s="389">
+      <c r="B16" s="395">
         <f>PBJ!B17</f>
         <v>0</v>
       </c>
       <c r="C16" s="406"/>
-      <c r="D16" s="390"/>
+      <c r="D16" s="396"/>
       <c r="E16" s="247">
         <f>PBJ!D17</f>
         <v>0</v>
@@ -15289,19 +15289,19 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="258"/>
-      <c r="K16" s="434"/>
-      <c r="L16" s="435"/>
+      <c r="K16" s="415"/>
+      <c r="L16" s="416"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="259">
         <v>5</v>
       </c>
-      <c r="B17" s="389">
+      <c r="B17" s="395">
         <f>PBJ!B18</f>
         <v>0</v>
       </c>
       <c r="C17" s="406"/>
-      <c r="D17" s="390"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="247">
         <f>PBJ!D18</f>
         <v>0</v>
@@ -15318,12 +15318,12 @@
       <c r="A18" s="259">
         <v>6</v>
       </c>
-      <c r="B18" s="389">
+      <c r="B18" s="395">
         <f>PBJ!B19</f>
         <v>0</v>
       </c>
       <c r="C18" s="406"/>
-      <c r="D18" s="390"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="247">
         <f>PBJ!D19</f>
         <v>0</v>
@@ -15340,12 +15340,12 @@
       <c r="A19" s="259">
         <v>7</v>
       </c>
-      <c r="B19" s="389">
+      <c r="B19" s="395">
         <f>PBJ!B20</f>
         <v>0</v>
       </c>
       <c r="C19" s="406"/>
-      <c r="D19" s="390"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="247">
         <f>PBJ!D20</f>
         <v>0</v>
@@ -15362,12 +15362,12 @@
       <c r="A20" s="259">
         <v>8</v>
       </c>
-      <c r="B20" s="389">
+      <c r="B20" s="395">
         <f>PBJ!B21</f>
         <v>0</v>
       </c>
       <c r="C20" s="406"/>
-      <c r="D20" s="390"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="247">
         <f>PBJ!D21</f>
         <v>0</v>
@@ -15384,12 +15384,12 @@
       <c r="A21" s="259">
         <v>9</v>
       </c>
-      <c r="B21" s="389">
+      <c r="B21" s="395">
         <f>PBJ!B22</f>
         <v>0</v>
       </c>
       <c r="C21" s="406"/>
-      <c r="D21" s="390"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="247">
         <f>PBJ!D22</f>
         <v>0</v>
@@ -15406,12 +15406,12 @@
       <c r="A22" s="259">
         <v>10</v>
       </c>
-      <c r="B22" s="389">
+      <c r="B22" s="395">
         <f>PBJ!B23</f>
         <v>0</v>
       </c>
       <c r="C22" s="406"/>
-      <c r="D22" s="390"/>
+      <c r="D22" s="396"/>
       <c r="E22" s="247">
         <f>PBJ!D23</f>
         <v>0</v>
@@ -15428,12 +15428,12 @@
       <c r="A23" s="259">
         <v>11</v>
       </c>
-      <c r="B23" s="389">
+      <c r="B23" s="395">
         <f>PBJ!B24</f>
         <v>0</v>
       </c>
       <c r="C23" s="406"/>
-      <c r="D23" s="390"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="247">
         <f>PBJ!D24</f>
         <v>0</v>
@@ -15450,12 +15450,12 @@
       <c r="A24" s="259">
         <v>12</v>
       </c>
-      <c r="B24" s="389">
+      <c r="B24" s="395">
         <f>PBJ!B25</f>
         <v>0</v>
       </c>
       <c r="C24" s="406"/>
-      <c r="D24" s="390"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="247">
         <f>PBJ!D25</f>
         <v>0</v>
@@ -15472,12 +15472,12 @@
       <c r="A25" s="259">
         <v>13</v>
       </c>
-      <c r="B25" s="389">
+      <c r="B25" s="395">
         <f>PBJ!B26</f>
         <v>0</v>
       </c>
       <c r="C25" s="406"/>
-      <c r="D25" s="390"/>
+      <c r="D25" s="396"/>
       <c r="E25" s="247">
         <f>PBJ!D26</f>
         <v>0</v>
@@ -15494,12 +15494,12 @@
       <c r="A26" s="259">
         <v>14</v>
       </c>
-      <c r="B26" s="389">
+      <c r="B26" s="395">
         <f>PBJ!B27</f>
         <v>0</v>
       </c>
       <c r="C26" s="406"/>
-      <c r="D26" s="390"/>
+      <c r="D26" s="396"/>
       <c r="E26" s="247">
         <f>PBJ!D27</f>
         <v>0</v>
@@ -15516,12 +15516,12 @@
       <c r="A27" s="259">
         <v>15</v>
       </c>
-      <c r="B27" s="389">
+      <c r="B27" s="395">
         <f>PBJ!B28</f>
         <v>0</v>
       </c>
       <c r="C27" s="406"/>
-      <c r="D27" s="390"/>
+      <c r="D27" s="396"/>
       <c r="E27" s="247">
         <f>PBJ!D28</f>
         <v>0</v>
@@ -15538,12 +15538,12 @@
       <c r="A28" s="259">
         <v>16</v>
       </c>
-      <c r="B28" s="389">
+      <c r="B28" s="395">
         <f>PBJ!B29</f>
         <v>0</v>
       </c>
       <c r="C28" s="406"/>
-      <c r="D28" s="390"/>
+      <c r="D28" s="396"/>
       <c r="E28" s="247">
         <f>PBJ!D29</f>
         <v>0</v>
@@ -15560,12 +15560,12 @@
       <c r="A29" s="259">
         <v>17</v>
       </c>
-      <c r="B29" s="389">
+      <c r="B29" s="395">
         <f>PBJ!B30</f>
         <v>0</v>
       </c>
       <c r="C29" s="406"/>
-      <c r="D29" s="390"/>
+      <c r="D29" s="396"/>
       <c r="E29" s="247">
         <f>PBJ!D30</f>
         <v>0</v>
@@ -15582,12 +15582,12 @@
       <c r="A30" s="259">
         <v>18</v>
       </c>
-      <c r="B30" s="389">
+      <c r="B30" s="395">
         <f>PBJ!B31</f>
         <v>0</v>
       </c>
       <c r="C30" s="406"/>
-      <c r="D30" s="390"/>
+      <c r="D30" s="396"/>
       <c r="E30" s="247">
         <f>PBJ!D31</f>
         <v>0</v>
@@ -15604,12 +15604,12 @@
       <c r="A31" s="259">
         <v>19</v>
       </c>
-      <c r="B31" s="389">
+      <c r="B31" s="395">
         <f>PBJ!B32</f>
         <v>0</v>
       </c>
       <c r="C31" s="406"/>
-      <c r="D31" s="390"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="247">
         <f>PBJ!D32</f>
         <v>0</v>
@@ -15626,12 +15626,12 @@
       <c r="A32" s="259">
         <v>20</v>
       </c>
-      <c r="B32" s="389">
+      <c r="B32" s="395">
         <f>PBJ!B33</f>
         <v>0</v>
       </c>
       <c r="C32" s="406"/>
-      <c r="D32" s="390"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="247">
         <f>PBJ!D33</f>
         <v>0</v>
@@ -15648,12 +15648,12 @@
       <c r="A33" s="259">
         <v>21</v>
       </c>
-      <c r="B33" s="389">
+      <c r="B33" s="395">
         <f>PBJ!B34</f>
         <v>0</v>
       </c>
       <c r="C33" s="406"/>
-      <c r="D33" s="390"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="247">
         <f>PBJ!D34</f>
         <v>0</v>
@@ -15670,12 +15670,12 @@
       <c r="A34" s="259">
         <v>22</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="395">
         <f>PBJ!B35</f>
         <v>0</v>
       </c>
       <c r="C34" s="406"/>
-      <c r="D34" s="390"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="247">
         <f>PBJ!D35</f>
         <v>0</v>
@@ -15692,12 +15692,12 @@
       <c r="A35" s="259">
         <v>23</v>
       </c>
-      <c r="B35" s="389">
+      <c r="B35" s="395">
         <f>PBJ!B36</f>
         <v>0</v>
       </c>
       <c r="C35" s="406"/>
-      <c r="D35" s="390"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="247">
         <f>PBJ!D36</f>
         <v>0</v>
@@ -15714,12 +15714,12 @@
       <c r="A36" s="259">
         <v>24</v>
       </c>
-      <c r="B36" s="389">
+      <c r="B36" s="395">
         <f>PBJ!B37</f>
         <v>0</v>
       </c>
       <c r="C36" s="406"/>
-      <c r="D36" s="390"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="247"/>
       <c r="F36" s="250"/>
       <c r="G36" s="251"/>
@@ -15733,12 +15733,12 @@
       <c r="A37" s="259">
         <v>25</v>
       </c>
-      <c r="B37" s="389">
+      <c r="B37" s="395">
         <f>PBJ!B38</f>
         <v>0</v>
       </c>
       <c r="C37" s="406"/>
-      <c r="D37" s="390"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="247"/>
       <c r="F37" s="250"/>
       <c r="G37" s="251"/>
@@ -15752,12 +15752,12 @@
       <c r="A38" s="259">
         <v>26</v>
       </c>
-      <c r="B38" s="389">
+      <c r="B38" s="395">
         <f>PBJ!B39</f>
         <v>0</v>
       </c>
       <c r="C38" s="406"/>
-      <c r="D38" s="390"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="247"/>
       <c r="F38" s="250"/>
       <c r="G38" s="251"/>
@@ -15771,12 +15771,12 @@
       <c r="A39" s="259">
         <v>27</v>
       </c>
-      <c r="B39" s="389">
+      <c r="B39" s="395">
         <f>PBJ!B40</f>
         <v>0</v>
       </c>
       <c r="C39" s="406"/>
-      <c r="D39" s="390"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="247"/>
       <c r="F39" s="250"/>
       <c r="G39" s="251"/>
@@ -15790,12 +15790,12 @@
       <c r="A40" s="259">
         <v>28</v>
       </c>
-      <c r="B40" s="389">
+      <c r="B40" s="395">
         <f>PBJ!B41</f>
         <v>0</v>
       </c>
       <c r="C40" s="406"/>
-      <c r="D40" s="390"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="247"/>
       <c r="F40" s="250"/>
       <c r="G40" s="251"/>
@@ -15809,12 +15809,12 @@
       <c r="A41" s="259">
         <v>29</v>
       </c>
-      <c r="B41" s="389">
+      <c r="B41" s="395">
         <f>PBJ!B42</f>
         <v>0</v>
       </c>
       <c r="C41" s="406"/>
-      <c r="D41" s="390"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="247"/>
       <c r="F41" s="250"/>
       <c r="G41" s="251"/>
@@ -15828,12 +15828,12 @@
       <c r="A42" s="259">
         <v>30</v>
       </c>
-      <c r="B42" s="389">
+      <c r="B42" s="395">
         <f>PBJ!B43</f>
         <v>0</v>
       </c>
       <c r="C42" s="406"/>
-      <c r="D42" s="390"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="247"/>
       <c r="F42" s="250"/>
       <c r="G42" s="251"/>
@@ -15847,12 +15847,12 @@
       <c r="A43" s="259">
         <v>31</v>
       </c>
-      <c r="B43" s="389">
+      <c r="B43" s="395">
         <f>PBJ!B44</f>
         <v>0</v>
       </c>
       <c r="C43" s="406"/>
-      <c r="D43" s="390"/>
+      <c r="D43" s="396"/>
       <c r="E43" s="247"/>
       <c r="F43" s="250"/>
       <c r="G43" s="251"/>
@@ -15866,12 +15866,12 @@
       <c r="A44" s="259">
         <v>32</v>
       </c>
-      <c r="B44" s="389">
+      <c r="B44" s="395">
         <f>PBJ!B45</f>
         <v>0</v>
       </c>
       <c r="C44" s="406"/>
-      <c r="D44" s="390"/>
+      <c r="D44" s="396"/>
       <c r="E44" s="247"/>
       <c r="F44" s="250"/>
       <c r="G44" s="251"/>
@@ -15885,12 +15885,12 @@
       <c r="A45" s="259">
         <v>33</v>
       </c>
-      <c r="B45" s="389">
+      <c r="B45" s="395">
         <f>PBJ!B46</f>
         <v>0</v>
       </c>
       <c r="C45" s="406"/>
-      <c r="D45" s="390"/>
+      <c r="D45" s="396"/>
       <c r="E45" s="247"/>
       <c r="F45" s="250"/>
       <c r="G45" s="251"/>
@@ -15904,12 +15904,12 @@
       <c r="A46" s="259">
         <v>34</v>
       </c>
-      <c r="B46" s="389">
+      <c r="B46" s="395">
         <f>PBJ!B47</f>
         <v>0</v>
       </c>
       <c r="C46" s="406"/>
-      <c r="D46" s="390"/>
+      <c r="D46" s="396"/>
       <c r="E46" s="247"/>
       <c r="F46" s="250"/>
       <c r="G46" s="251"/>
@@ -15923,12 +15923,12 @@
       <c r="A47" s="259">
         <v>35</v>
       </c>
-      <c r="B47" s="389">
+      <c r="B47" s="395">
         <f>PBJ!B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="406"/>
-      <c r="D47" s="390"/>
+      <c r="D47" s="396"/>
       <c r="E47" s="247"/>
       <c r="F47" s="250"/>
       <c r="G47" s="251"/>
@@ -15942,12 +15942,12 @@
       <c r="A48" s="259">
         <v>36</v>
       </c>
-      <c r="B48" s="389">
+      <c r="B48" s="395">
         <f>PBJ!B49</f>
         <v>0</v>
       </c>
       <c r="C48" s="406"/>
-      <c r="D48" s="390"/>
+      <c r="D48" s="396"/>
       <c r="E48" s="247"/>
       <c r="F48" s="250"/>
       <c r="G48" s="251"/>
@@ -15961,12 +15961,12 @@
       <c r="A49" s="259">
         <v>37</v>
       </c>
-      <c r="B49" s="389">
+      <c r="B49" s="395">
         <f>PBJ!B50</f>
         <v>0</v>
       </c>
       <c r="C49" s="406"/>
-      <c r="D49" s="390"/>
+      <c r="D49" s="396"/>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>
       <c r="G49" s="251"/>
@@ -15980,12 +15980,12 @@
       <c r="A50" s="259">
         <v>38</v>
       </c>
-      <c r="B50" s="389">
+      <c r="B50" s="395">
         <f>PBJ!B51</f>
         <v>0</v>
       </c>
       <c r="C50" s="406"/>
-      <c r="D50" s="390"/>
+      <c r="D50" s="396"/>
       <c r="E50" s="247"/>
       <c r="F50" s="250"/>
       <c r="G50" s="251"/>
@@ -15999,12 +15999,12 @@
       <c r="A51" s="259">
         <v>39</v>
       </c>
-      <c r="B51" s="389">
+      <c r="B51" s="395">
         <f>PBJ!B52</f>
         <v>0</v>
       </c>
       <c r="C51" s="406"/>
-      <c r="D51" s="390"/>
+      <c r="D51" s="396"/>
       <c r="E51" s="247"/>
       <c r="F51" s="250"/>
       <c r="G51" s="251"/>
@@ -16018,12 +16018,12 @@
       <c r="A52" s="259">
         <v>40</v>
       </c>
-      <c r="B52" s="389">
+      <c r="B52" s="395">
         <f>PBJ!B53</f>
         <v>0</v>
       </c>
       <c r="C52" s="406"/>
-      <c r="D52" s="390"/>
+      <c r="D52" s="396"/>
       <c r="E52" s="247"/>
       <c r="F52" s="250"/>
       <c r="G52" s="251"/>
@@ -16037,12 +16037,12 @@
       <c r="A53" s="259">
         <v>41</v>
       </c>
-      <c r="B53" s="389">
+      <c r="B53" s="395">
         <f>PBJ!B54</f>
         <v>0</v>
       </c>
       <c r="C53" s="406"/>
-      <c r="D53" s="390"/>
+      <c r="D53" s="396"/>
       <c r="E53" s="247"/>
       <c r="F53" s="250"/>
       <c r="G53" s="251"/>
@@ -16056,12 +16056,12 @@
       <c r="A54" s="259">
         <v>42</v>
       </c>
-      <c r="B54" s="389">
+      <c r="B54" s="395">
         <f>PBJ!B55</f>
         <v>0</v>
       </c>
       <c r="C54" s="406"/>
-      <c r="D54" s="390"/>
+      <c r="D54" s="396"/>
       <c r="E54" s="247"/>
       <c r="F54" s="250"/>
       <c r="G54" s="251"/>
@@ -16075,12 +16075,12 @@
       <c r="A55" s="259">
         <v>43</v>
       </c>
-      <c r="B55" s="389">
+      <c r="B55" s="395">
         <f>PBJ!B56</f>
         <v>0</v>
       </c>
       <c r="C55" s="406"/>
-      <c r="D55" s="390"/>
+      <c r="D55" s="396"/>
       <c r="E55" s="247"/>
       <c r="F55" s="250"/>
       <c r="G55" s="251"/>
@@ -16094,12 +16094,12 @@
       <c r="A56" s="259">
         <v>44</v>
       </c>
-      <c r="B56" s="389">
+      <c r="B56" s="395">
         <f>PBJ!B57</f>
         <v>0</v>
       </c>
       <c r="C56" s="406"/>
-      <c r="D56" s="390"/>
+      <c r="D56" s="396"/>
       <c r="E56" s="247"/>
       <c r="F56" s="250"/>
       <c r="G56" s="251"/>
@@ -16113,12 +16113,12 @@
       <c r="A57" s="259">
         <v>45</v>
       </c>
-      <c r="B57" s="389">
+      <c r="B57" s="395">
         <f>PBJ!B58</f>
         <v>0</v>
       </c>
       <c r="C57" s="406"/>
-      <c r="D57" s="390"/>
+      <c r="D57" s="396"/>
       <c r="E57" s="247"/>
       <c r="F57" s="250"/>
       <c r="G57" s="251"/>
@@ -16132,12 +16132,12 @@
       <c r="A58" s="259">
         <v>46</v>
       </c>
-      <c r="B58" s="389">
+      <c r="B58" s="395">
         <f>PBJ!B59</f>
         <v>0</v>
       </c>
       <c r="C58" s="406"/>
-      <c r="D58" s="390"/>
+      <c r="D58" s="396"/>
       <c r="E58" s="247"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251"/>
@@ -16151,12 +16151,12 @@
       <c r="A59" s="259">
         <v>47</v>
       </c>
-      <c r="B59" s="389">
+      <c r="B59" s="395">
         <f>PBJ!B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="406"/>
-      <c r="D59" s="390"/>
+      <c r="D59" s="396"/>
       <c r="E59" s="247"/>
       <c r="F59" s="250"/>
       <c r="G59" s="251"/>
@@ -16170,12 +16170,12 @@
       <c r="A60" s="259">
         <v>48</v>
       </c>
-      <c r="B60" s="389">
+      <c r="B60" s="395">
         <f>PBJ!B61</f>
         <v>0</v>
       </c>
       <c r="C60" s="406"/>
-      <c r="D60" s="390"/>
+      <c r="D60" s="396"/>
       <c r="E60" s="247"/>
       <c r="F60" s="250"/>
       <c r="G60" s="251"/>
@@ -16189,12 +16189,12 @@
       <c r="A61" s="259">
         <v>49</v>
       </c>
-      <c r="B61" s="389">
+      <c r="B61" s="395">
         <f>PBJ!B62</f>
         <v>0</v>
       </c>
       <c r="C61" s="406"/>
-      <c r="D61" s="390"/>
+      <c r="D61" s="396"/>
       <c r="E61" s="247"/>
       <c r="F61" s="250"/>
       <c r="G61" s="251"/>
@@ -16208,12 +16208,12 @@
       <c r="A62" s="259">
         <v>50</v>
       </c>
-      <c r="B62" s="389">
+      <c r="B62" s="395">
         <f>PBJ!B63</f>
         <v>0</v>
       </c>
       <c r="C62" s="406"/>
-      <c r="D62" s="390"/>
+      <c r="D62" s="396"/>
       <c r="E62" s="247"/>
       <c r="F62" s="250"/>
       <c r="G62" s="251"/>
@@ -16227,12 +16227,12 @@
       <c r="A63" s="259">
         <v>51</v>
       </c>
-      <c r="B63" s="389">
+      <c r="B63" s="395">
         <f>PBJ!B64</f>
         <v>0</v>
       </c>
       <c r="C63" s="406"/>
-      <c r="D63" s="390"/>
+      <c r="D63" s="396"/>
       <c r="E63" s="247"/>
       <c r="F63" s="250"/>
       <c r="G63" s="251"/>
@@ -16246,12 +16246,12 @@
       <c r="A64" s="259">
         <v>52</v>
       </c>
-      <c r="B64" s="389">
+      <c r="B64" s="395">
         <f>PBJ!B65</f>
         <v>0</v>
       </c>
       <c r="C64" s="406"/>
-      <c r="D64" s="390"/>
+      <c r="D64" s="396"/>
       <c r="E64" s="247"/>
       <c r="F64" s="250"/>
       <c r="G64" s="251"/>
@@ -16265,12 +16265,12 @@
       <c r="A65" s="259">
         <v>53</v>
       </c>
-      <c r="B65" s="389">
+      <c r="B65" s="395">
         <f>PBJ!B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="406"/>
-      <c r="D65" s="390"/>
+      <c r="D65" s="396"/>
       <c r="E65" s="247"/>
       <c r="F65" s="250"/>
       <c r="G65" s="251"/>
@@ -16284,12 +16284,12 @@
       <c r="A66" s="259">
         <v>54</v>
       </c>
-      <c r="B66" s="389">
+      <c r="B66" s="395">
         <f>PBJ!B67</f>
         <v>0</v>
       </c>
       <c r="C66" s="406"/>
-      <c r="D66" s="390"/>
+      <c r="D66" s="396"/>
       <c r="E66" s="247"/>
       <c r="F66" s="250"/>
       <c r="G66" s="251"/>
@@ -16303,12 +16303,12 @@
       <c r="A67" s="259">
         <v>55</v>
       </c>
-      <c r="B67" s="389">
+      <c r="B67" s="395">
         <f>PBJ!B68</f>
         <v>0</v>
       </c>
       <c r="C67" s="406"/>
-      <c r="D67" s="390"/>
+      <c r="D67" s="396"/>
       <c r="E67" s="247"/>
       <c r="F67" s="250"/>
       <c r="G67" s="251"/>
@@ -16322,12 +16322,12 @@
       <c r="A68" s="259">
         <v>56</v>
       </c>
-      <c r="B68" s="389">
+      <c r="B68" s="395">
         <f>PBJ!B69</f>
         <v>0</v>
       </c>
       <c r="C68" s="406"/>
-      <c r="D68" s="390"/>
+      <c r="D68" s="396"/>
       <c r="E68" s="247"/>
       <c r="F68" s="250"/>
       <c r="G68" s="251"/>
@@ -16341,12 +16341,12 @@
       <c r="A69" s="259">
         <v>57</v>
       </c>
-      <c r="B69" s="389">
+      <c r="B69" s="395">
         <f>PBJ!B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="406"/>
-      <c r="D69" s="390"/>
+      <c r="D69" s="396"/>
       <c r="E69" s="247"/>
       <c r="F69" s="250"/>
       <c r="G69" s="251"/>
@@ -16360,12 +16360,12 @@
       <c r="A70" s="259">
         <v>58</v>
       </c>
-      <c r="B70" s="389">
+      <c r="B70" s="395">
         <f>PBJ!B71</f>
         <v>0</v>
       </c>
       <c r="C70" s="406"/>
-      <c r="D70" s="390"/>
+      <c r="D70" s="396"/>
       <c r="E70" s="247"/>
       <c r="F70" s="250"/>
       <c r="G70" s="251"/>
@@ -16379,12 +16379,12 @@
       <c r="A71" s="259">
         <v>59</v>
       </c>
-      <c r="B71" s="389">
+      <c r="B71" s="395">
         <f>PBJ!B72</f>
         <v>0</v>
       </c>
       <c r="C71" s="406"/>
-      <c r="D71" s="390"/>
+      <c r="D71" s="396"/>
       <c r="E71" s="247"/>
       <c r="F71" s="250"/>
       <c r="G71" s="251"/>
@@ -16398,12 +16398,12 @@
       <c r="A72" s="259">
         <v>60</v>
       </c>
-      <c r="B72" s="389">
+      <c r="B72" s="395">
         <f>PBJ!B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="406"/>
-      <c r="D72" s="390"/>
+      <c r="D72" s="396"/>
       <c r="E72" s="247"/>
       <c r="F72" s="250"/>
       <c r="G72" s="251"/>
@@ -16417,12 +16417,12 @@
       <c r="A73" s="259">
         <v>61</v>
       </c>
-      <c r="B73" s="389">
+      <c r="B73" s="395">
         <f>PBJ!B74</f>
         <v>0</v>
       </c>
       <c r="C73" s="406"/>
-      <c r="D73" s="390"/>
+      <c r="D73" s="396"/>
       <c r="E73" s="247"/>
       <c r="F73" s="250"/>
       <c r="G73" s="251"/>
@@ -16436,12 +16436,12 @@
       <c r="A74" s="259">
         <v>62</v>
       </c>
-      <c r="B74" s="389">
+      <c r="B74" s="395">
         <f>PBJ!B75</f>
         <v>0</v>
       </c>
       <c r="C74" s="406"/>
-      <c r="D74" s="390"/>
+      <c r="D74" s="396"/>
       <c r="E74" s="247"/>
       <c r="F74" s="250"/>
       <c r="G74" s="251"/>
@@ -16455,12 +16455,12 @@
       <c r="A75" s="259">
         <v>63</v>
       </c>
-      <c r="B75" s="389">
+      <c r="B75" s="395">
         <f>PBJ!B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="406"/>
-      <c r="D75" s="390"/>
+      <c r="D75" s="396"/>
       <c r="E75" s="247"/>
       <c r="F75" s="250"/>
       <c r="G75" s="251"/>
@@ -16474,12 +16474,12 @@
       <c r="A76" s="259">
         <v>64</v>
       </c>
-      <c r="B76" s="389">
+      <c r="B76" s="395">
         <f>PBJ!B77</f>
         <v>0</v>
       </c>
       <c r="C76" s="406"/>
-      <c r="D76" s="390"/>
+      <c r="D76" s="396"/>
       <c r="E76" s="247"/>
       <c r="F76" s="250"/>
       <c r="G76" s="251"/>
@@ -16493,12 +16493,12 @@
       <c r="A77" s="259">
         <v>65</v>
       </c>
-      <c r="B77" s="389">
+      <c r="B77" s="395">
         <f>PBJ!B78</f>
         <v>0</v>
       </c>
       <c r="C77" s="406"/>
-      <c r="D77" s="390"/>
+      <c r="D77" s="396"/>
       <c r="E77" s="247"/>
       <c r="F77" s="250"/>
       <c r="G77" s="251"/>
@@ -16512,12 +16512,12 @@
       <c r="A78" s="259">
         <v>66</v>
       </c>
-      <c r="B78" s="389">
+      <c r="B78" s="395">
         <f>PBJ!B79</f>
         <v>0</v>
       </c>
       <c r="C78" s="406"/>
-      <c r="D78" s="390"/>
+      <c r="D78" s="396"/>
       <c r="E78" s="247"/>
       <c r="F78" s="250"/>
       <c r="G78" s="251"/>
@@ -16531,12 +16531,12 @@
       <c r="A79" s="259">
         <v>67</v>
       </c>
-      <c r="B79" s="389">
+      <c r="B79" s="395">
         <f>PBJ!B80</f>
         <v>0</v>
       </c>
       <c r="C79" s="406"/>
-      <c r="D79" s="390"/>
+      <c r="D79" s="396"/>
       <c r="E79" s="247"/>
       <c r="F79" s="250"/>
       <c r="G79" s="251"/>
@@ -16550,12 +16550,12 @@
       <c r="A80" s="259">
         <v>68</v>
       </c>
-      <c r="B80" s="389">
+      <c r="B80" s="395">
         <f>PBJ!B81</f>
         <v>0</v>
       </c>
       <c r="C80" s="406"/>
-      <c r="D80" s="390"/>
+      <c r="D80" s="396"/>
       <c r="E80" s="247"/>
       <c r="F80" s="250"/>
       <c r="G80" s="251"/>
@@ -16569,12 +16569,12 @@
       <c r="A81" s="259">
         <v>69</v>
       </c>
-      <c r="B81" s="389">
+      <c r="B81" s="395">
         <f>PBJ!B82</f>
         <v>0</v>
       </c>
       <c r="C81" s="406"/>
-      <c r="D81" s="390"/>
+      <c r="D81" s="396"/>
       <c r="E81" s="247"/>
       <c r="F81" s="250"/>
       <c r="G81" s="251"/>
@@ -16588,12 +16588,12 @@
       <c r="A82" s="259">
         <v>70</v>
       </c>
-      <c r="B82" s="389">
+      <c r="B82" s="395">
         <f>PBJ!B83</f>
         <v>0</v>
       </c>
       <c r="C82" s="406"/>
-      <c r="D82" s="390"/>
+      <c r="D82" s="396"/>
       <c r="E82" s="247"/>
       <c r="F82" s="250"/>
       <c r="G82" s="251"/>
@@ -16607,12 +16607,12 @@
       <c r="A83" s="259">
         <v>71</v>
       </c>
-      <c r="B83" s="389">
+      <c r="B83" s="395">
         <f>PBJ!B84</f>
         <v>0</v>
       </c>
       <c r="C83" s="406"/>
-      <c r="D83" s="390"/>
+      <c r="D83" s="396"/>
       <c r="E83" s="247"/>
       <c r="F83" s="250"/>
       <c r="G83" s="251"/>
@@ -16624,9 +16624,9 @@
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1">
       <c r="A84" s="259"/>
-      <c r="B84" s="389"/>
+      <c r="B84" s="395"/>
       <c r="C84" s="406"/>
-      <c r="D84" s="390"/>
+      <c r="D84" s="396"/>
       <c r="E84" s="247"/>
       <c r="F84" s="250"/>
       <c r="G84" s="251"/>
@@ -16638,26 +16638,26 @@
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="206"/>
-      <c r="B85" s="410"/>
-      <c r="C85" s="411"/>
-      <c r="D85" s="412"/>
+      <c r="B85" s="431"/>
+      <c r="C85" s="432"/>
+      <c r="D85" s="433"/>
       <c r="E85" s="207"/>
       <c r="F85" s="207"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
       <c r="J85" s="209"/>
-      <c r="K85" s="427"/>
-      <c r="L85" s="428"/>
+      <c r="K85" s="407"/>
+      <c r="L85" s="408"/>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="407" t="str">
+      <c r="A86" s="434" t="str">
         <f>RFK!A86</f>
         <v>Jumlah</v>
       </c>
-      <c r="B86" s="408"/>
-      <c r="C86" s="408"/>
-      <c r="D86" s="409"/>
+      <c r="B86" s="435"/>
+      <c r="C86" s="435"/>
+      <c r="D86" s="436"/>
       <c r="E86" s="210">
         <f>SUM(E12:E84)</f>
         <v>0</v>
@@ -16854,32 +16854,54 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -16896,54 +16918,32 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.23622047244094499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17060,138 +17060,138 @@
       <c r="A9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="437" t="s">
+      <c r="B9" s="445" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="438"/>
+      <c r="C9" s="446"/>
       <c r="D9" s="104" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="437" t="s">
+      <c r="F9" s="445" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="439"/>
+      <c r="G9" s="447"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="105">
         <v>1</v>
       </c>
-      <c r="B10" s="440">
+      <c r="B10" s="448">
         <v>2</v>
       </c>
-      <c r="C10" s="441"/>
+      <c r="C10" s="449"/>
       <c r="D10" s="106">
         <v>3</v>
       </c>
       <c r="E10" s="106">
         <v>4</v>
       </c>
-      <c r="F10" s="440">
+      <c r="F10" s="448">
         <v>5</v>
       </c>
-      <c r="G10" s="446"/>
+      <c r="G10" s="450"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1" thickTop="1">
       <c r="A11" s="107"/>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="447"/>
-      <c r="G11" s="449"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="453"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="110"/>
-      <c r="B12" s="444"/>
-      <c r="C12" s="445"/>
+      <c r="B12" s="441"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="443"/>
+      <c r="F12" s="439"/>
+      <c r="G12" s="440"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="444"/>
-      <c r="C13" s="445"/>
+      <c r="B13" s="441"/>
+      <c r="C13" s="442"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="443"/>
+      <c r="F13" s="439"/>
+      <c r="G13" s="440"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="113"/>
-      <c r="B14" s="444"/>
-      <c r="C14" s="445"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="442"/>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="442"/>
-      <c r="G14" s="443"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="440"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="444"/>
-      <c r="C15" s="445"/>
+      <c r="B15" s="441"/>
+      <c r="C15" s="442"/>
       <c r="D15" s="111"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="442"/>
-      <c r="G15" s="443"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="440"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="444"/>
-      <c r="C16" s="445"/>
+      <c r="B16" s="441"/>
+      <c r="C16" s="442"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117"/>
-      <c r="F16" s="442"/>
-      <c r="G16" s="443"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="440"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="444"/>
-      <c r="C17" s="445"/>
+      <c r="B17" s="441"/>
+      <c r="C17" s="442"/>
       <c r="D17" s="192"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="442"/>
-      <c r="G17" s="443"/>
+      <c r="F17" s="439"/>
+      <c r="G17" s="440"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="444"/>
-      <c r="C18" s="445"/>
+      <c r="B18" s="441"/>
+      <c r="C18" s="442"/>
       <c r="D18" s="192"/>
       <c r="E18" s="117"/>
-      <c r="F18" s="442"/>
-      <c r="G18" s="443"/>
+      <c r="F18" s="439"/>
+      <c r="G18" s="440"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="444"/>
-      <c r="C19" s="445"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="442"/>
       <c r="D19" s="192"/>
       <c r="E19" s="117"/>
-      <c r="F19" s="442"/>
-      <c r="G19" s="443"/>
+      <c r="F19" s="439"/>
+      <c r="G19" s="440"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="450"/>
-      <c r="C20" s="451"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="438"/>
       <c r="D20" s="120"/>
       <c r="E20" s="121"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="453"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" thickTop="1">
@@ -17284,15 +17284,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
@@ -17308,6 +17299,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.35433070866141703" top="0.62992125984252001" bottom="0.39370078740157499" header="0.35433070866141703" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17387,10 +17387,10 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="394" t="s">
+      <c r="T2" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="395"/>
+      <c r="U2" s="400"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" ht="13" customHeight="1">
@@ -17529,42 +17529,42 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="456" t="s">
+      <c r="T7" s="464" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="456"/>
+      <c r="U7" s="464"/>
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="457"/>
-      <c r="B8" s="457"/>
-      <c r="C8" s="457"/>
-      <c r="D8" s="457"/>
-      <c r="E8" s="457"/>
-      <c r="F8" s="457"/>
-      <c r="G8" s="457"/>
-      <c r="H8" s="457"/>
-      <c r="I8" s="457"/>
-      <c r="J8" s="457"/>
-      <c r="K8" s="457"/>
-      <c r="L8" s="457"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="465"/>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="465"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="465"/>
+      <c r="K8" s="465"/>
+      <c r="L8" s="465"/>
     </row>
     <row r="9" spans="1:22" ht="14" thickBot="1"/>
     <row r="10" spans="1:22" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="458" t="s">
+      <c r="B10" s="466" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="459"/>
+      <c r="C10" s="467"/>
       <c r="D10" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="458" t="s">
+      <c r="E10" s="466" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="459"/>
+      <c r="F10" s="467"/>
       <c r="G10" s="222" t="s">
         <v>141</v>
       </c>
@@ -17589,17 +17589,17 @@
       <c r="A11" s="224">
         <v>1</v>
       </c>
-      <c r="B11" s="454">
+      <c r="B11" s="462">
         <v>2</v>
       </c>
-      <c r="C11" s="455"/>
+      <c r="C11" s="463"/>
       <c r="D11" s="224">
         <v>3</v>
       </c>
-      <c r="E11" s="454">
+      <c r="E11" s="462">
         <v>4</v>
       </c>
-      <c r="F11" s="455"/>
+      <c r="F11" s="463"/>
       <c r="G11" s="224">
         <v>5</v>
       </c>
@@ -17625,8 +17625,8 @@
       <c r="B12" s="228"/>
       <c r="C12" s="229"/>
       <c r="D12" s="227"/>
-      <c r="E12" s="460"/>
-      <c r="F12" s="461"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="455"/>
       <c r="G12" s="227"/>
       <c r="H12" s="227"/>
       <c r="I12" s="227"/>
@@ -17639,8 +17639,8 @@
       <c r="B13" s="214"/>
       <c r="C13" s="248"/>
       <c r="D13" s="231"/>
-      <c r="E13" s="462"/>
-      <c r="F13" s="463"/>
+      <c r="E13" s="456"/>
+      <c r="F13" s="457"/>
       <c r="G13" s="232"/>
       <c r="H13" s="230"/>
       <c r="I13" s="231"/>
@@ -17681,8 +17681,8 @@
       <c r="B16" s="234"/>
       <c r="C16" s="235"/>
       <c r="D16" s="233"/>
-      <c r="E16" s="465"/>
-      <c r="F16" s="466"/>
+      <c r="E16" s="459"/>
+      <c r="F16" s="460"/>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
       <c r="I16" s="233"/>
@@ -17714,9 +17714,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
-      <c r="L18" s="467"/>
+      <c r="J18" s="461"/>
+      <c r="K18" s="461"/>
+      <c r="L18" s="461"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
@@ -17730,12 +17730,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="464" t="str">
+      <c r="J19" s="458" t="str">
         <f>RFK!N88</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
-      <c r="K19" s="464"/>
-      <c r="L19" s="464"/>
+      <c r="K19" s="458"/>
+      <c r="L19" s="458"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
@@ -17791,9 +17791,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="464"/>
-      <c r="K23" s="464"/>
-      <c r="L23" s="464"/>
+      <c r="J23" s="458"/>
+      <c r="K23" s="458"/>
+      <c r="L23" s="458"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -17807,12 +17807,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="464" t="str">
+      <c r="J24" s="458" t="str">
         <f>RFK!N94</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
-      <c r="K24" s="464"/>
-      <c r="L24" s="464"/>
+      <c r="K24" s="458"/>
+      <c r="L24" s="458"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -17826,12 +17826,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="464" t="str">
+      <c r="J25" s="458" t="str">
         <f>[1]INPUT!H9</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
-      <c r="K25" s="464"/>
-      <c r="L25" s="464"/>
+      <c r="K25" s="458"/>
+      <c r="L25" s="458"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -18077,6 +18077,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="J25:L25"/>
@@ -18085,13 +18092,6 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18283,7 +18283,7 @@
   </sheetPr>
   <dimension ref="A1:X504"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A409" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A409" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="X451" sqref="X451"/>
     </sheetView>
   </sheetViews>
@@ -18313,32 +18313,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="473" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
-      <c r="N1" s="482"/>
-      <c r="O1" s="482"/>
-      <c r="P1" s="482"/>
-      <c r="Q1" s="482"/>
-      <c r="R1" s="482"/>
-      <c r="S1" s="482"/>
-      <c r="T1" s="482"/>
-      <c r="U1" s="482"/>
-      <c r="V1" s="482"/>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
+      <c r="E1" s="473"/>
+      <c r="F1" s="473"/>
+      <c r="G1" s="473"/>
+      <c r="H1" s="473"/>
+      <c r="I1" s="473"/>
+      <c r="J1" s="473"/>
+      <c r="K1" s="473"/>
+      <c r="L1" s="473"/>
+      <c r="M1" s="473"/>
+      <c r="N1" s="473"/>
+      <c r="O1" s="473"/>
+      <c r="P1" s="473"/>
+      <c r="Q1" s="473"/>
+      <c r="R1" s="473"/>
+      <c r="S1" s="473"/>
+      <c r="T1" s="473"/>
+      <c r="U1" s="473"/>
+      <c r="V1" s="473"/>
       <c r="W1" s="76"/>
-      <c r="X1" s="471" t="s">
+      <c r="X1" s="478" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18366,7 +18366,7 @@
       <c r="U2" s="78"/>
       <c r="V2" s="78"/>
       <c r="W2" s="76"/>
-      <c r="X2" s="471"/>
+      <c r="X2" s="478"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -18395,7 +18395,7 @@
       <c r="U3" s="78"/>
       <c r="V3" s="78"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="471"/>
+      <c r="X3" s="478"/>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -18424,7 +18424,7 @@
       <c r="U4" s="78"/>
       <c r="V4" s="78"/>
       <c r="W4" s="76"/>
-      <c r="X4" s="471"/>
+      <c r="X4" s="478"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
@@ -18453,7 +18453,7 @@
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
       <c r="W5" s="76"/>
-      <c r="X5" s="471"/>
+      <c r="X5" s="478"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -18482,7 +18482,7 @@
       <c r="U6" s="78"/>
       <c r="V6" s="78"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="471"/>
+      <c r="X6" s="478"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -18511,7 +18511,7 @@
       <c r="U7" s="78"/>
       <c r="V7" s="78"/>
       <c r="W7" s="76"/>
-      <c r="X7" s="471"/>
+      <c r="X7" s="478"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="78"/>
@@ -18537,7 +18537,7 @@
       <c r="U8" s="78"/>
       <c r="V8" s="78"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="471"/>
+      <c r="X8" s="478"/>
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="78"/>
@@ -18563,18 +18563,18 @@
       <c r="U9" s="78"/>
       <c r="V9" s="78"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="471"/>
+      <c r="X9" s="478"/>
     </row>
     <row r="10" spans="1:24" s="99" customFormat="1" ht="22" customHeight="1" thickTop="1">
-      <c r="A10" s="472" t="s">
+      <c r="A10" s="479" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="472"/>
-      <c r="C10" s="472"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="472"/>
-      <c r="F10" s="472"/>
-      <c r="G10" s="472"/>
+      <c r="B10" s="479"/>
+      <c r="C10" s="479"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="479"/>
+      <c r="F10" s="479"/>
+      <c r="G10" s="479"/>
       <c r="H10" s="298" t="s">
         <v>83</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="98"/>
-      <c r="X10" s="471"/>
+      <c r="X10" s="478"/>
     </row>
     <row r="11" spans="1:24" ht="17" customHeight="1">
       <c r="A11" s="299">
@@ -39160,13 +39160,13 @@
       </c>
     </row>
     <row r="446" spans="1:24" ht="17" customHeight="1">
-      <c r="A446" s="474"/>
-      <c r="B446" s="475"/>
-      <c r="C446" s="475"/>
-      <c r="D446" s="475"/>
-      <c r="E446" s="475"/>
-      <c r="F446" s="475"/>
-      <c r="G446" s="476"/>
+      <c r="A446" s="481"/>
+      <c r="B446" s="482"/>
+      <c r="C446" s="482"/>
+      <c r="D446" s="482"/>
+      <c r="E446" s="482"/>
+      <c r="F446" s="482"/>
+      <c r="G446" s="483"/>
       <c r="H446" s="304"/>
       <c r="I446" s="301" t="s">
         <v>100</v>
@@ -39194,13 +39194,13 @@
       </c>
     </row>
     <row r="447" spans="1:24" s="84" customFormat="1" ht="17" customHeight="1">
-      <c r="A447" s="477"/>
-      <c r="B447" s="478"/>
-      <c r="C447" s="478"/>
-      <c r="D447" s="478"/>
-      <c r="E447" s="478"/>
-      <c r="F447" s="478"/>
-      <c r="G447" s="479"/>
+      <c r="A447" s="484"/>
+      <c r="B447" s="485"/>
+      <c r="C447" s="485"/>
+      <c r="D447" s="485"/>
+      <c r="E447" s="485"/>
+      <c r="F447" s="485"/>
+      <c r="G447" s="486"/>
       <c r="H447" s="307"/>
       <c r="I447" s="318"/>
       <c r="J447" s="319" t="e">
@@ -39259,13 +39259,13 @@
       <c r="X447" s="289"/>
     </row>
     <row r="448" spans="1:24" ht="17" customHeight="1">
-      <c r="A448" s="473"/>
-      <c r="B448" s="473"/>
-      <c r="C448" s="473"/>
-      <c r="D448" s="473"/>
-      <c r="E448" s="473"/>
-      <c r="F448" s="473"/>
-      <c r="G448" s="473"/>
+      <c r="A448" s="480"/>
+      <c r="B448" s="480"/>
+      <c r="C448" s="480"/>
+      <c r="D448" s="480"/>
+      <c r="E448" s="480"/>
+      <c r="F448" s="480"/>
+      <c r="G448" s="480"/>
       <c r="H448" s="304"/>
       <c r="I448" s="304"/>
       <c r="J448" s="311"/>
@@ -39285,13 +39285,13 @@
       <c r="X448" s="290"/>
     </row>
     <row r="449" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A449" s="486"/>
-      <c r="B449" s="486"/>
-      <c r="C449" s="486"/>
-      <c r="D449" s="486"/>
-      <c r="E449" s="486"/>
-      <c r="F449" s="486"/>
-      <c r="G449" s="486"/>
+      <c r="A449" s="477"/>
+      <c r="B449" s="477"/>
+      <c r="C449" s="477"/>
+      <c r="D449" s="477"/>
+      <c r="E449" s="477"/>
+      <c r="F449" s="477"/>
+      <c r="G449" s="477"/>
       <c r="H449" s="323"/>
       <c r="I449" s="324"/>
       <c r="J449" s="325"/>
@@ -39311,16 +39311,16 @@
       <c r="X449" s="290"/>
     </row>
     <row r="450" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A450" s="483" t="s">
+      <c r="A450" s="474" t="s">
         <v>112</v>
       </c>
-      <c r="B450" s="484"/>
-      <c r="C450" s="484"/>
-      <c r="D450" s="484"/>
-      <c r="E450" s="484"/>
-      <c r="F450" s="484"/>
-      <c r="G450" s="485"/>
-      <c r="H450" s="480">
+      <c r="B450" s="475"/>
+      <c r="C450" s="475"/>
+      <c r="D450" s="475"/>
+      <c r="E450" s="475"/>
+      <c r="F450" s="475"/>
+      <c r="G450" s="476"/>
+      <c r="H450" s="471">
         <f>SUM(H11:H448)</f>
         <v>0</v>
       </c>
@@ -39384,16 +39384,16 @@
       </c>
     </row>
     <row r="451" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A451" s="483" t="s">
+      <c r="A451" s="474" t="s">
         <v>113</v>
       </c>
-      <c r="B451" s="484"/>
-      <c r="C451" s="484"/>
-      <c r="D451" s="484"/>
-      <c r="E451" s="484"/>
-      <c r="F451" s="484"/>
-      <c r="G451" s="485"/>
-      <c r="H451" s="481"/>
+      <c r="B451" s="475"/>
+      <c r="C451" s="475"/>
+      <c r="D451" s="475"/>
+      <c r="E451" s="475"/>
+      <c r="F451" s="475"/>
+      <c r="G451" s="476"/>
+      <c r="H451" s="472"/>
       <c r="I451" s="86"/>
       <c r="J451" s="87" t="e">
         <f t="shared" ref="J451:U451" si="74">SUM(J15,J21,J27,J39,J45,J51,J57,J63,J69,J75,J81,J87,J93,J99,J105,J111,J117,J123,J129,J135,J141,J147,J153,J159,J165,J171,J177,J183,J189,J195)+SUM(J201,J207,J213,J219,J225,J231,J237,J243,J249,J255,J261,J267,J273,J279,J285,J291,J297,J303,J309,J315,J321,J327,J333,J339,J345,J351,J357,J363,J369,J375)+SUM(J381,J387,J393,J399,J405,J411,J417,J423,J429,J435,J441,J447)</f>
@@ -39777,16 +39777,16 @@
     <row r="504" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X1:X10"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A448:G448"/>
+    <mergeCell ref="A446:G446"/>
+    <mergeCell ref="A447:G447"/>
     <mergeCell ref="H450:H451"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A450:G450"/>
     <mergeCell ref="A449:G449"/>
     <mergeCell ref="A451:G451"/>
-    <mergeCell ref="X1:X10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A448:G448"/>
-    <mergeCell ref="A446:G446"/>
-    <mergeCell ref="A447:G447"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.27559055118110198" top="0.59055118110236204" bottom="0.70866141732283505" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/excel/mei.xlsx
+++ b/public/excel/mei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FECC26-9F4F-EF44-BB62-A6ED8C030008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD762B-D2D2-3A43-8BCA-D5821FD6D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,6 +3617,72 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,77 +3713,20 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3725,6 +3734,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,54 +3764,81 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3803,65 +3860,47 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3869,50 +3908,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3938,24 +3956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3965,6 +3965,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3984,33 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5249,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5474,81 +5474,81 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="370" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="371"/>
-      <c r="F9" s="383" t="s">
+      <c r="E9" s="367"/>
+      <c r="F9" s="363" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="370"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="371"/>
-      <c r="N9" s="383" t="s">
+      <c r="G9" s="364"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="364"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="370"/>
-      <c r="P9" s="370"/>
-      <c r="Q9" s="370"/>
-      <c r="R9" s="370"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="356"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="377" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="364" t="s">
+      <c r="A10" s="378"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="376" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="386" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="378" t="s">
+      <c r="F10" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="378" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="379"/>
-      <c r="K10" s="380"/>
-      <c r="L10" s="387" t="s">
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="359" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="386" t="s">
+      <c r="M10" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="381" t="s">
+      <c r="N10" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="382"/>
-      <c r="P10" s="381" t="s">
+      <c r="O10" s="362"/>
+      <c r="P10" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="384" t="s">
+      <c r="Q10" s="362"/>
+      <c r="R10" s="365" t="s">
         <v>207</v>
       </c>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" s="33" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="357"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="384"/>
+      <c r="C11" s="385"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
       <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
@@ -5567,8 +5567,8 @@
       <c r="K11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="388"/>
-      <c r="M11" s="365"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="358"/>
       <c r="N11" s="37" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5581,17 @@
       <c r="Q11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="385"/>
+      <c r="R11" s="366"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="368">
+      <c r="B12" s="387">
         <v>2</v>
       </c>
-      <c r="C12" s="369"/>
+      <c r="C12" s="388"/>
       <c r="D12" s="39">
         <v>3</v>
       </c>
@@ -5643,19 +5643,16 @@
       <c r="A13" s="271">
         <v>1</v>
       </c>
-      <c r="B13" s="366">
+      <c r="B13" s="355">
         <f>INPUT!C3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="367"/>
+      <c r="C13" s="356"/>
       <c r="D13" s="272">
         <f>INPUT!D3</f>
         <v>0</v>
       </c>
-      <c r="E13" s="273" t="e">
-        <f t="shared" ref="E13:E44" si="0">D13/$D$86*100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E13" s="273"/>
       <c r="F13" s="272">
         <f>FISKEU!X11</f>
         <v>0</v>
@@ -5685,7 +5682,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="276">
-        <f t="shared" ref="M13:M76" si="1">+D13-I13</f>
+        <f t="shared" ref="M13:M76" si="0">+D13-I13</f>
         <v>0</v>
       </c>
       <c r="N13" s="275" t="e">
@@ -5693,19 +5690,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="275" t="e">
-        <f t="shared" ref="O13:O76" si="2">+N13*E13/100</f>
+        <f t="shared" ref="O13:O76" si="1">+N13*E13/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="275">
         <f>FISKEU!X14*100</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="275" t="e">
-        <f t="shared" ref="Q13:Q76" si="3">+P13*E13/100</f>
-        <v>#DIV/0!</v>
+      <c r="Q13" s="275">
+        <f t="shared" ref="Q13:Q76" si="2">+P13*E13/100</f>
+        <v>0</v>
       </c>
       <c r="R13" s="333" t="e">
-        <f t="shared" ref="R13:R76" si="4">IF(AND(N13=0,P13=0),100,P13/N13 *100)</f>
+        <f t="shared" ref="R13:R76" si="3">IF(AND(N13=0,P13=0),100,P13/N13 *100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="32"/>
@@ -5714,17 +5711,17 @@
       <c r="A14" s="277">
         <v>2</v>
       </c>
-      <c r="B14" s="366">
+      <c r="B14" s="355">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="367"/>
+      <c r="C14" s="356"/>
       <c r="D14" s="272">
         <f>INPUT!D4</f>
         <v>0</v>
       </c>
       <c r="E14" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E13:E44" si="4">D14/$D$86*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="272">
@@ -5756,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="275" t="e">
@@ -5764,7 +5761,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="275">
@@ -5772,11 +5769,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="46"/>
@@ -5785,17 +5782,17 @@
       <c r="A15" s="277">
         <v>3</v>
       </c>
-      <c r="B15" s="366">
+      <c r="B15" s="355">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="367"/>
+      <c r="C15" s="356"/>
       <c r="D15" s="272">
         <f>INPUT!D5</f>
         <v>0</v>
       </c>
       <c r="E15" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="272">
@@ -5827,7 +5824,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="275" t="e">
@@ -5835,7 +5832,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="275">
@@ -5843,11 +5840,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="46"/>
@@ -5856,17 +5853,17 @@
       <c r="A16" s="277">
         <v>4</v>
       </c>
-      <c r="B16" s="366">
+      <c r="B16" s="355">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="367"/>
+      <c r="C16" s="356"/>
       <c r="D16" s="272">
         <f>INPUT!D6</f>
         <v>0</v>
       </c>
       <c r="E16" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="272">
@@ -5898,7 +5895,7 @@
         <v>100</v>
       </c>
       <c r="M16" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="275" t="e">
@@ -5906,7 +5903,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="275">
@@ -5914,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="275" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="333" t="e">
@@ -5927,17 +5924,17 @@
       <c r="A17" s="271">
         <v>5</v>
       </c>
-      <c r="B17" s="366">
+      <c r="B17" s="355">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="367"/>
+      <c r="C17" s="356"/>
       <c r="D17" s="272">
         <f>INPUT!D7</f>
         <v>0</v>
       </c>
       <c r="E17" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="272">
@@ -5969,7 +5966,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="275" t="e">
@@ -5977,7 +5974,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="275">
@@ -5985,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="275" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="333" t="e">
@@ -5998,17 +5995,17 @@
       <c r="A18" s="277">
         <v>6</v>
       </c>
-      <c r="B18" s="366">
+      <c r="B18" s="355">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="367"/>
+      <c r="C18" s="356"/>
       <c r="D18" s="272">
         <f>INPUT!D8</f>
         <v>0</v>
       </c>
       <c r="E18" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="272">
@@ -6040,7 +6037,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="275" t="e">
@@ -6048,7 +6045,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="275">
@@ -6056,11 +6053,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="46"/>
@@ -6069,17 +6066,17 @@
       <c r="A19" s="277">
         <v>7</v>
       </c>
-      <c r="B19" s="366">
+      <c r="B19" s="355">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="367"/>
+      <c r="C19" s="356"/>
       <c r="D19" s="272">
         <f>INPUT!D9</f>
         <v>0</v>
       </c>
       <c r="E19" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="272">
@@ -6111,7 +6108,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="275" t="e">
@@ -6119,7 +6116,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="275">
@@ -6127,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="46"/>
@@ -6140,17 +6137,17 @@
       <c r="A20" s="277">
         <v>8</v>
       </c>
-      <c r="B20" s="366">
+      <c r="B20" s="355">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="367"/>
+      <c r="C20" s="356"/>
       <c r="D20" s="272">
         <f>INPUT!D10</f>
         <v>0</v>
       </c>
       <c r="E20" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="272">
@@ -6182,7 +6179,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="275" t="e">
@@ -6190,7 +6187,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="275">
@@ -6198,11 +6195,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="46"/>
@@ -6211,17 +6208,17 @@
       <c r="A21" s="278">
         <v>9</v>
       </c>
-      <c r="B21" s="366">
+      <c r="B21" s="355">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="367"/>
+      <c r="C21" s="356"/>
       <c r="D21" s="272">
         <f>INPUT!D11</f>
         <v>0</v>
       </c>
       <c r="E21" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="272">
@@ -6253,7 +6250,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="275" t="e">
@@ -6261,7 +6258,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="275">
@@ -6269,11 +6266,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="46"/>
@@ -6282,17 +6279,17 @@
       <c r="A22" s="277">
         <v>10</v>
       </c>
-      <c r="B22" s="366">
+      <c r="B22" s="355">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="367"/>
+      <c r="C22" s="356"/>
       <c r="D22" s="272">
         <f>INPUT!D12</f>
         <v>0</v>
       </c>
       <c r="E22" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="272">
@@ -6324,7 +6321,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="275" t="e">
@@ -6332,7 +6329,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="275">
@@ -6340,11 +6337,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="46"/>
@@ -6353,17 +6350,17 @@
       <c r="A23" s="277">
         <v>11</v>
       </c>
-      <c r="B23" s="366">
+      <c r="B23" s="355">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="367"/>
+      <c r="C23" s="356"/>
       <c r="D23" s="272">
         <f>INPUT!D13</f>
         <v>0</v>
       </c>
       <c r="E23" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="272">
@@ -6395,7 +6392,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="275" t="e">
@@ -6403,7 +6400,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="275">
@@ -6411,11 +6408,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="46"/>
@@ -6424,17 +6421,17 @@
       <c r="A24" s="277">
         <v>12</v>
       </c>
-      <c r="B24" s="366">
+      <c r="B24" s="355">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="367"/>
+      <c r="C24" s="356"/>
       <c r="D24" s="272">
         <f>INPUT!D14</f>
         <v>0</v>
       </c>
       <c r="E24" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="272">
@@ -6466,7 +6463,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="275" t="e">
@@ -6474,7 +6471,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="275">
@@ -6482,11 +6479,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="46"/>
@@ -6495,17 +6492,17 @@
       <c r="A25" s="278">
         <v>13</v>
       </c>
-      <c r="B25" s="366">
+      <c r="B25" s="355">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="367"/>
+      <c r="C25" s="356"/>
       <c r="D25" s="272">
         <f>INPUT!D15</f>
         <v>0</v>
       </c>
       <c r="E25" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="272">
@@ -6537,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="M25" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="275" t="e">
@@ -6545,7 +6542,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="275">
@@ -6553,11 +6550,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="46"/>
@@ -6566,17 +6563,17 @@
       <c r="A26" s="277">
         <v>14</v>
       </c>
-      <c r="B26" s="366">
+      <c r="B26" s="355">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="367"/>
+      <c r="C26" s="356"/>
       <c r="D26" s="272">
         <f>INPUT!D16</f>
         <v>0</v>
       </c>
       <c r="E26" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="272">
@@ -6608,7 +6605,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="275" t="e">
@@ -6616,7 +6613,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="275">
@@ -6624,11 +6621,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="46"/>
@@ -6637,17 +6634,17 @@
       <c r="A27" s="277">
         <v>15</v>
       </c>
-      <c r="B27" s="366">
+      <c r="B27" s="355">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="367"/>
+      <c r="C27" s="356"/>
       <c r="D27" s="272">
         <f>INPUT!D17</f>
         <v>0</v>
       </c>
       <c r="E27" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="272">
@@ -6679,7 +6676,7 @@
         <v>100</v>
       </c>
       <c r="M27" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="275" t="e">
@@ -6687,7 +6684,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="275">
@@ -6695,11 +6692,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="46"/>
@@ -6708,17 +6705,17 @@
       <c r="A28" s="277">
         <v>16</v>
       </c>
-      <c r="B28" s="366">
+      <c r="B28" s="355">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="367"/>
+      <c r="C28" s="356"/>
       <c r="D28" s="272">
         <f>INPUT!D18</f>
         <v>0</v>
       </c>
       <c r="E28" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="272">
@@ -6750,7 +6747,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="275" t="e">
@@ -6758,7 +6755,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="275">
@@ -6766,11 +6763,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="46"/>
@@ -6779,17 +6776,17 @@
       <c r="A29" s="278">
         <v>17</v>
       </c>
-      <c r="B29" s="366">
+      <c r="B29" s="355">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="367"/>
+      <c r="C29" s="356"/>
       <c r="D29" s="272">
         <f>INPUT!D19</f>
         <v>0</v>
       </c>
       <c r="E29" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="272">
@@ -6821,7 +6818,7 @@
         <v>100</v>
       </c>
       <c r="M29" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="275" t="e">
@@ -6829,7 +6826,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="275">
@@ -6837,11 +6834,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="46"/>
@@ -6850,17 +6847,17 @@
       <c r="A30" s="277">
         <v>18</v>
       </c>
-      <c r="B30" s="366">
+      <c r="B30" s="355">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="367"/>
+      <c r="C30" s="356"/>
       <c r="D30" s="272">
         <f>INPUT!D20</f>
         <v>0</v>
       </c>
       <c r="E30" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="272">
@@ -6892,7 +6889,7 @@
         <v>100</v>
       </c>
       <c r="M30" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="275" t="e">
@@ -6900,7 +6897,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="275">
@@ -6908,11 +6905,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="46"/>
@@ -6921,17 +6918,17 @@
       <c r="A31" s="277">
         <v>19</v>
       </c>
-      <c r="B31" s="366">
+      <c r="B31" s="355">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="367"/>
+      <c r="C31" s="356"/>
       <c r="D31" s="272">
         <f>INPUT!D21</f>
         <v>0</v>
       </c>
       <c r="E31" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="272">
@@ -6963,7 +6960,7 @@
         <v>100</v>
       </c>
       <c r="M31" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="275" t="e">
@@ -6971,7 +6968,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="275">
@@ -6979,11 +6976,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="46"/>
@@ -6992,17 +6989,17 @@
       <c r="A32" s="277">
         <v>20</v>
       </c>
-      <c r="B32" s="366">
+      <c r="B32" s="355">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="367"/>
+      <c r="C32" s="356"/>
       <c r="D32" s="272">
         <f>INPUT!D22</f>
         <v>0</v>
       </c>
       <c r="E32" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="272">
@@ -7034,7 +7031,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="275" t="e">
@@ -7042,7 +7039,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="275">
@@ -7050,11 +7047,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="46"/>
@@ -7063,17 +7060,17 @@
       <c r="A33" s="278">
         <v>21</v>
       </c>
-      <c r="B33" s="366">
+      <c r="B33" s="355">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="367"/>
+      <c r="C33" s="356"/>
       <c r="D33" s="272">
         <f>INPUT!D23</f>
         <v>0</v>
       </c>
       <c r="E33" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="272">
@@ -7105,7 +7102,7 @@
         <v>100</v>
       </c>
       <c r="M33" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="275" t="e">
@@ -7113,7 +7110,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="275">
@@ -7121,11 +7118,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="46"/>
@@ -7134,17 +7131,17 @@
       <c r="A34" s="277">
         <v>22</v>
       </c>
-      <c r="B34" s="366">
+      <c r="B34" s="355">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="367"/>
+      <c r="C34" s="356"/>
       <c r="D34" s="272">
         <f>INPUT!D24</f>
         <v>0</v>
       </c>
       <c r="E34" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="272">
@@ -7176,7 +7173,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="275" t="e">
@@ -7184,7 +7181,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="275">
@@ -7192,11 +7189,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="46"/>
@@ -7205,17 +7202,17 @@
       <c r="A35" s="277">
         <v>23</v>
       </c>
-      <c r="B35" s="366">
+      <c r="B35" s="355">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="367"/>
+      <c r="C35" s="356"/>
       <c r="D35" s="272">
         <f>INPUT!D25</f>
         <v>0</v>
       </c>
       <c r="E35" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="272">
@@ -7247,7 +7244,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N35" s="275" t="e">
@@ -7255,7 +7252,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="275">
@@ -7263,11 +7260,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="46"/>
@@ -7276,17 +7273,17 @@
       <c r="A36" s="277">
         <v>24</v>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="355">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="367"/>
+      <c r="C36" s="356"/>
       <c r="D36" s="272">
         <f>INPUT!D26</f>
         <v>0</v>
       </c>
       <c r="E36" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="272">
@@ -7318,7 +7315,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" s="275" t="e">
@@ -7326,7 +7323,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="275">
@@ -7334,11 +7331,11 @@
         <v>0</v>
       </c>
       <c r="Q36" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="46"/>
@@ -7347,17 +7344,17 @@
       <c r="A37" s="42">
         <v>25</v>
       </c>
-      <c r="B37" s="366">
+      <c r="B37" s="355">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="367"/>
+      <c r="C37" s="356"/>
       <c r="D37" s="272">
         <f>INPUT!D27</f>
         <v>0</v>
       </c>
       <c r="E37" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="272">
@@ -7389,7 +7386,7 @@
         <v>100</v>
       </c>
       <c r="M37" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N37" s="275" t="e">
@@ -7397,7 +7394,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="275">
@@ -7405,11 +7402,11 @@
         <v>0</v>
       </c>
       <c r="Q37" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="46"/>
@@ -7418,17 +7415,17 @@
       <c r="A38" s="42">
         <v>26</v>
       </c>
-      <c r="B38" s="366">
+      <c r="B38" s="355">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C38" s="367"/>
+      <c r="C38" s="356"/>
       <c r="D38" s="272">
         <f>INPUT!D28</f>
         <v>0</v>
       </c>
       <c r="E38" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="272">
@@ -7460,7 +7457,7 @@
         <v>100</v>
       </c>
       <c r="M38" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N38" s="275" t="e">
@@ -7468,7 +7465,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="275">
@@ -7476,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="275" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="333" t="e">
@@ -7489,17 +7486,17 @@
       <c r="A39" s="42">
         <v>27</v>
       </c>
-      <c r="B39" s="366">
+      <c r="B39" s="355">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C39" s="367"/>
+      <c r="C39" s="356"/>
       <c r="D39" s="272">
         <f>INPUT!D29</f>
         <v>0</v>
       </c>
       <c r="E39" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="272">
@@ -7531,7 +7528,7 @@
         <v>100</v>
       </c>
       <c r="M39" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="275" t="e">
@@ -7539,7 +7536,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="275">
@@ -7547,11 +7544,11 @@
         <v>0</v>
       </c>
       <c r="Q39" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="46"/>
@@ -7560,17 +7557,17 @@
       <c r="A40" s="42">
         <v>28</v>
       </c>
-      <c r="B40" s="366">
+      <c r="B40" s="355">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C40" s="367"/>
+      <c r="C40" s="356"/>
       <c r="D40" s="272">
         <f>INPUT!D30</f>
         <v>0</v>
       </c>
       <c r="E40" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="272">
@@ -7602,7 +7599,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N40" s="275" t="e">
@@ -7610,7 +7607,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="275">
@@ -7618,11 +7615,11 @@
         <v>0</v>
       </c>
       <c r="Q40" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="46"/>
@@ -7631,17 +7628,17 @@
       <c r="A41" s="42">
         <v>29</v>
       </c>
-      <c r="B41" s="366">
+      <c r="B41" s="355">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C41" s="367"/>
+      <c r="C41" s="356"/>
       <c r="D41" s="272">
         <f>INPUT!D31</f>
         <v>0</v>
       </c>
       <c r="E41" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="272">
@@ -7673,7 +7670,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N41" s="275" t="e">
@@ -7681,7 +7678,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="275">
@@ -7689,11 +7686,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R41" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="46"/>
@@ -7702,17 +7699,17 @@
       <c r="A42" s="42">
         <v>30</v>
       </c>
-      <c r="B42" s="366">
+      <c r="B42" s="355">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="367"/>
+      <c r="C42" s="356"/>
       <c r="D42" s="272">
         <f>INPUT!D32</f>
         <v>0</v>
       </c>
       <c r="E42" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="272">
@@ -7744,7 +7741,7 @@
         <v>100</v>
       </c>
       <c r="M42" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N42" s="275" t="e">
@@ -7752,7 +7749,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P42" s="275">
@@ -7760,11 +7757,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R42" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="46"/>
@@ -7773,17 +7770,17 @@
       <c r="A43" s="42">
         <v>31</v>
       </c>
-      <c r="B43" s="366">
+      <c r="B43" s="355">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C43" s="367"/>
+      <c r="C43" s="356"/>
       <c r="D43" s="272">
         <f>INPUT!D33</f>
         <v>0</v>
       </c>
       <c r="E43" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="272">
@@ -7815,7 +7812,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N43" s="275" t="e">
@@ -7823,7 +7820,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" s="275">
@@ -7831,11 +7828,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R43" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="46"/>
@@ -7844,17 +7841,17 @@
       <c r="A44" s="42">
         <v>32</v>
       </c>
-      <c r="B44" s="366">
+      <c r="B44" s="355">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C44" s="367"/>
+      <c r="C44" s="356"/>
       <c r="D44" s="272">
         <f>INPUT!D34</f>
         <v>0</v>
       </c>
       <c r="E44" s="273" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="272">
@@ -7886,7 +7883,7 @@
         <v>100</v>
       </c>
       <c r="M44" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N44" s="275" t="e">
@@ -7894,7 +7891,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" s="275">
@@ -7902,11 +7899,11 @@
         <v>0</v>
       </c>
       <c r="Q44" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R44" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S44" s="46"/>
@@ -7915,11 +7912,11 @@
       <c r="A45" s="42">
         <v>33</v>
       </c>
-      <c r="B45" s="366">
+      <c r="B45" s="355">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="367"/>
+      <c r="C45" s="356"/>
       <c r="D45" s="272">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -7957,7 +7954,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N45" s="275" t="e">
@@ -7965,7 +7962,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P45" s="275">
@@ -7973,11 +7970,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R45" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S45" s="46"/>
@@ -7986,11 +7983,11 @@
       <c r="A46" s="42">
         <v>34</v>
       </c>
-      <c r="B46" s="366">
+      <c r="B46" s="355">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C46" s="367"/>
+      <c r="C46" s="356"/>
       <c r="D46" s="272">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -8028,7 +8025,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N46" s="275" t="e">
@@ -8036,7 +8033,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="275">
@@ -8044,11 +8041,11 @@
         <v>0</v>
       </c>
       <c r="Q46" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S46" s="46"/>
@@ -8057,11 +8054,11 @@
       <c r="A47" s="42">
         <v>35</v>
       </c>
-      <c r="B47" s="366">
+      <c r="B47" s="355">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C47" s="367"/>
+      <c r="C47" s="356"/>
       <c r="D47" s="272">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -8099,7 +8096,7 @@
         <v>100</v>
       </c>
       <c r="M47" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N47" s="275" t="e">
@@ -8107,7 +8104,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P47" s="275">
@@ -8115,11 +8112,11 @@
         <v>0</v>
       </c>
       <c r="Q47" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R47" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S47" s="46"/>
@@ -8128,11 +8125,11 @@
       <c r="A48" s="42">
         <v>36</v>
       </c>
-      <c r="B48" s="366">
+      <c r="B48" s="355">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C48" s="367"/>
+      <c r="C48" s="356"/>
       <c r="D48" s="272">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -8170,7 +8167,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N48" s="275" t="e">
@@ -8178,7 +8175,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P48" s="275">
@@ -8186,11 +8183,11 @@
         <v>0</v>
       </c>
       <c r="Q48" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S48" s="46"/>
@@ -8199,11 +8196,11 @@
       <c r="A49" s="42">
         <v>37</v>
       </c>
-      <c r="B49" s="366">
+      <c r="B49" s="355">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="367"/>
+      <c r="C49" s="356"/>
       <c r="D49" s="272">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -8241,7 +8238,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N49" s="275" t="e">
@@ -8249,7 +8246,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P49" s="275">
@@ -8257,11 +8254,11 @@
         <v>0</v>
       </c>
       <c r="Q49" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S49" s="46"/>
@@ -8270,11 +8267,11 @@
       <c r="A50" s="42">
         <v>38</v>
       </c>
-      <c r="B50" s="366">
+      <c r="B50" s="355">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C50" s="367"/>
+      <c r="C50" s="356"/>
       <c r="D50" s="272">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -8312,7 +8309,7 @@
         <v>100</v>
       </c>
       <c r="M50" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N50" s="275" t="e">
@@ -8320,7 +8317,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P50" s="275">
@@ -8328,11 +8325,11 @@
         <v>0</v>
       </c>
       <c r="Q50" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R50" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S50" s="46"/>
@@ -8341,11 +8338,11 @@
       <c r="A51" s="42">
         <v>39</v>
       </c>
-      <c r="B51" s="366">
+      <c r="B51" s="355">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C51" s="367"/>
+      <c r="C51" s="356"/>
       <c r="D51" s="272">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -8383,7 +8380,7 @@
         <v>100</v>
       </c>
       <c r="M51" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N51" s="275" t="e">
@@ -8391,7 +8388,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="275">
@@ -8399,11 +8396,11 @@
         <v>0</v>
       </c>
       <c r="Q51" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R51" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S51" s="46"/>
@@ -8412,11 +8409,11 @@
       <c r="A52" s="42">
         <v>40</v>
       </c>
-      <c r="B52" s="366">
+      <c r="B52" s="355">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C52" s="367"/>
+      <c r="C52" s="356"/>
       <c r="D52" s="272">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -8454,7 +8451,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N52" s="275" t="e">
@@ -8462,7 +8459,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" s="275">
@@ -8470,11 +8467,11 @@
         <v>0</v>
       </c>
       <c r="Q52" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R52" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S52" s="46"/>
@@ -8483,11 +8480,11 @@
       <c r="A53" s="42">
         <v>41</v>
       </c>
-      <c r="B53" s="366">
+      <c r="B53" s="355">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C53" s="367"/>
+      <c r="C53" s="356"/>
       <c r="D53" s="272">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -8525,7 +8522,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N53" s="275" t="e">
@@ -8533,7 +8530,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" s="275">
@@ -8541,11 +8538,11 @@
         <v>0</v>
       </c>
       <c r="Q53" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R53" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S53" s="46"/>
@@ -8554,11 +8551,11 @@
       <c r="A54" s="42">
         <v>42</v>
       </c>
-      <c r="B54" s="366">
+      <c r="B54" s="355">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C54" s="367"/>
+      <c r="C54" s="356"/>
       <c r="D54" s="272">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -8596,7 +8593,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N54" s="275" t="e">
@@ -8604,7 +8601,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="275">
@@ -8612,11 +8609,11 @@
         <v>0</v>
       </c>
       <c r="Q54" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R54" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S54" s="46"/>
@@ -8625,11 +8622,11 @@
       <c r="A55" s="42">
         <v>43</v>
       </c>
-      <c r="B55" s="366">
+      <c r="B55" s="355">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C55" s="367"/>
+      <c r="C55" s="356"/>
       <c r="D55" s="272">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -8667,7 +8664,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N55" s="275" t="e">
@@ -8675,7 +8672,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" s="275">
@@ -8683,11 +8680,11 @@
         <v>0</v>
       </c>
       <c r="Q55" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R55" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S55" s="46"/>
@@ -8696,11 +8693,11 @@
       <c r="A56" s="42">
         <v>44</v>
       </c>
-      <c r="B56" s="366">
+      <c r="B56" s="355">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="367"/>
+      <c r="C56" s="356"/>
       <c r="D56" s="272">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -8738,7 +8735,7 @@
         <v>100</v>
       </c>
       <c r="M56" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N56" s="275" t="e">
@@ -8746,7 +8743,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P56" s="275">
@@ -8754,11 +8751,11 @@
         <v>0</v>
       </c>
       <c r="Q56" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R56" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S56" s="46"/>
@@ -8767,11 +8764,11 @@
       <c r="A57" s="42">
         <v>45</v>
       </c>
-      <c r="B57" s="366">
+      <c r="B57" s="355">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C57" s="367"/>
+      <c r="C57" s="356"/>
       <c r="D57" s="272">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -8809,7 +8806,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N57" s="275" t="e">
@@ -8817,7 +8814,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P57" s="275">
@@ -8825,11 +8822,11 @@
         <v>0</v>
       </c>
       <c r="Q57" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R57" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S57" s="46"/>
@@ -8838,11 +8835,11 @@
       <c r="A58" s="42">
         <v>46</v>
       </c>
-      <c r="B58" s="366">
+      <c r="B58" s="355">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C58" s="367"/>
+      <c r="C58" s="356"/>
       <c r="D58" s="272">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -8880,7 +8877,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N58" s="275" t="e">
@@ -8888,7 +8885,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P58" s="275">
@@ -8896,11 +8893,11 @@
         <v>0</v>
       </c>
       <c r="Q58" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S58" s="46"/>
@@ -8909,11 +8906,11 @@
       <c r="A59" s="42">
         <v>47</v>
       </c>
-      <c r="B59" s="366">
+      <c r="B59" s="355">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C59" s="367"/>
+      <c r="C59" s="356"/>
       <c r="D59" s="272">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -8951,7 +8948,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N59" s="275" t="e">
@@ -8959,7 +8956,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P59" s="275">
@@ -8967,11 +8964,11 @@
         <v>0</v>
       </c>
       <c r="Q59" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R59" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="46"/>
@@ -8980,11 +8977,11 @@
       <c r="A60" s="42">
         <v>48</v>
       </c>
-      <c r="B60" s="366">
+      <c r="B60" s="355">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C60" s="367"/>
+      <c r="C60" s="356"/>
       <c r="D60" s="272">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -9022,7 +9019,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N60" s="275" t="e">
@@ -9030,7 +9027,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P60" s="275">
@@ -9038,11 +9035,11 @@
         <v>0</v>
       </c>
       <c r="Q60" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R60" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R60" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S60" s="46"/>
@@ -9051,11 +9048,11 @@
       <c r="A61" s="42">
         <v>49</v>
       </c>
-      <c r="B61" s="366">
+      <c r="B61" s="355">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C61" s="367"/>
+      <c r="C61" s="356"/>
       <c r="D61" s="272">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -9093,7 +9090,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N61" s="275" t="e">
@@ -9101,7 +9098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P61" s="275">
@@ -9109,11 +9106,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R61" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R61" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S61" s="46"/>
@@ -9122,11 +9119,11 @@
       <c r="A62" s="42">
         <v>50</v>
       </c>
-      <c r="B62" s="366">
+      <c r="B62" s="355">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C62" s="367"/>
+      <c r="C62" s="356"/>
       <c r="D62" s="272">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -9164,7 +9161,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N62" s="275" t="e">
@@ -9172,7 +9169,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P62" s="275">
@@ -9180,11 +9177,11 @@
         <v>0</v>
       </c>
       <c r="Q62" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R62" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R62" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S62" s="46"/>
@@ -9193,11 +9190,11 @@
       <c r="A63" s="42">
         <v>51</v>
       </c>
-      <c r="B63" s="366">
+      <c r="B63" s="355">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C63" s="367"/>
+      <c r="C63" s="356"/>
       <c r="D63" s="272">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -9235,7 +9232,7 @@
         <v>100</v>
       </c>
       <c r="M63" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N63" s="275" t="e">
@@ -9243,7 +9240,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P63" s="275">
@@ -9251,11 +9248,11 @@
         <v>0</v>
       </c>
       <c r="Q63" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R63" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R63" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S63" s="46"/>
@@ -9264,11 +9261,11 @@
       <c r="A64" s="42">
         <v>52</v>
       </c>
-      <c r="B64" s="366">
+      <c r="B64" s="355">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C64" s="367"/>
+      <c r="C64" s="356"/>
       <c r="D64" s="272">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -9306,7 +9303,7 @@
         <v>100</v>
       </c>
       <c r="M64" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N64" s="275" t="e">
@@ -9314,7 +9311,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O64" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64" s="275">
@@ -9322,11 +9319,11 @@
         <v>0</v>
       </c>
       <c r="Q64" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R64" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R64" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S64" s="46"/>
@@ -9335,11 +9332,11 @@
       <c r="A65" s="42">
         <v>53</v>
       </c>
-      <c r="B65" s="366">
+      <c r="B65" s="355">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C65" s="367"/>
+      <c r="C65" s="356"/>
       <c r="D65" s="272">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -9377,7 +9374,7 @@
         <v>100</v>
       </c>
       <c r="M65" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N65" s="275" t="e">
@@ -9385,7 +9382,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="275">
@@ -9393,11 +9390,11 @@
         <v>0</v>
       </c>
       <c r="Q65" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R65" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R65" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="46"/>
@@ -9406,11 +9403,11 @@
       <c r="A66" s="42">
         <v>54</v>
       </c>
-      <c r="B66" s="366">
+      <c r="B66" s="355">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C66" s="367"/>
+      <c r="C66" s="356"/>
       <c r="D66" s="272">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -9448,7 +9445,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N66" s="275" t="e">
@@ -9456,7 +9453,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="275">
@@ -9464,11 +9461,11 @@
         <v>0</v>
       </c>
       <c r="Q66" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R66" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R66" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="46"/>
@@ -9477,11 +9474,11 @@
       <c r="A67" s="42">
         <v>55</v>
       </c>
-      <c r="B67" s="366">
+      <c r="B67" s="355">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C67" s="367"/>
+      <c r="C67" s="356"/>
       <c r="D67" s="272">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="M67" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N67" s="275" t="e">
@@ -9527,7 +9524,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="275">
@@ -9535,11 +9532,11 @@
         <v>0</v>
       </c>
       <c r="Q67" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R67" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R67" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="46"/>
@@ -9548,11 +9545,11 @@
       <c r="A68" s="42">
         <v>56</v>
       </c>
-      <c r="B68" s="366">
+      <c r="B68" s="355">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C68" s="367"/>
+      <c r="C68" s="356"/>
       <c r="D68" s="272">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -9590,7 +9587,7 @@
         <v>100</v>
       </c>
       <c r="M68" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N68" s="275" t="e">
@@ -9598,7 +9595,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P68" s="275">
@@ -9606,11 +9603,11 @@
         <v>0</v>
       </c>
       <c r="Q68" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R68" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R68" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S68" s="46"/>
@@ -9619,11 +9616,11 @@
       <c r="A69" s="42">
         <v>57</v>
       </c>
-      <c r="B69" s="366">
+      <c r="B69" s="355">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C69" s="367"/>
+      <c r="C69" s="356"/>
       <c r="D69" s="272">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -9661,7 +9658,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N69" s="275" t="e">
@@ -9669,7 +9666,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O69" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P69" s="275">
@@ -9677,11 +9674,11 @@
         <v>0</v>
       </c>
       <c r="Q69" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R69" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R69" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S69" s="46"/>
@@ -9690,11 +9687,11 @@
       <c r="A70" s="42">
         <v>58</v>
       </c>
-      <c r="B70" s="366">
+      <c r="B70" s="355">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C70" s="367"/>
+      <c r="C70" s="356"/>
       <c r="D70" s="272">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -9732,7 +9729,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N70" s="275" t="e">
@@ -9740,7 +9737,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O70" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P70" s="275">
@@ -9748,11 +9745,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R70" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R70" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S70" s="46"/>
@@ -9761,11 +9758,11 @@
       <c r="A71" s="42">
         <v>59</v>
       </c>
-      <c r="B71" s="366">
+      <c r="B71" s="355">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C71" s="367"/>
+      <c r="C71" s="356"/>
       <c r="D71" s="272">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -9803,7 +9800,7 @@
         <v>100</v>
       </c>
       <c r="M71" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N71" s="275" t="e">
@@ -9811,7 +9808,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O71" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P71" s="275">
@@ -9819,11 +9816,11 @@
         <v>0</v>
       </c>
       <c r="Q71" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R71" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R71" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S71" s="46"/>
@@ -9832,11 +9829,11 @@
       <c r="A72" s="42">
         <v>60</v>
       </c>
-      <c r="B72" s="366">
+      <c r="B72" s="355">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C72" s="367"/>
+      <c r="C72" s="356"/>
       <c r="D72" s="272">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -9874,7 +9871,7 @@
         <v>100</v>
       </c>
       <c r="M72" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N72" s="275" t="e">
@@ -9882,7 +9879,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O72" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P72" s="275">
@@ -9890,11 +9887,11 @@
         <v>0</v>
       </c>
       <c r="Q72" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R72" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R72" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S72" s="46"/>
@@ -9903,11 +9900,11 @@
       <c r="A73" s="42">
         <v>61</v>
       </c>
-      <c r="B73" s="366">
+      <c r="B73" s="355">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C73" s="367"/>
+      <c r="C73" s="356"/>
       <c r="D73" s="272">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -9945,7 +9942,7 @@
         <v>100</v>
       </c>
       <c r="M73" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N73" s="275" t="e">
@@ -9953,7 +9950,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O73" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P73" s="275">
@@ -9961,11 +9958,11 @@
         <v>0</v>
       </c>
       <c r="Q73" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R73" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R73" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S73" s="46"/>
@@ -9974,11 +9971,11 @@
       <c r="A74" s="42">
         <v>62</v>
       </c>
-      <c r="B74" s="366">
+      <c r="B74" s="355">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C74" s="367"/>
+      <c r="C74" s="356"/>
       <c r="D74" s="272">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -10016,7 +10013,7 @@
         <v>100</v>
       </c>
       <c r="M74" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N74" s="275" t="e">
@@ -10024,7 +10021,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O74" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P74" s="275">
@@ -10032,11 +10029,11 @@
         <v>0</v>
       </c>
       <c r="Q74" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R74" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R74" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S74" s="46"/>
@@ -10045,11 +10042,11 @@
       <c r="A75" s="42">
         <v>63</v>
       </c>
-      <c r="B75" s="366">
+      <c r="B75" s="355">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C75" s="367"/>
+      <c r="C75" s="356"/>
       <c r="D75" s="272">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -10087,7 +10084,7 @@
         <v>100</v>
       </c>
       <c r="M75" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N75" s="275" t="e">
@@ -10095,7 +10092,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O75" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P75" s="275">
@@ -10103,11 +10100,11 @@
         <v>0</v>
       </c>
       <c r="Q75" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R75" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R75" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S75" s="46"/>
@@ -10116,11 +10113,11 @@
       <c r="A76" s="42">
         <v>64</v>
       </c>
-      <c r="B76" s="366">
+      <c r="B76" s="355">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C76" s="367"/>
+      <c r="C76" s="356"/>
       <c r="D76" s="272">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -10158,7 +10155,7 @@
         <v>100</v>
       </c>
       <c r="M76" s="276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N76" s="275" t="e">
@@ -10166,7 +10163,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O76" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P76" s="275">
@@ -10174,11 +10171,11 @@
         <v>0</v>
       </c>
       <c r="Q76" s="275" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R76" s="333" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R76" s="333" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S76" s="46"/>
@@ -10187,11 +10184,11 @@
       <c r="A77" s="42">
         <v>65</v>
       </c>
-      <c r="B77" s="366">
+      <c r="B77" s="355">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C77" s="367"/>
+      <c r="C77" s="356"/>
       <c r="D77" s="272">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -10258,11 +10255,11 @@
       <c r="A78" s="42">
         <v>66</v>
       </c>
-      <c r="B78" s="366">
+      <c r="B78" s="355">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C78" s="367"/>
+      <c r="C78" s="356"/>
       <c r="D78" s="272">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -10329,11 +10326,11 @@
       <c r="A79" s="42">
         <v>67</v>
       </c>
-      <c r="B79" s="366">
+      <c r="B79" s="355">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C79" s="367"/>
+      <c r="C79" s="356"/>
       <c r="D79" s="272">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -10400,11 +10397,11 @@
       <c r="A80" s="42">
         <v>68</v>
       </c>
-      <c r="B80" s="366">
+      <c r="B80" s="355">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C80" s="367"/>
+      <c r="C80" s="356"/>
       <c r="D80" s="272">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -10471,11 +10468,11 @@
       <c r="A81" s="42">
         <v>69</v>
       </c>
-      <c r="B81" s="366">
+      <c r="B81" s="355">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C81" s="367"/>
+      <c r="C81" s="356"/>
       <c r="D81" s="272">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -10542,11 +10539,11 @@
       <c r="A82" s="42">
         <v>70</v>
       </c>
-      <c r="B82" s="366">
+      <c r="B82" s="355">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C82" s="367"/>
+      <c r="C82" s="356"/>
       <c r="D82" s="272">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -10613,11 +10610,11 @@
       <c r="A83" s="42">
         <v>71</v>
       </c>
-      <c r="B83" s="366">
+      <c r="B83" s="355">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C83" s="367"/>
+      <c r="C83" s="356"/>
       <c r="D83" s="272">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -10684,11 +10681,11 @@
       <c r="A84" s="42">
         <v>72</v>
       </c>
-      <c r="B84" s="366">
+      <c r="B84" s="355">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C84" s="367"/>
+      <c r="C84" s="356"/>
       <c r="D84" s="272">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -10753,8 +10750,8 @@
     </row>
     <row r="85" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="190"/>
-      <c r="B85" s="375"/>
-      <c r="C85" s="376"/>
+      <c r="B85" s="374"/>
+      <c r="C85" s="375"/>
       <c r="D85" s="48"/>
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
@@ -10773,11 +10770,11 @@
       <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" s="33" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="372" t="s">
+      <c r="A86" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="373"/>
-      <c r="C86" s="374"/>
+      <c r="B86" s="372"/>
+      <c r="C86" s="373"/>
       <c r="D86" s="55">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -11238,73 +11235,12 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D10:D11"/>
@@ -11321,12 +11257,73 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496063" top="0.78740157480314998" bottom="0.39370078740157499" header="0.31496062992126" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11399,10 +11396,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="399" t="s">
+      <c r="S2" s="394" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="400"/>
+      <c r="T2" s="395"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -11560,51 +11557,51 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="394" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="391" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="394" t="s">
+      <c r="E9" s="391" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="404" t="s">
+      <c r="F9" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="404"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="404" t="s">
+      <c r="G9" s="399"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="404"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="401" t="s">
+      <c r="J9" s="399"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="396" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="402"/>
-      <c r="N9" s="403"/>
-      <c r="O9" s="401" t="s">
+      <c r="M9" s="397"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="396" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="402"/>
-      <c r="Q9" s="403"/>
-      <c r="R9" s="383" t="s">
+      <c r="P9" s="397"/>
+      <c r="Q9" s="398"/>
+      <c r="R9" s="363" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="370"/>
-      <c r="T9" s="405"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="400"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="357"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="385"/>
+      <c r="D10" s="358"/>
+      <c r="E10" s="358"/>
       <c r="F10" s="131" t="s">
         <v>44</v>
       </c>
@@ -11655,10 +11652,10 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="397">
+      <c r="B11" s="404">
         <v>2</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="134">
         <v>3</v>
       </c>
@@ -11737,11 +11734,11 @@
       <c r="A13" s="256">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C13" s="396"/>
+      <c r="C13" s="390"/>
       <c r="D13" s="213">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -11776,11 +11773,11 @@
       <c r="A14" s="256">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="396"/>
+      <c r="C14" s="390"/>
       <c r="D14" s="213">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -11815,11 +11812,11 @@
       <c r="A15" s="256">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C15" s="396"/>
+      <c r="C15" s="390"/>
       <c r="D15" s="213">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -11854,11 +11851,11 @@
       <c r="A16" s="256">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C16" s="396"/>
+      <c r="C16" s="390"/>
       <c r="D16" s="245">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -11893,11 +11890,11 @@
       <c r="A17" s="256">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="396"/>
+      <c r="C17" s="390"/>
       <c r="D17" s="245">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -11932,11 +11929,11 @@
       <c r="A18" s="256">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="396"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="245">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -11971,11 +11968,11 @@
       <c r="A19" s="256">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="396"/>
+      <c r="C19" s="390"/>
       <c r="D19" s="245">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -12010,11 +12007,11 @@
       <c r="A20" s="256">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C20" s="396"/>
+      <c r="C20" s="390"/>
       <c r="D20" s="245">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -12049,11 +12046,11 @@
       <c r="A21" s="256">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C21" s="396"/>
+      <c r="C21" s="390"/>
       <c r="D21" s="245">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -12088,11 +12085,11 @@
       <c r="A22" s="256">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C22" s="396"/>
+      <c r="C22" s="390"/>
       <c r="D22" s="245">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -12127,11 +12124,11 @@
       <c r="A23" s="256">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C23" s="396"/>
+      <c r="C23" s="390"/>
       <c r="D23" s="245">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -12166,11 +12163,11 @@
       <c r="A24" s="256">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="396"/>
+      <c r="C24" s="390"/>
       <c r="D24" s="245">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -12205,11 +12202,11 @@
       <c r="A25" s="256">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C25" s="396"/>
+      <c r="C25" s="390"/>
       <c r="D25" s="245">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -12244,11 +12241,11 @@
       <c r="A26" s="256">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C26" s="396"/>
+      <c r="C26" s="390"/>
       <c r="D26" s="245">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -12283,11 +12280,11 @@
       <c r="A27" s="256">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C27" s="396"/>
+      <c r="C27" s="390"/>
       <c r="D27" s="245">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -12322,11 +12319,11 @@
       <c r="A28" s="256">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C28" s="396"/>
+      <c r="C28" s="390"/>
       <c r="D28" s="245">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -12361,11 +12358,11 @@
       <c r="A29" s="256">
         <v>17</v>
       </c>
-      <c r="B29" s="389">
+      <c r="B29" s="392">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C29" s="390"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="245">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -12400,11 +12397,11 @@
       <c r="A30" s="256">
         <v>18</v>
       </c>
-      <c r="B30" s="389">
+      <c r="B30" s="392">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C30" s="390"/>
+      <c r="C30" s="393"/>
       <c r="D30" s="245">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -12439,11 +12436,11 @@
       <c r="A31" s="256">
         <v>19</v>
       </c>
-      <c r="B31" s="389">
+      <c r="B31" s="392">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C31" s="390"/>
+      <c r="C31" s="393"/>
       <c r="D31" s="245">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -12478,11 +12475,11 @@
       <c r="A32" s="256">
         <v>20</v>
       </c>
-      <c r="B32" s="389">
+      <c r="B32" s="392">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C32" s="390"/>
+      <c r="C32" s="393"/>
       <c r="D32" s="245">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -12517,11 +12514,11 @@
       <c r="A33" s="256">
         <v>21</v>
       </c>
-      <c r="B33" s="389">
+      <c r="B33" s="392">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C33" s="390"/>
+      <c r="C33" s="393"/>
       <c r="D33" s="245">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -12556,11 +12553,11 @@
       <c r="A34" s="256">
         <v>22</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="392">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C34" s="390"/>
+      <c r="C34" s="393"/>
       <c r="D34" s="245">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -12595,11 +12592,11 @@
       <c r="A35" s="256">
         <v>23</v>
       </c>
-      <c r="B35" s="389">
+      <c r="B35" s="392">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C35" s="390"/>
+      <c r="C35" s="393"/>
       <c r="D35" s="245">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -12634,11 +12631,11 @@
       <c r="A36" s="256">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C36" s="396"/>
+      <c r="C36" s="390"/>
       <c r="D36" s="245">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -12673,11 +12670,11 @@
       <c r="A37" s="256">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C37" s="396"/>
+      <c r="C37" s="390"/>
       <c r="D37" s="245">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -12712,11 +12709,11 @@
       <c r="A38" s="256">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="396"/>
+      <c r="C38" s="390"/>
       <c r="D38" s="245">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -12751,11 +12748,11 @@
       <c r="A39" s="256">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="396"/>
+      <c r="C39" s="390"/>
       <c r="D39" s="245">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -12790,11 +12787,11 @@
       <c r="A40" s="256">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C40" s="396"/>
+      <c r="C40" s="390"/>
       <c r="D40" s="245">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -12829,11 +12826,11 @@
       <c r="A41" s="256">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="396"/>
+      <c r="C41" s="390"/>
       <c r="D41" s="245">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -12868,11 +12865,11 @@
       <c r="A42" s="256">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C42" s="396"/>
+      <c r="C42" s="390"/>
       <c r="D42" s="245">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -12907,11 +12904,11 @@
       <c r="A43" s="256">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="396"/>
+      <c r="C43" s="390"/>
       <c r="D43" s="245">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -12946,11 +12943,11 @@
       <c r="A44" s="256">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C44" s="396"/>
+      <c r="C44" s="390"/>
       <c r="D44" s="245">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -12985,11 +12982,11 @@
       <c r="A45" s="256">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C45" s="396"/>
+      <c r="C45" s="390"/>
       <c r="D45" s="245">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -13024,11 +13021,11 @@
       <c r="A46" s="256">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C46" s="396"/>
+      <c r="C46" s="390"/>
       <c r="D46" s="245">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -13063,11 +13060,11 @@
       <c r="A47" s="256">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C47" s="396"/>
+      <c r="C47" s="390"/>
       <c r="D47" s="245">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -13102,11 +13099,11 @@
       <c r="A48" s="256">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C48" s="396"/>
+      <c r="C48" s="390"/>
       <c r="D48" s="245">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -13141,11 +13138,11 @@
       <c r="A49" s="256">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C49" s="396"/>
+      <c r="C49" s="390"/>
       <c r="D49" s="245">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -13180,11 +13177,11 @@
       <c r="A50" s="256">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C50" s="396"/>
+      <c r="C50" s="390"/>
       <c r="D50" s="245">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -13219,11 +13216,11 @@
       <c r="A51" s="256">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C51" s="396"/>
+      <c r="C51" s="390"/>
       <c r="D51" s="245">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -13258,11 +13255,11 @@
       <c r="A52" s="256">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="396"/>
+      <c r="C52" s="390"/>
       <c r="D52" s="245">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -13297,11 +13294,11 @@
       <c r="A53" s="256">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C53" s="396"/>
+      <c r="C53" s="390"/>
       <c r="D53" s="245">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -13336,11 +13333,11 @@
       <c r="A54" s="256">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C54" s="396"/>
+      <c r="C54" s="390"/>
       <c r="D54" s="245">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -13375,11 +13372,11 @@
       <c r="A55" s="256">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C55" s="396"/>
+      <c r="C55" s="390"/>
       <c r="D55" s="245">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -13414,11 +13411,11 @@
       <c r="A56" s="256">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C56" s="396"/>
+      <c r="C56" s="390"/>
       <c r="D56" s="245">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -13453,11 +13450,11 @@
       <c r="A57" s="256">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="396"/>
+      <c r="C57" s="390"/>
       <c r="D57" s="245">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -13492,11 +13489,11 @@
       <c r="A58" s="256">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C58" s="396"/>
+      <c r="C58" s="390"/>
       <c r="D58" s="245">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -13531,11 +13528,11 @@
       <c r="A59" s="256">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C59" s="396"/>
+      <c r="C59" s="390"/>
       <c r="D59" s="245">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -13570,11 +13567,11 @@
       <c r="A60" s="256">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C60" s="396"/>
+      <c r="C60" s="390"/>
       <c r="D60" s="245">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -13609,11 +13606,11 @@
       <c r="A61" s="256">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C61" s="396"/>
+      <c r="C61" s="390"/>
       <c r="D61" s="245">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -13648,11 +13645,11 @@
       <c r="A62" s="256">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C62" s="396"/>
+      <c r="C62" s="390"/>
       <c r="D62" s="245">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -13687,11 +13684,11 @@
       <c r="A63" s="256">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C63" s="396"/>
+      <c r="C63" s="390"/>
       <c r="D63" s="245">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -13726,11 +13723,11 @@
       <c r="A64" s="256">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C64" s="396"/>
+      <c r="C64" s="390"/>
       <c r="D64" s="245">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -13765,11 +13762,11 @@
       <c r="A65" s="256">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C65" s="396"/>
+      <c r="C65" s="390"/>
       <c r="D65" s="245">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -13804,11 +13801,11 @@
       <c r="A66" s="256">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C66" s="396"/>
+      <c r="C66" s="390"/>
       <c r="D66" s="245">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -13843,11 +13840,11 @@
       <c r="A67" s="256">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C67" s="396"/>
+      <c r="C67" s="390"/>
       <c r="D67" s="245">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -13882,11 +13879,11 @@
       <c r="A68" s="256">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C68" s="396"/>
+      <c r="C68" s="390"/>
       <c r="D68" s="245">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -13921,11 +13918,11 @@
       <c r="A69" s="256">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C69" s="396"/>
+      <c r="C69" s="390"/>
       <c r="D69" s="245">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -13960,11 +13957,11 @@
       <c r="A70" s="256">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C70" s="396"/>
+      <c r="C70" s="390"/>
       <c r="D70" s="245">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -13999,11 +13996,11 @@
       <c r="A71" s="256">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C71" s="396"/>
+      <c r="C71" s="390"/>
       <c r="D71" s="245">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -14038,11 +14035,11 @@
       <c r="A72" s="256">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C72" s="396"/>
+      <c r="C72" s="390"/>
       <c r="D72" s="245">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -14077,11 +14074,11 @@
       <c r="A73" s="256">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C73" s="396"/>
+      <c r="C73" s="390"/>
       <c r="D73" s="245">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -14116,11 +14113,11 @@
       <c r="A74" s="256">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C74" s="396"/>
+      <c r="C74" s="390"/>
       <c r="D74" s="245">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -14155,11 +14152,11 @@
       <c r="A75" s="256">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C75" s="396"/>
+      <c r="C75" s="390"/>
       <c r="D75" s="245">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -14194,11 +14191,11 @@
       <c r="A76" s="256">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C76" s="396"/>
+      <c r="C76" s="390"/>
       <c r="D76" s="245">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -14233,11 +14230,11 @@
       <c r="A77" s="256">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C77" s="396"/>
+      <c r="C77" s="390"/>
       <c r="D77" s="245">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -14272,11 +14269,11 @@
       <c r="A78" s="256">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C78" s="396"/>
+      <c r="C78" s="390"/>
       <c r="D78" s="245">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -14311,11 +14308,11 @@
       <c r="A79" s="256">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C79" s="396"/>
+      <c r="C79" s="390"/>
       <c r="D79" s="245">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -14350,11 +14347,11 @@
       <c r="A80" s="256">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="396"/>
+      <c r="C80" s="390"/>
       <c r="D80" s="245">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -14389,11 +14386,11 @@
       <c r="A81" s="256">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C81" s="396"/>
+      <c r="C81" s="390"/>
       <c r="D81" s="245">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -14428,11 +14425,11 @@
       <c r="A82" s="256">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C82" s="396"/>
+      <c r="C82" s="390"/>
       <c r="D82" s="245">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -14467,11 +14464,11 @@
       <c r="A83" s="256">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C83" s="396"/>
+      <c r="C83" s="390"/>
       <c r="D83" s="245">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -14506,11 +14503,11 @@
       <c r="A84" s="256">
         <v>72</v>
       </c>
-      <c r="B84" s="395">
+      <c r="B84" s="389">
         <f>INPUT!C75</f>
         <v>0</v>
       </c>
-      <c r="C84" s="396"/>
+      <c r="C84" s="390"/>
       <c r="D84" s="245">
         <f>INPUT!D75</f>
         <v>0</v>
@@ -14586,11 +14583,11 @@
       <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="391" t="s">
+      <c r="A87" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="392"/>
-      <c r="C87" s="393"/>
+      <c r="B87" s="402"/>
+      <c r="C87" s="403"/>
       <c r="D87" s="147">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -14912,47 +14909,33 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -14969,33 +14952,47 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.15748031496063" top="0.74803149606299202" bottom="0.39370078740157499" header="0.31496062992126" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15109,53 +15106,53 @@
       <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A9" s="419" t="s">
+      <c r="A9" s="413" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="421" t="s">
+      <c r="B9" s="415" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="422"/>
-      <c r="D9" s="423"/>
-      <c r="E9" s="394" t="s">
+      <c r="C9" s="416"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="394" t="s">
+      <c r="F9" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="394" t="s">
+      <c r="G9" s="391" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="394" t="s">
+      <c r="H9" s="391" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="394" t="s">
+      <c r="I9" s="391" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="394" t="s">
+      <c r="J9" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="411" t="s">
+      <c r="K9" s="430" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="412"/>
+      <c r="L9" s="431"/>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="420"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="425"/>
-      <c r="D10" s="426"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
-      <c r="G10" s="365"/>
-      <c r="H10" s="365"/>
-      <c r="I10" s="365"/>
-      <c r="J10" s="365"/>
-      <c r="K10" s="413"/>
-      <c r="L10" s="414"/>
+      <c r="A10" s="414"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="419"/>
+      <c r="D10" s="420"/>
+      <c r="E10" s="358"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="433"/>
       <c r="O10" s="7" t="s">
         <v>25</v>
       </c>
@@ -15164,11 +15161,11 @@
       <c r="A11" s="199">
         <v>1</v>
       </c>
-      <c r="B11" s="409">
+      <c r="B11" s="421">
         <v>2</v>
       </c>
-      <c r="C11" s="427"/>
-      <c r="D11" s="428"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="200">
         <v>3</v>
       </c>
@@ -15185,35 +15182,35 @@
       <c r="J11" s="201">
         <v>7</v>
       </c>
-      <c r="K11" s="409">
+      <c r="K11" s="421">
         <v>8</v>
       </c>
-      <c r="L11" s="410"/>
+      <c r="L11" s="429"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickTop="1">
       <c r="A12" s="202"/>
-      <c r="B12" s="417"/>
-      <c r="C12" s="429"/>
-      <c r="D12" s="430"/>
+      <c r="B12" s="424"/>
+      <c r="C12" s="425"/>
+      <c r="D12" s="426"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="417"/>
-      <c r="L12" s="418"/>
+      <c r="K12" s="424"/>
+      <c r="L12" s="436"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1">
       <c r="A13" s="259">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>PBJ!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="406"/>
-      <c r="D13" s="396"/>
+      <c r="D13" s="390"/>
       <c r="E13" s="247">
         <f>PBJ!D13</f>
         <v>0</v>
@@ -15230,12 +15227,12 @@
       <c r="A14" s="259">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>PBJ!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="406"/>
-      <c r="D14" s="396"/>
+      <c r="D14" s="390"/>
       <c r="E14" s="247">
         <f>PBJ!D14</f>
         <v>0</v>
@@ -15252,12 +15249,12 @@
       <c r="A15" s="259">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>PBJ!B16</f>
         <v>0</v>
       </c>
       <c r="C15" s="406"/>
-      <c r="D15" s="396"/>
+      <c r="D15" s="390"/>
       <c r="E15" s="247">
         <f>PBJ!D16</f>
         <v>0</v>
@@ -15267,19 +15264,19 @@
       <c r="H15" s="251"/>
       <c r="I15" s="251"/>
       <c r="J15" s="258"/>
-      <c r="K15" s="415"/>
-      <c r="L15" s="416"/>
+      <c r="K15" s="434"/>
+      <c r="L15" s="435"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
       <c r="A16" s="259">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>PBJ!B17</f>
         <v>0</v>
       </c>
       <c r="C16" s="406"/>
-      <c r="D16" s="396"/>
+      <c r="D16" s="390"/>
       <c r="E16" s="247">
         <f>PBJ!D17</f>
         <v>0</v>
@@ -15289,19 +15286,19 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="258"/>
-      <c r="K16" s="415"/>
-      <c r="L16" s="416"/>
+      <c r="K16" s="434"/>
+      <c r="L16" s="435"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="259">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>PBJ!B18</f>
         <v>0</v>
       </c>
       <c r="C17" s="406"/>
-      <c r="D17" s="396"/>
+      <c r="D17" s="390"/>
       <c r="E17" s="247">
         <f>PBJ!D18</f>
         <v>0</v>
@@ -15318,12 +15315,12 @@
       <c r="A18" s="259">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>PBJ!B19</f>
         <v>0</v>
       </c>
       <c r="C18" s="406"/>
-      <c r="D18" s="396"/>
+      <c r="D18" s="390"/>
       <c r="E18" s="247">
         <f>PBJ!D19</f>
         <v>0</v>
@@ -15340,12 +15337,12 @@
       <c r="A19" s="259">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>PBJ!B20</f>
         <v>0</v>
       </c>
       <c r="C19" s="406"/>
-      <c r="D19" s="396"/>
+      <c r="D19" s="390"/>
       <c r="E19" s="247">
         <f>PBJ!D20</f>
         <v>0</v>
@@ -15362,12 +15359,12 @@
       <c r="A20" s="259">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>PBJ!B21</f>
         <v>0</v>
       </c>
       <c r="C20" s="406"/>
-      <c r="D20" s="396"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="247">
         <f>PBJ!D21</f>
         <v>0</v>
@@ -15384,12 +15381,12 @@
       <c r="A21" s="259">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>PBJ!B22</f>
         <v>0</v>
       </c>
       <c r="C21" s="406"/>
-      <c r="D21" s="396"/>
+      <c r="D21" s="390"/>
       <c r="E21" s="247">
         <f>PBJ!D22</f>
         <v>0</v>
@@ -15406,12 +15403,12 @@
       <c r="A22" s="259">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>PBJ!B23</f>
         <v>0</v>
       </c>
       <c r="C22" s="406"/>
-      <c r="D22" s="396"/>
+      <c r="D22" s="390"/>
       <c r="E22" s="247">
         <f>PBJ!D23</f>
         <v>0</v>
@@ -15428,12 +15425,12 @@
       <c r="A23" s="259">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>PBJ!B24</f>
         <v>0</v>
       </c>
       <c r="C23" s="406"/>
-      <c r="D23" s="396"/>
+      <c r="D23" s="390"/>
       <c r="E23" s="247">
         <f>PBJ!D24</f>
         <v>0</v>
@@ -15450,12 +15447,12 @@
       <c r="A24" s="259">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>PBJ!B25</f>
         <v>0</v>
       </c>
       <c r="C24" s="406"/>
-      <c r="D24" s="396"/>
+      <c r="D24" s="390"/>
       <c r="E24" s="247">
         <f>PBJ!D25</f>
         <v>0</v>
@@ -15472,12 +15469,12 @@
       <c r="A25" s="259">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>PBJ!B26</f>
         <v>0</v>
       </c>
       <c r="C25" s="406"/>
-      <c r="D25" s="396"/>
+      <c r="D25" s="390"/>
       <c r="E25" s="247">
         <f>PBJ!D26</f>
         <v>0</v>
@@ -15494,12 +15491,12 @@
       <c r="A26" s="259">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>PBJ!B27</f>
         <v>0</v>
       </c>
       <c r="C26" s="406"/>
-      <c r="D26" s="396"/>
+      <c r="D26" s="390"/>
       <c r="E26" s="247">
         <f>PBJ!D27</f>
         <v>0</v>
@@ -15516,12 +15513,12 @@
       <c r="A27" s="259">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>PBJ!B28</f>
         <v>0</v>
       </c>
       <c r="C27" s="406"/>
-      <c r="D27" s="396"/>
+      <c r="D27" s="390"/>
       <c r="E27" s="247">
         <f>PBJ!D28</f>
         <v>0</v>
@@ -15538,12 +15535,12 @@
       <c r="A28" s="259">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>PBJ!B29</f>
         <v>0</v>
       </c>
       <c r="C28" s="406"/>
-      <c r="D28" s="396"/>
+      <c r="D28" s="390"/>
       <c r="E28" s="247">
         <f>PBJ!D29</f>
         <v>0</v>
@@ -15560,12 +15557,12 @@
       <c r="A29" s="259">
         <v>17</v>
       </c>
-      <c r="B29" s="395">
+      <c r="B29" s="389">
         <f>PBJ!B30</f>
         <v>0</v>
       </c>
       <c r="C29" s="406"/>
-      <c r="D29" s="396"/>
+      <c r="D29" s="390"/>
       <c r="E29" s="247">
         <f>PBJ!D30</f>
         <v>0</v>
@@ -15582,12 +15579,12 @@
       <c r="A30" s="259">
         <v>18</v>
       </c>
-      <c r="B30" s="395">
+      <c r="B30" s="389">
         <f>PBJ!B31</f>
         <v>0</v>
       </c>
       <c r="C30" s="406"/>
-      <c r="D30" s="396"/>
+      <c r="D30" s="390"/>
       <c r="E30" s="247">
         <f>PBJ!D31</f>
         <v>0</v>
@@ -15604,12 +15601,12 @@
       <c r="A31" s="259">
         <v>19</v>
       </c>
-      <c r="B31" s="395">
+      <c r="B31" s="389">
         <f>PBJ!B32</f>
         <v>0</v>
       </c>
       <c r="C31" s="406"/>
-      <c r="D31" s="396"/>
+      <c r="D31" s="390"/>
       <c r="E31" s="247">
         <f>PBJ!D32</f>
         <v>0</v>
@@ -15626,12 +15623,12 @@
       <c r="A32" s="259">
         <v>20</v>
       </c>
-      <c r="B32" s="395">
+      <c r="B32" s="389">
         <f>PBJ!B33</f>
         <v>0</v>
       </c>
       <c r="C32" s="406"/>
-      <c r="D32" s="396"/>
+      <c r="D32" s="390"/>
       <c r="E32" s="247">
         <f>PBJ!D33</f>
         <v>0</v>
@@ -15648,12 +15645,12 @@
       <c r="A33" s="259">
         <v>21</v>
       </c>
-      <c r="B33" s="395">
+      <c r="B33" s="389">
         <f>PBJ!B34</f>
         <v>0</v>
       </c>
       <c r="C33" s="406"/>
-      <c r="D33" s="396"/>
+      <c r="D33" s="390"/>
       <c r="E33" s="247">
         <f>PBJ!D34</f>
         <v>0</v>
@@ -15670,12 +15667,12 @@
       <c r="A34" s="259">
         <v>22</v>
       </c>
-      <c r="B34" s="395">
+      <c r="B34" s="389">
         <f>PBJ!B35</f>
         <v>0</v>
       </c>
       <c r="C34" s="406"/>
-      <c r="D34" s="396"/>
+      <c r="D34" s="390"/>
       <c r="E34" s="247">
         <f>PBJ!D35</f>
         <v>0</v>
@@ -15692,12 +15689,12 @@
       <c r="A35" s="259">
         <v>23</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="389">
         <f>PBJ!B36</f>
         <v>0</v>
       </c>
       <c r="C35" s="406"/>
-      <c r="D35" s="396"/>
+      <c r="D35" s="390"/>
       <c r="E35" s="247">
         <f>PBJ!D36</f>
         <v>0</v>
@@ -15714,12 +15711,12 @@
       <c r="A36" s="259">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>PBJ!B37</f>
         <v>0</v>
       </c>
       <c r="C36" s="406"/>
-      <c r="D36" s="396"/>
+      <c r="D36" s="390"/>
       <c r="E36" s="247"/>
       <c r="F36" s="250"/>
       <c r="G36" s="251"/>
@@ -15733,12 +15730,12 @@
       <c r="A37" s="259">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>PBJ!B38</f>
         <v>0</v>
       </c>
       <c r="C37" s="406"/>
-      <c r="D37" s="396"/>
+      <c r="D37" s="390"/>
       <c r="E37" s="247"/>
       <c r="F37" s="250"/>
       <c r="G37" s="251"/>
@@ -15752,12 +15749,12 @@
       <c r="A38" s="259">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>PBJ!B39</f>
         <v>0</v>
       </c>
       <c r="C38" s="406"/>
-      <c r="D38" s="396"/>
+      <c r="D38" s="390"/>
       <c r="E38" s="247"/>
       <c r="F38" s="250"/>
       <c r="G38" s="251"/>
@@ -15771,12 +15768,12 @@
       <c r="A39" s="259">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>PBJ!B40</f>
         <v>0</v>
       </c>
       <c r="C39" s="406"/>
-      <c r="D39" s="396"/>
+      <c r="D39" s="390"/>
       <c r="E39" s="247"/>
       <c r="F39" s="250"/>
       <c r="G39" s="251"/>
@@ -15790,12 +15787,12 @@
       <c r="A40" s="259">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>PBJ!B41</f>
         <v>0</v>
       </c>
       <c r="C40" s="406"/>
-      <c r="D40" s="396"/>
+      <c r="D40" s="390"/>
       <c r="E40" s="247"/>
       <c r="F40" s="250"/>
       <c r="G40" s="251"/>
@@ -15809,12 +15806,12 @@
       <c r="A41" s="259">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>PBJ!B42</f>
         <v>0</v>
       </c>
       <c r="C41" s="406"/>
-      <c r="D41" s="396"/>
+      <c r="D41" s="390"/>
       <c r="E41" s="247"/>
       <c r="F41" s="250"/>
       <c r="G41" s="251"/>
@@ -15828,12 +15825,12 @@
       <c r="A42" s="259">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>PBJ!B43</f>
         <v>0</v>
       </c>
       <c r="C42" s="406"/>
-      <c r="D42" s="396"/>
+      <c r="D42" s="390"/>
       <c r="E42" s="247"/>
       <c r="F42" s="250"/>
       <c r="G42" s="251"/>
@@ -15847,12 +15844,12 @@
       <c r="A43" s="259">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>PBJ!B44</f>
         <v>0</v>
       </c>
       <c r="C43" s="406"/>
-      <c r="D43" s="396"/>
+      <c r="D43" s="390"/>
       <c r="E43" s="247"/>
       <c r="F43" s="250"/>
       <c r="G43" s="251"/>
@@ -15866,12 +15863,12 @@
       <c r="A44" s="259">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>PBJ!B45</f>
         <v>0</v>
       </c>
       <c r="C44" s="406"/>
-      <c r="D44" s="396"/>
+      <c r="D44" s="390"/>
       <c r="E44" s="247"/>
       <c r="F44" s="250"/>
       <c r="G44" s="251"/>
@@ -15885,12 +15882,12 @@
       <c r="A45" s="259">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>PBJ!B46</f>
         <v>0</v>
       </c>
       <c r="C45" s="406"/>
-      <c r="D45" s="396"/>
+      <c r="D45" s="390"/>
       <c r="E45" s="247"/>
       <c r="F45" s="250"/>
       <c r="G45" s="251"/>
@@ -15904,12 +15901,12 @@
       <c r="A46" s="259">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>PBJ!B47</f>
         <v>0</v>
       </c>
       <c r="C46" s="406"/>
-      <c r="D46" s="396"/>
+      <c r="D46" s="390"/>
       <c r="E46" s="247"/>
       <c r="F46" s="250"/>
       <c r="G46" s="251"/>
@@ -15923,12 +15920,12 @@
       <c r="A47" s="259">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>PBJ!B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="406"/>
-      <c r="D47" s="396"/>
+      <c r="D47" s="390"/>
       <c r="E47" s="247"/>
       <c r="F47" s="250"/>
       <c r="G47" s="251"/>
@@ -15942,12 +15939,12 @@
       <c r="A48" s="259">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>PBJ!B49</f>
         <v>0</v>
       </c>
       <c r="C48" s="406"/>
-      <c r="D48" s="396"/>
+      <c r="D48" s="390"/>
       <c r="E48" s="247"/>
       <c r="F48" s="250"/>
       <c r="G48" s="251"/>
@@ -15961,12 +15958,12 @@
       <c r="A49" s="259">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>PBJ!B50</f>
         <v>0</v>
       </c>
       <c r="C49" s="406"/>
-      <c r="D49" s="396"/>
+      <c r="D49" s="390"/>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>
       <c r="G49" s="251"/>
@@ -15980,12 +15977,12 @@
       <c r="A50" s="259">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>PBJ!B51</f>
         <v>0</v>
       </c>
       <c r="C50" s="406"/>
-      <c r="D50" s="396"/>
+      <c r="D50" s="390"/>
       <c r="E50" s="247"/>
       <c r="F50" s="250"/>
       <c r="G50" s="251"/>
@@ -15999,12 +15996,12 @@
       <c r="A51" s="259">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>PBJ!B52</f>
         <v>0</v>
       </c>
       <c r="C51" s="406"/>
-      <c r="D51" s="396"/>
+      <c r="D51" s="390"/>
       <c r="E51" s="247"/>
       <c r="F51" s="250"/>
       <c r="G51" s="251"/>
@@ -16018,12 +16015,12 @@
       <c r="A52" s="259">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>PBJ!B53</f>
         <v>0</v>
       </c>
       <c r="C52" s="406"/>
-      <c r="D52" s="396"/>
+      <c r="D52" s="390"/>
       <c r="E52" s="247"/>
       <c r="F52" s="250"/>
       <c r="G52" s="251"/>
@@ -16037,12 +16034,12 @@
       <c r="A53" s="259">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>PBJ!B54</f>
         <v>0</v>
       </c>
       <c r="C53" s="406"/>
-      <c r="D53" s="396"/>
+      <c r="D53" s="390"/>
       <c r="E53" s="247"/>
       <c r="F53" s="250"/>
       <c r="G53" s="251"/>
@@ -16056,12 +16053,12 @@
       <c r="A54" s="259">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>PBJ!B55</f>
         <v>0</v>
       </c>
       <c r="C54" s="406"/>
-      <c r="D54" s="396"/>
+      <c r="D54" s="390"/>
       <c r="E54" s="247"/>
       <c r="F54" s="250"/>
       <c r="G54" s="251"/>
@@ -16075,12 +16072,12 @@
       <c r="A55" s="259">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>PBJ!B56</f>
         <v>0</v>
       </c>
       <c r="C55" s="406"/>
-      <c r="D55" s="396"/>
+      <c r="D55" s="390"/>
       <c r="E55" s="247"/>
       <c r="F55" s="250"/>
       <c r="G55" s="251"/>
@@ -16094,12 +16091,12 @@
       <c r="A56" s="259">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>PBJ!B57</f>
         <v>0</v>
       </c>
       <c r="C56" s="406"/>
-      <c r="D56" s="396"/>
+      <c r="D56" s="390"/>
       <c r="E56" s="247"/>
       <c r="F56" s="250"/>
       <c r="G56" s="251"/>
@@ -16113,12 +16110,12 @@
       <c r="A57" s="259">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>PBJ!B58</f>
         <v>0</v>
       </c>
       <c r="C57" s="406"/>
-      <c r="D57" s="396"/>
+      <c r="D57" s="390"/>
       <c r="E57" s="247"/>
       <c r="F57" s="250"/>
       <c r="G57" s="251"/>
@@ -16132,12 +16129,12 @@
       <c r="A58" s="259">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>PBJ!B59</f>
         <v>0</v>
       </c>
       <c r="C58" s="406"/>
-      <c r="D58" s="396"/>
+      <c r="D58" s="390"/>
       <c r="E58" s="247"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251"/>
@@ -16151,12 +16148,12 @@
       <c r="A59" s="259">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>PBJ!B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="406"/>
-      <c r="D59" s="396"/>
+      <c r="D59" s="390"/>
       <c r="E59" s="247"/>
       <c r="F59" s="250"/>
       <c r="G59" s="251"/>
@@ -16170,12 +16167,12 @@
       <c r="A60" s="259">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>PBJ!B61</f>
         <v>0</v>
       </c>
       <c r="C60" s="406"/>
-      <c r="D60" s="396"/>
+      <c r="D60" s="390"/>
       <c r="E60" s="247"/>
       <c r="F60" s="250"/>
       <c r="G60" s="251"/>
@@ -16189,12 +16186,12 @@
       <c r="A61" s="259">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>PBJ!B62</f>
         <v>0</v>
       </c>
       <c r="C61" s="406"/>
-      <c r="D61" s="396"/>
+      <c r="D61" s="390"/>
       <c r="E61" s="247"/>
       <c r="F61" s="250"/>
       <c r="G61" s="251"/>
@@ -16208,12 +16205,12 @@
       <c r="A62" s="259">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>PBJ!B63</f>
         <v>0</v>
       </c>
       <c r="C62" s="406"/>
-      <c r="D62" s="396"/>
+      <c r="D62" s="390"/>
       <c r="E62" s="247"/>
       <c r="F62" s="250"/>
       <c r="G62" s="251"/>
@@ -16227,12 +16224,12 @@
       <c r="A63" s="259">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>PBJ!B64</f>
         <v>0</v>
       </c>
       <c r="C63" s="406"/>
-      <c r="D63" s="396"/>
+      <c r="D63" s="390"/>
       <c r="E63" s="247"/>
       <c r="F63" s="250"/>
       <c r="G63" s="251"/>
@@ -16246,12 +16243,12 @@
       <c r="A64" s="259">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>PBJ!B65</f>
         <v>0</v>
       </c>
       <c r="C64" s="406"/>
-      <c r="D64" s="396"/>
+      <c r="D64" s="390"/>
       <c r="E64" s="247"/>
       <c r="F64" s="250"/>
       <c r="G64" s="251"/>
@@ -16265,12 +16262,12 @@
       <c r="A65" s="259">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>PBJ!B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="406"/>
-      <c r="D65" s="396"/>
+      <c r="D65" s="390"/>
       <c r="E65" s="247"/>
       <c r="F65" s="250"/>
       <c r="G65" s="251"/>
@@ -16284,12 +16281,12 @@
       <c r="A66" s="259">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>PBJ!B67</f>
         <v>0</v>
       </c>
       <c r="C66" s="406"/>
-      <c r="D66" s="396"/>
+      <c r="D66" s="390"/>
       <c r="E66" s="247"/>
       <c r="F66" s="250"/>
       <c r="G66" s="251"/>
@@ -16303,12 +16300,12 @@
       <c r="A67" s="259">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>PBJ!B68</f>
         <v>0</v>
       </c>
       <c r="C67" s="406"/>
-      <c r="D67" s="396"/>
+      <c r="D67" s="390"/>
       <c r="E67" s="247"/>
       <c r="F67" s="250"/>
       <c r="G67" s="251"/>
@@ -16322,12 +16319,12 @@
       <c r="A68" s="259">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>PBJ!B69</f>
         <v>0</v>
       </c>
       <c r="C68" s="406"/>
-      <c r="D68" s="396"/>
+      <c r="D68" s="390"/>
       <c r="E68" s="247"/>
       <c r="F68" s="250"/>
       <c r="G68" s="251"/>
@@ -16341,12 +16338,12 @@
       <c r="A69" s="259">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>PBJ!B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="406"/>
-      <c r="D69" s="396"/>
+      <c r="D69" s="390"/>
       <c r="E69" s="247"/>
       <c r="F69" s="250"/>
       <c r="G69" s="251"/>
@@ -16360,12 +16357,12 @@
       <c r="A70" s="259">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>PBJ!B71</f>
         <v>0</v>
       </c>
       <c r="C70" s="406"/>
-      <c r="D70" s="396"/>
+      <c r="D70" s="390"/>
       <c r="E70" s="247"/>
       <c r="F70" s="250"/>
       <c r="G70" s="251"/>
@@ -16379,12 +16376,12 @@
       <c r="A71" s="259">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>PBJ!B72</f>
         <v>0</v>
       </c>
       <c r="C71" s="406"/>
-      <c r="D71" s="396"/>
+      <c r="D71" s="390"/>
       <c r="E71" s="247"/>
       <c r="F71" s="250"/>
       <c r="G71" s="251"/>
@@ -16398,12 +16395,12 @@
       <c r="A72" s="259">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>PBJ!B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="406"/>
-      <c r="D72" s="396"/>
+      <c r="D72" s="390"/>
       <c r="E72" s="247"/>
       <c r="F72" s="250"/>
       <c r="G72" s="251"/>
@@ -16417,12 +16414,12 @@
       <c r="A73" s="259">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>PBJ!B74</f>
         <v>0</v>
       </c>
       <c r="C73" s="406"/>
-      <c r="D73" s="396"/>
+      <c r="D73" s="390"/>
       <c r="E73" s="247"/>
       <c r="F73" s="250"/>
       <c r="G73" s="251"/>
@@ -16436,12 +16433,12 @@
       <c r="A74" s="259">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>PBJ!B75</f>
         <v>0</v>
       </c>
       <c r="C74" s="406"/>
-      <c r="D74" s="396"/>
+      <c r="D74" s="390"/>
       <c r="E74" s="247"/>
       <c r="F74" s="250"/>
       <c r="G74" s="251"/>
@@ -16455,12 +16452,12 @@
       <c r="A75" s="259">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>PBJ!B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="406"/>
-      <c r="D75" s="396"/>
+      <c r="D75" s="390"/>
       <c r="E75" s="247"/>
       <c r="F75" s="250"/>
       <c r="G75" s="251"/>
@@ -16474,12 +16471,12 @@
       <c r="A76" s="259">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>PBJ!B77</f>
         <v>0</v>
       </c>
       <c r="C76" s="406"/>
-      <c r="D76" s="396"/>
+      <c r="D76" s="390"/>
       <c r="E76" s="247"/>
       <c r="F76" s="250"/>
       <c r="G76" s="251"/>
@@ -16493,12 +16490,12 @@
       <c r="A77" s="259">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>PBJ!B78</f>
         <v>0</v>
       </c>
       <c r="C77" s="406"/>
-      <c r="D77" s="396"/>
+      <c r="D77" s="390"/>
       <c r="E77" s="247"/>
       <c r="F77" s="250"/>
       <c r="G77" s="251"/>
@@ -16512,12 +16509,12 @@
       <c r="A78" s="259">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>PBJ!B79</f>
         <v>0</v>
       </c>
       <c r="C78" s="406"/>
-      <c r="D78" s="396"/>
+      <c r="D78" s="390"/>
       <c r="E78" s="247"/>
       <c r="F78" s="250"/>
       <c r="G78" s="251"/>
@@ -16531,12 +16528,12 @@
       <c r="A79" s="259">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>PBJ!B80</f>
         <v>0</v>
       </c>
       <c r="C79" s="406"/>
-      <c r="D79" s="396"/>
+      <c r="D79" s="390"/>
       <c r="E79" s="247"/>
       <c r="F79" s="250"/>
       <c r="G79" s="251"/>
@@ -16550,12 +16547,12 @@
       <c r="A80" s="259">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>PBJ!B81</f>
         <v>0</v>
       </c>
       <c r="C80" s="406"/>
-      <c r="D80" s="396"/>
+      <c r="D80" s="390"/>
       <c r="E80" s="247"/>
       <c r="F80" s="250"/>
       <c r="G80" s="251"/>
@@ -16569,12 +16566,12 @@
       <c r="A81" s="259">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>PBJ!B82</f>
         <v>0</v>
       </c>
       <c r="C81" s="406"/>
-      <c r="D81" s="396"/>
+      <c r="D81" s="390"/>
       <c r="E81" s="247"/>
       <c r="F81" s="250"/>
       <c r="G81" s="251"/>
@@ -16588,12 +16585,12 @@
       <c r="A82" s="259">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>PBJ!B83</f>
         <v>0</v>
       </c>
       <c r="C82" s="406"/>
-      <c r="D82" s="396"/>
+      <c r="D82" s="390"/>
       <c r="E82" s="247"/>
       <c r="F82" s="250"/>
       <c r="G82" s="251"/>
@@ -16607,12 +16604,12 @@
       <c r="A83" s="259">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>PBJ!B84</f>
         <v>0</v>
       </c>
       <c r="C83" s="406"/>
-      <c r="D83" s="396"/>
+      <c r="D83" s="390"/>
       <c r="E83" s="247"/>
       <c r="F83" s="250"/>
       <c r="G83" s="251"/>
@@ -16624,9 +16621,9 @@
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1">
       <c r="A84" s="259"/>
-      <c r="B84" s="395"/>
+      <c r="B84" s="389"/>
       <c r="C84" s="406"/>
-      <c r="D84" s="396"/>
+      <c r="D84" s="390"/>
       <c r="E84" s="247"/>
       <c r="F84" s="250"/>
       <c r="G84" s="251"/>
@@ -16638,26 +16635,26 @@
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="206"/>
-      <c r="B85" s="431"/>
-      <c r="C85" s="432"/>
-      <c r="D85" s="433"/>
+      <c r="B85" s="410"/>
+      <c r="C85" s="411"/>
+      <c r="D85" s="412"/>
       <c r="E85" s="207"/>
       <c r="F85" s="207"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
       <c r="J85" s="209"/>
-      <c r="K85" s="407"/>
-      <c r="L85" s="408"/>
+      <c r="K85" s="427"/>
+      <c r="L85" s="428"/>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="434" t="str">
+      <c r="A86" s="407" t="str">
         <f>RFK!A86</f>
         <v>Jumlah</v>
       </c>
-      <c r="B86" s="435"/>
-      <c r="C86" s="435"/>
-      <c r="D86" s="436"/>
+      <c r="B86" s="408"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="409"/>
       <c r="E86" s="210">
         <f>SUM(E12:E84)</f>
         <v>0</v>
@@ -16854,38 +16851,48 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B32:D32"/>
@@ -16902,48 +16909,38 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.23622047244094499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17060,138 +17057,138 @@
       <c r="A9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="446"/>
+      <c r="C9" s="438"/>
       <c r="D9" s="104" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="445" t="s">
+      <c r="F9" s="437" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="447"/>
+      <c r="G9" s="439"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="105">
         <v>1</v>
       </c>
-      <c r="B10" s="448">
+      <c r="B10" s="440">
         <v>2</v>
       </c>
-      <c r="C10" s="449"/>
+      <c r="C10" s="441"/>
       <c r="D10" s="106">
         <v>3</v>
       </c>
       <c r="E10" s="106">
         <v>4</v>
       </c>
-      <c r="F10" s="448">
+      <c r="F10" s="440">
         <v>5</v>
       </c>
-      <c r="G10" s="450"/>
+      <c r="G10" s="446"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1" thickTop="1">
       <c r="A11" s="107"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="453"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="449"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="110"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="442"/>
+      <c r="B12" s="444"/>
+      <c r="C12" s="445"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="439"/>
-      <c r="G12" s="440"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="443"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="441"/>
-      <c r="C13" s="442"/>
+      <c r="B13" s="444"/>
+      <c r="C13" s="445"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="439"/>
-      <c r="G13" s="440"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="443"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="113"/>
-      <c r="B14" s="441"/>
-      <c r="C14" s="442"/>
+      <c r="B14" s="444"/>
+      <c r="C14" s="445"/>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="439"/>
-      <c r="G14" s="440"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="443"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="441"/>
-      <c r="C15" s="442"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="445"/>
       <c r="D15" s="111"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="440"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="443"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="441"/>
-      <c r="C16" s="442"/>
+      <c r="B16" s="444"/>
+      <c r="C16" s="445"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117"/>
-      <c r="F16" s="439"/>
-      <c r="G16" s="440"/>
+      <c r="F16" s="442"/>
+      <c r="G16" s="443"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="441"/>
-      <c r="C17" s="442"/>
+      <c r="B17" s="444"/>
+      <c r="C17" s="445"/>
       <c r="D17" s="192"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="439"/>
-      <c r="G17" s="440"/>
+      <c r="F17" s="442"/>
+      <c r="G17" s="443"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="441"/>
-      <c r="C18" s="442"/>
+      <c r="B18" s="444"/>
+      <c r="C18" s="445"/>
       <c r="D18" s="192"/>
       <c r="E18" s="117"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="440"/>
+      <c r="F18" s="442"/>
+      <c r="G18" s="443"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="441"/>
-      <c r="C19" s="442"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="445"/>
       <c r="D19" s="192"/>
       <c r="E19" s="117"/>
-      <c r="F19" s="439"/>
-      <c r="G19" s="440"/>
+      <c r="F19" s="442"/>
+      <c r="G19" s="443"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="451"/>
       <c r="D20" s="120"/>
       <c r="E20" s="121"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="F20" s="452"/>
+      <c r="G20" s="453"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" thickTop="1">
@@ -17284,6 +17281,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
@@ -17299,15 +17305,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.35433070866141703" top="0.62992125984252001" bottom="0.39370078740157499" header="0.35433070866141703" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17387,10 +17384,10 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="399" t="s">
+      <c r="T2" s="394" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="400"/>
+      <c r="U2" s="395"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" ht="13" customHeight="1">
@@ -17529,42 +17526,42 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="464" t="s">
+      <c r="T7" s="456" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="464"/>
+      <c r="U7" s="456"/>
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="465"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="465"/>
-      <c r="G8" s="465"/>
-      <c r="H8" s="465"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="465"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="465"/>
+      <c r="A8" s="457"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="457"/>
+      <c r="D8" s="457"/>
+      <c r="E8" s="457"/>
+      <c r="F8" s="457"/>
+      <c r="G8" s="457"/>
+      <c r="H8" s="457"/>
+      <c r="I8" s="457"/>
+      <c r="J8" s="457"/>
+      <c r="K8" s="457"/>
+      <c r="L8" s="457"/>
     </row>
     <row r="9" spans="1:22" ht="14" thickBot="1"/>
     <row r="10" spans="1:22" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="466" t="s">
+      <c r="B10" s="458" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="467"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="466" t="s">
+      <c r="E10" s="458" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="467"/>
+      <c r="F10" s="459"/>
       <c r="G10" s="222" t="s">
         <v>141</v>
       </c>
@@ -17589,17 +17586,17 @@
       <c r="A11" s="224">
         <v>1</v>
       </c>
-      <c r="B11" s="462">
+      <c r="B11" s="454">
         <v>2</v>
       </c>
-      <c r="C11" s="463"/>
+      <c r="C11" s="455"/>
       <c r="D11" s="224">
         <v>3</v>
       </c>
-      <c r="E11" s="462">
+      <c r="E11" s="454">
         <v>4</v>
       </c>
-      <c r="F11" s="463"/>
+      <c r="F11" s="455"/>
       <c r="G11" s="224">
         <v>5</v>
       </c>
@@ -17625,8 +17622,8 @@
       <c r="B12" s="228"/>
       <c r="C12" s="229"/>
       <c r="D12" s="227"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="455"/>
+      <c r="E12" s="460"/>
+      <c r="F12" s="461"/>
       <c r="G12" s="227"/>
       <c r="H12" s="227"/>
       <c r="I12" s="227"/>
@@ -17639,8 +17636,8 @@
       <c r="B13" s="214"/>
       <c r="C13" s="248"/>
       <c r="D13" s="231"/>
-      <c r="E13" s="456"/>
-      <c r="F13" s="457"/>
+      <c r="E13" s="462"/>
+      <c r="F13" s="463"/>
       <c r="G13" s="232"/>
       <c r="H13" s="230"/>
       <c r="I13" s="231"/>
@@ -17681,8 +17678,8 @@
       <c r="B16" s="234"/>
       <c r="C16" s="235"/>
       <c r="D16" s="233"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="460"/>
+      <c r="E16" s="465"/>
+      <c r="F16" s="466"/>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
       <c r="I16" s="233"/>
@@ -17714,9 +17711,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="461"/>
-      <c r="K18" s="461"/>
-      <c r="L18" s="461"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
+      <c r="L18" s="467"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
@@ -17730,12 +17727,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="458" t="str">
+      <c r="J19" s="464" t="str">
         <f>RFK!N88</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
-      <c r="K19" s="458"/>
-      <c r="L19" s="458"/>
+      <c r="K19" s="464"/>
+      <c r="L19" s="464"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
@@ -17791,9 +17788,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="458"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
+      <c r="J23" s="464"/>
+      <c r="K23" s="464"/>
+      <c r="L23" s="464"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -17807,12 +17804,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="458" t="str">
+      <c r="J24" s="464" t="str">
         <f>RFK!N94</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
+      <c r="K24" s="464"/>
+      <c r="L24" s="464"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -17826,12 +17823,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="458" t="str">
+      <c r="J25" s="464" t="str">
         <f>[1]INPUT!H9</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
+      <c r="K25" s="464"/>
+      <c r="L25" s="464"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -18077,13 +18074,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="J25:L25"/>
@@ -18092,6 +18082,13 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18313,32 +18310,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="482" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="473"/>
-      <c r="J1" s="473"/>
-      <c r="K1" s="473"/>
-      <c r="L1" s="473"/>
-      <c r="M1" s="473"/>
-      <c r="N1" s="473"/>
-      <c r="O1" s="473"/>
-      <c r="P1" s="473"/>
-      <c r="Q1" s="473"/>
-      <c r="R1" s="473"/>
-      <c r="S1" s="473"/>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="482"/>
+      <c r="M1" s="482"/>
+      <c r="N1" s="482"/>
+      <c r="O1" s="482"/>
+      <c r="P1" s="482"/>
+      <c r="Q1" s="482"/>
+      <c r="R1" s="482"/>
+      <c r="S1" s="482"/>
+      <c r="T1" s="482"/>
+      <c r="U1" s="482"/>
+      <c r="V1" s="482"/>
       <c r="W1" s="76"/>
-      <c r="X1" s="478" t="s">
+      <c r="X1" s="471" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18366,7 +18363,7 @@
       <c r="U2" s="78"/>
       <c r="V2" s="78"/>
       <c r="W2" s="76"/>
-      <c r="X2" s="478"/>
+      <c r="X2" s="471"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -18395,7 +18392,7 @@
       <c r="U3" s="78"/>
       <c r="V3" s="78"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="478"/>
+      <c r="X3" s="471"/>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -18424,7 +18421,7 @@
       <c r="U4" s="78"/>
       <c r="V4" s="78"/>
       <c r="W4" s="76"/>
-      <c r="X4" s="478"/>
+      <c r="X4" s="471"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
@@ -18453,7 +18450,7 @@
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
       <c r="W5" s="76"/>
-      <c r="X5" s="478"/>
+      <c r="X5" s="471"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -18482,7 +18479,7 @@
       <c r="U6" s="78"/>
       <c r="V6" s="78"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="478"/>
+      <c r="X6" s="471"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -18511,7 +18508,7 @@
       <c r="U7" s="78"/>
       <c r="V7" s="78"/>
       <c r="W7" s="76"/>
-      <c r="X7" s="478"/>
+      <c r="X7" s="471"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="78"/>
@@ -18537,7 +18534,7 @@
       <c r="U8" s="78"/>
       <c r="V8" s="78"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="478"/>
+      <c r="X8" s="471"/>
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="78"/>
@@ -18563,18 +18560,18 @@
       <c r="U9" s="78"/>
       <c r="V9" s="78"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="478"/>
+      <c r="X9" s="471"/>
     </row>
     <row r="10" spans="1:24" s="99" customFormat="1" ht="22" customHeight="1" thickTop="1">
-      <c r="A10" s="479" t="s">
+      <c r="A10" s="472" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="479"/>
-      <c r="C10" s="479"/>
-      <c r="D10" s="479"/>
-      <c r="E10" s="479"/>
-      <c r="F10" s="479"/>
-      <c r="G10" s="479"/>
+      <c r="B10" s="472"/>
+      <c r="C10" s="472"/>
+      <c r="D10" s="472"/>
+      <c r="E10" s="472"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="472"/>
       <c r="H10" s="298" t="s">
         <v>83</v>
       </c>
@@ -18621,7 +18618,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="98"/>
-      <c r="X10" s="478"/>
+      <c r="X10" s="471"/>
     </row>
     <row r="11" spans="1:24" ht="17" customHeight="1">
       <c r="A11" s="299">
@@ -39160,13 +39157,13 @@
       </c>
     </row>
     <row r="446" spans="1:24" ht="17" customHeight="1">
-      <c r="A446" s="481"/>
-      <c r="B446" s="482"/>
-      <c r="C446" s="482"/>
-      <c r="D446" s="482"/>
-      <c r="E446" s="482"/>
-      <c r="F446" s="482"/>
-      <c r="G446" s="483"/>
+      <c r="A446" s="474"/>
+      <c r="B446" s="475"/>
+      <c r="C446" s="475"/>
+      <c r="D446" s="475"/>
+      <c r="E446" s="475"/>
+      <c r="F446" s="475"/>
+      <c r="G446" s="476"/>
       <c r="H446" s="304"/>
       <c r="I446" s="301" t="s">
         <v>100</v>
@@ -39194,13 +39191,13 @@
       </c>
     </row>
     <row r="447" spans="1:24" s="84" customFormat="1" ht="17" customHeight="1">
-      <c r="A447" s="484"/>
-      <c r="B447" s="485"/>
-      <c r="C447" s="485"/>
-      <c r="D447" s="485"/>
-      <c r="E447" s="485"/>
-      <c r="F447" s="485"/>
-      <c r="G447" s="486"/>
+      <c r="A447" s="477"/>
+      <c r="B447" s="478"/>
+      <c r="C447" s="478"/>
+      <c r="D447" s="478"/>
+      <c r="E447" s="478"/>
+      <c r="F447" s="478"/>
+      <c r="G447" s="479"/>
       <c r="H447" s="307"/>
       <c r="I447" s="318"/>
       <c r="J447" s="319" t="e">
@@ -39259,13 +39256,13 @@
       <c r="X447" s="289"/>
     </row>
     <row r="448" spans="1:24" ht="17" customHeight="1">
-      <c r="A448" s="480"/>
-      <c r="B448" s="480"/>
-      <c r="C448" s="480"/>
-      <c r="D448" s="480"/>
-      <c r="E448" s="480"/>
-      <c r="F448" s="480"/>
-      <c r="G448" s="480"/>
+      <c r="A448" s="473"/>
+      <c r="B448" s="473"/>
+      <c r="C448" s="473"/>
+      <c r="D448" s="473"/>
+      <c r="E448" s="473"/>
+      <c r="F448" s="473"/>
+      <c r="G448" s="473"/>
       <c r="H448" s="304"/>
       <c r="I448" s="304"/>
       <c r="J448" s="311"/>
@@ -39285,13 +39282,13 @@
       <c r="X448" s="290"/>
     </row>
     <row r="449" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A449" s="477"/>
-      <c r="B449" s="477"/>
-      <c r="C449" s="477"/>
-      <c r="D449" s="477"/>
-      <c r="E449" s="477"/>
-      <c r="F449" s="477"/>
-      <c r="G449" s="477"/>
+      <c r="A449" s="486"/>
+      <c r="B449" s="486"/>
+      <c r="C449" s="486"/>
+      <c r="D449" s="486"/>
+      <c r="E449" s="486"/>
+      <c r="F449" s="486"/>
+      <c r="G449" s="486"/>
       <c r="H449" s="323"/>
       <c r="I449" s="324"/>
       <c r="J449" s="325"/>
@@ -39311,16 +39308,16 @@
       <c r="X449" s="290"/>
     </row>
     <row r="450" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A450" s="474" t="s">
+      <c r="A450" s="483" t="s">
         <v>112</v>
       </c>
-      <c r="B450" s="475"/>
-      <c r="C450" s="475"/>
-      <c r="D450" s="475"/>
-      <c r="E450" s="475"/>
-      <c r="F450" s="475"/>
-      <c r="G450" s="476"/>
-      <c r="H450" s="471">
+      <c r="B450" s="484"/>
+      <c r="C450" s="484"/>
+      <c r="D450" s="484"/>
+      <c r="E450" s="484"/>
+      <c r="F450" s="484"/>
+      <c r="G450" s="485"/>
+      <c r="H450" s="480">
         <f>SUM(H11:H448)</f>
         <v>0</v>
       </c>
@@ -39384,16 +39381,16 @@
       </c>
     </row>
     <row r="451" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A451" s="474" t="s">
+      <c r="A451" s="483" t="s">
         <v>113</v>
       </c>
-      <c r="B451" s="475"/>
-      <c r="C451" s="475"/>
-      <c r="D451" s="475"/>
-      <c r="E451" s="475"/>
-      <c r="F451" s="475"/>
-      <c r="G451" s="476"/>
-      <c r="H451" s="472"/>
+      <c r="B451" s="484"/>
+      <c r="C451" s="484"/>
+      <c r="D451" s="484"/>
+      <c r="E451" s="484"/>
+      <c r="F451" s="484"/>
+      <c r="G451" s="485"/>
+      <c r="H451" s="481"/>
       <c r="I451" s="86"/>
       <c r="J451" s="87" t="e">
         <f t="shared" ref="J451:U451" si="74">SUM(J15,J21,J27,J39,J45,J51,J57,J63,J69,J75,J81,J87,J93,J99,J105,J111,J117,J123,J129,J135,J141,J147,J153,J159,J165,J171,J177,J183,J189,J195)+SUM(J201,J207,J213,J219,J225,J231,J237,J243,J249,J255,J261,J267,J273,J279,J285,J291,J297,J303,J309,J315,J321,J327,J333,J339,J345,J351,J357,J363,J369,J375)+SUM(J381,J387,J393,J399,J405,J411,J417,J423,J429,J435,J441,J447)</f>
@@ -39777,16 +39774,16 @@
     <row r="504" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H450:H451"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A450:G450"/>
+    <mergeCell ref="A449:G449"/>
+    <mergeCell ref="A451:G451"/>
     <mergeCell ref="X1:X10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A448:G448"/>
     <mergeCell ref="A446:G446"/>
     <mergeCell ref="A447:G447"/>
-    <mergeCell ref="H450:H451"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A450:G450"/>
-    <mergeCell ref="A449:G449"/>
-    <mergeCell ref="A451:G451"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.27559055118110198" top="0.59055118110236204" bottom="0.70866141732283505" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/excel/mei.xlsx
+++ b/public/excel/mei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD762B-D2D2-3A43-8BCA-D5821FD6D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE534CB5-F153-3642-A1C3-8BE759910CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,107 +3617,125 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3725,14 +3743,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3755,24 +3770,90 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3782,86 +3863,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3878,18 +3902,6 @@
     <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3902,17 +3914,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3932,30 +3956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3965,6 +3965,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3990,27 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5474,81 +5474,81 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="358" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="381"/>
-      <c r="D9" s="364" t="s">
+      <c r="C9" s="359"/>
+      <c r="D9" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="367"/>
-      <c r="F9" s="363" t="s">
+      <c r="E9" s="371"/>
+      <c r="F9" s="383" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="364"/>
-      <c r="H9" s="364"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="364"/>
-      <c r="K9" s="364"/>
-      <c r="L9" s="364"/>
-      <c r="M9" s="367"/>
-      <c r="N9" s="363" t="s">
+      <c r="G9" s="370"/>
+      <c r="H9" s="370"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="370"/>
+      <c r="K9" s="370"/>
+      <c r="L9" s="370"/>
+      <c r="M9" s="371"/>
+      <c r="N9" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="364"/>
-      <c r="P9" s="364"/>
-      <c r="Q9" s="364"/>
-      <c r="R9" s="364"/>
+      <c r="O9" s="370"/>
+      <c r="P9" s="370"/>
+      <c r="Q9" s="370"/>
+      <c r="R9" s="370"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="378"/>
-      <c r="B10" s="382"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="376" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="386" t="s">
+      <c r="A10" s="356"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="377" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="364" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="368" t="s">
+      <c r="F10" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="369"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="368" t="s">
+      <c r="G10" s="379"/>
+      <c r="H10" s="380"/>
+      <c r="I10" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="369"/>
-      <c r="K10" s="370"/>
-      <c r="L10" s="359" t="s">
+      <c r="J10" s="379"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="357" t="s">
+      <c r="M10" s="386" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="361" t="s">
+      <c r="N10" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="362"/>
-      <c r="P10" s="361" t="s">
+      <c r="O10" s="382"/>
+      <c r="P10" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="365" t="s">
+      <c r="Q10" s="382"/>
+      <c r="R10" s="384" t="s">
         <v>207</v>
       </c>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" s="33" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="379"/>
-      <c r="B11" s="384"/>
-      <c r="C11" s="385"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
+      <c r="A11" s="357"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="365"/>
+      <c r="E11" s="365"/>
       <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
@@ -5567,8 +5567,8 @@
       <c r="K11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="360"/>
-      <c r="M11" s="358"/>
+      <c r="L11" s="388"/>
+      <c r="M11" s="365"/>
       <c r="N11" s="37" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5581,17 @@
       <c r="Q11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="366"/>
+      <c r="R11" s="385"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="387">
+      <c r="B12" s="368">
         <v>2</v>
       </c>
-      <c r="C12" s="388"/>
+      <c r="C12" s="369"/>
       <c r="D12" s="39">
         <v>3</v>
       </c>
@@ -5643,16 +5643,19 @@
       <c r="A13" s="271">
         <v>1</v>
       </c>
-      <c r="B13" s="355">
+      <c r="B13" s="366">
         <f>INPUT!C3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="356"/>
+      <c r="C13" s="367"/>
       <c r="D13" s="272">
         <f>INPUT!D3</f>
         <v>0</v>
       </c>
-      <c r="E13" s="273"/>
+      <c r="E13" s="273" t="e">
+        <f t="shared" ref="E13:E44" si="0">D13/$D$86*100</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F13" s="272">
         <f>FISKEU!X11</f>
         <v>0</v>
@@ -5682,7 +5685,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="276">
-        <f t="shared" ref="M13:M76" si="0">+D13-I13</f>
+        <f t="shared" ref="M13:M76" si="1">+D13-I13</f>
         <v>0</v>
       </c>
       <c r="N13" s="275" t="e">
@@ -5690,19 +5693,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="275" t="e">
-        <f t="shared" ref="O13:O76" si="1">+N13*E13/100</f>
+        <f t="shared" ref="O13:O76" si="2">+N13*E13/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="275">
         <f>FISKEU!X14*100</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="275">
-        <f t="shared" ref="Q13:Q76" si="2">+P13*E13/100</f>
-        <v>0</v>
+      <c r="Q13" s="275" t="e">
+        <f t="shared" ref="Q13:Q76" si="3">+P13*E13/100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="R13" s="333" t="e">
-        <f t="shared" ref="R13:R76" si="3">IF(AND(N13=0,P13=0),100,P13/N13 *100)</f>
+        <f t="shared" ref="R13:R76" si="4">IF(AND(N13=0,P13=0),100,P13/N13 *100)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="32"/>
@@ -5711,17 +5714,17 @@
       <c r="A14" s="277">
         <v>2</v>
       </c>
-      <c r="B14" s="355">
+      <c r="B14" s="366">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="356"/>
+      <c r="C14" s="367"/>
       <c r="D14" s="272">
         <f>INPUT!D4</f>
         <v>0</v>
       </c>
       <c r="E14" s="273" t="e">
-        <f t="shared" ref="E13:E44" si="4">D14/$D$86*100</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="272">
@@ -5753,7 +5756,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="275" t="e">
@@ -5761,7 +5764,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="275">
@@ -5769,11 +5772,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="46"/>
@@ -5782,17 +5785,17 @@
       <c r="A15" s="277">
         <v>3</v>
       </c>
-      <c r="B15" s="355">
+      <c r="B15" s="366">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="356"/>
+      <c r="C15" s="367"/>
       <c r="D15" s="272">
         <f>INPUT!D5</f>
         <v>0</v>
       </c>
       <c r="E15" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="272">
@@ -5824,7 +5827,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="275" t="e">
@@ -5832,7 +5835,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="275">
@@ -5840,11 +5843,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="46"/>
@@ -5853,17 +5856,17 @@
       <c r="A16" s="277">
         <v>4</v>
       </c>
-      <c r="B16" s="355">
+      <c r="B16" s="366">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="356"/>
+      <c r="C16" s="367"/>
       <c r="D16" s="272">
         <f>INPUT!D6</f>
         <v>0</v>
       </c>
       <c r="E16" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="272">
@@ -5895,7 +5898,7 @@
         <v>100</v>
       </c>
       <c r="M16" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="275" t="e">
@@ -5903,7 +5906,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="275">
@@ -5911,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="333" t="e">
@@ -5924,17 +5927,17 @@
       <c r="A17" s="271">
         <v>5</v>
       </c>
-      <c r="B17" s="355">
+      <c r="B17" s="366">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="356"/>
+      <c r="C17" s="367"/>
       <c r="D17" s="272">
         <f>INPUT!D7</f>
         <v>0</v>
       </c>
       <c r="E17" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="272">
@@ -5966,7 +5969,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="275" t="e">
@@ -5974,7 +5977,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="275">
@@ -5982,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="333" t="e">
@@ -5995,17 +5998,17 @@
       <c r="A18" s="277">
         <v>6</v>
       </c>
-      <c r="B18" s="355">
+      <c r="B18" s="366">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="356"/>
+      <c r="C18" s="367"/>
       <c r="D18" s="272">
         <f>INPUT!D8</f>
         <v>0</v>
       </c>
       <c r="E18" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="272">
@@ -6037,7 +6040,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="275" t="e">
@@ -6045,7 +6048,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="275">
@@ -6053,11 +6056,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R18" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="46"/>
@@ -6066,17 +6069,17 @@
       <c r="A19" s="277">
         <v>7</v>
       </c>
-      <c r="B19" s="355">
+      <c r="B19" s="366">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="356"/>
+      <c r="C19" s="367"/>
       <c r="D19" s="272">
         <f>INPUT!D9</f>
         <v>0</v>
       </c>
       <c r="E19" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="272">
@@ -6108,7 +6111,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="275" t="e">
@@ -6116,7 +6119,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="275">
@@ -6124,11 +6127,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="46"/>
@@ -6137,17 +6140,17 @@
       <c r="A20" s="277">
         <v>8</v>
       </c>
-      <c r="B20" s="355">
+      <c r="B20" s="366">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="356"/>
+      <c r="C20" s="367"/>
       <c r="D20" s="272">
         <f>INPUT!D10</f>
         <v>0</v>
       </c>
       <c r="E20" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="272">
@@ -6179,7 +6182,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="275" t="e">
@@ -6187,7 +6190,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="275">
@@ -6195,11 +6198,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="46"/>
@@ -6208,17 +6211,17 @@
       <c r="A21" s="278">
         <v>9</v>
       </c>
-      <c r="B21" s="355">
+      <c r="B21" s="366">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="356"/>
+      <c r="C21" s="367"/>
       <c r="D21" s="272">
         <f>INPUT!D11</f>
         <v>0</v>
       </c>
       <c r="E21" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="272">
@@ -6250,7 +6253,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="275" t="e">
@@ -6258,7 +6261,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="275">
@@ -6266,11 +6269,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="46"/>
@@ -6279,17 +6282,17 @@
       <c r="A22" s="277">
         <v>10</v>
       </c>
-      <c r="B22" s="355">
+      <c r="B22" s="366">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="356"/>
+      <c r="C22" s="367"/>
       <c r="D22" s="272">
         <f>INPUT!D12</f>
         <v>0</v>
       </c>
       <c r="E22" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="272">
@@ -6321,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="275" t="e">
@@ -6329,7 +6332,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="275">
@@ -6337,11 +6340,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="46"/>
@@ -6350,17 +6353,17 @@
       <c r="A23" s="277">
         <v>11</v>
       </c>
-      <c r="B23" s="355">
+      <c r="B23" s="366">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="356"/>
+      <c r="C23" s="367"/>
       <c r="D23" s="272">
         <f>INPUT!D13</f>
         <v>0</v>
       </c>
       <c r="E23" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="272">
@@ -6392,7 +6395,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="275" t="e">
@@ -6400,7 +6403,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="275">
@@ -6408,11 +6411,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="46"/>
@@ -6421,17 +6424,17 @@
       <c r="A24" s="277">
         <v>12</v>
       </c>
-      <c r="B24" s="355">
+      <c r="B24" s="366">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="356"/>
+      <c r="C24" s="367"/>
       <c r="D24" s="272">
         <f>INPUT!D14</f>
         <v>0</v>
       </c>
       <c r="E24" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="272">
@@ -6463,7 +6466,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="275" t="e">
@@ -6471,7 +6474,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="275">
@@ -6479,11 +6482,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="46"/>
@@ -6492,17 +6495,17 @@
       <c r="A25" s="278">
         <v>13</v>
       </c>
-      <c r="B25" s="355">
+      <c r="B25" s="366">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="356"/>
+      <c r="C25" s="367"/>
       <c r="D25" s="272">
         <f>INPUT!D15</f>
         <v>0</v>
       </c>
       <c r="E25" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="272">
@@ -6534,7 +6537,7 @@
         <v>100</v>
       </c>
       <c r="M25" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="275" t="e">
@@ -6542,7 +6545,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="275">
@@ -6550,11 +6553,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="46"/>
@@ -6563,17 +6566,17 @@
       <c r="A26" s="277">
         <v>14</v>
       </c>
-      <c r="B26" s="355">
+      <c r="B26" s="366">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="356"/>
+      <c r="C26" s="367"/>
       <c r="D26" s="272">
         <f>INPUT!D16</f>
         <v>0</v>
       </c>
       <c r="E26" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="272">
@@ -6605,7 +6608,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="275" t="e">
@@ -6613,7 +6616,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="275">
@@ -6621,11 +6624,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="46"/>
@@ -6634,17 +6637,17 @@
       <c r="A27" s="277">
         <v>15</v>
       </c>
-      <c r="B27" s="355">
+      <c r="B27" s="366">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="356"/>
+      <c r="C27" s="367"/>
       <c r="D27" s="272">
         <f>INPUT!D17</f>
         <v>0</v>
       </c>
       <c r="E27" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="272">
@@ -6676,7 +6679,7 @@
         <v>100</v>
       </c>
       <c r="M27" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="275" t="e">
@@ -6684,7 +6687,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="275">
@@ -6692,11 +6695,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="46"/>
@@ -6705,17 +6708,17 @@
       <c r="A28" s="277">
         <v>16</v>
       </c>
-      <c r="B28" s="355">
+      <c r="B28" s="366">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="356"/>
+      <c r="C28" s="367"/>
       <c r="D28" s="272">
         <f>INPUT!D18</f>
         <v>0</v>
       </c>
       <c r="E28" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="272">
@@ -6747,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="275" t="e">
@@ -6755,7 +6758,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="275">
@@ -6763,11 +6766,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="46"/>
@@ -6776,17 +6779,17 @@
       <c r="A29" s="278">
         <v>17</v>
       </c>
-      <c r="B29" s="355">
+      <c r="B29" s="366">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="356"/>
+      <c r="C29" s="367"/>
       <c r="D29" s="272">
         <f>INPUT!D19</f>
         <v>0</v>
       </c>
       <c r="E29" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="272">
@@ -6818,7 +6821,7 @@
         <v>100</v>
       </c>
       <c r="M29" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="275" t="e">
@@ -6826,7 +6829,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="275">
@@ -6834,11 +6837,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="46"/>
@@ -6847,17 +6850,17 @@
       <c r="A30" s="277">
         <v>18</v>
       </c>
-      <c r="B30" s="355">
+      <c r="B30" s="366">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="356"/>
+      <c r="C30" s="367"/>
       <c r="D30" s="272">
         <f>INPUT!D20</f>
         <v>0</v>
       </c>
       <c r="E30" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="272">
@@ -6889,7 +6892,7 @@
         <v>100</v>
       </c>
       <c r="M30" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="275" t="e">
@@ -6897,7 +6900,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="275">
@@ -6905,11 +6908,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="46"/>
@@ -6918,17 +6921,17 @@
       <c r="A31" s="277">
         <v>19</v>
       </c>
-      <c r="B31" s="355">
+      <c r="B31" s="366">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="356"/>
+      <c r="C31" s="367"/>
       <c r="D31" s="272">
         <f>INPUT!D21</f>
         <v>0</v>
       </c>
       <c r="E31" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="272">
@@ -6960,7 +6963,7 @@
         <v>100</v>
       </c>
       <c r="M31" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N31" s="275" t="e">
@@ -6968,7 +6971,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="275">
@@ -6976,11 +6979,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="46"/>
@@ -6989,17 +6992,17 @@
       <c r="A32" s="277">
         <v>20</v>
       </c>
-      <c r="B32" s="355">
+      <c r="B32" s="366">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="356"/>
+      <c r="C32" s="367"/>
       <c r="D32" s="272">
         <f>INPUT!D22</f>
         <v>0</v>
       </c>
       <c r="E32" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="272">
@@ -7031,7 +7034,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N32" s="275" t="e">
@@ -7039,7 +7042,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="275">
@@ -7047,11 +7050,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="46"/>
@@ -7060,17 +7063,17 @@
       <c r="A33" s="278">
         <v>21</v>
       </c>
-      <c r="B33" s="355">
+      <c r="B33" s="366">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="356"/>
+      <c r="C33" s="367"/>
       <c r="D33" s="272">
         <f>INPUT!D23</f>
         <v>0</v>
       </c>
       <c r="E33" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="272">
@@ -7102,7 +7105,7 @@
         <v>100</v>
       </c>
       <c r="M33" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N33" s="275" t="e">
@@ -7110,7 +7113,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="275">
@@ -7118,11 +7121,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="46"/>
@@ -7131,17 +7134,17 @@
       <c r="A34" s="277">
         <v>22</v>
       </c>
-      <c r="B34" s="355">
+      <c r="B34" s="366">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="356"/>
+      <c r="C34" s="367"/>
       <c r="D34" s="272">
         <f>INPUT!D24</f>
         <v>0</v>
       </c>
       <c r="E34" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="272">
@@ -7173,7 +7176,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="275" t="e">
@@ -7181,7 +7184,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="275">
@@ -7189,11 +7192,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="46"/>
@@ -7202,17 +7205,17 @@
       <c r="A35" s="277">
         <v>23</v>
       </c>
-      <c r="B35" s="355">
+      <c r="B35" s="366">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="356"/>
+      <c r="C35" s="367"/>
       <c r="D35" s="272">
         <f>INPUT!D25</f>
         <v>0</v>
       </c>
       <c r="E35" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="272">
@@ -7244,7 +7247,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="275" t="e">
@@ -7252,7 +7255,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="275">
@@ -7260,11 +7263,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="46"/>
@@ -7273,17 +7276,17 @@
       <c r="A36" s="277">
         <v>24</v>
       </c>
-      <c r="B36" s="355">
+      <c r="B36" s="366">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="356"/>
+      <c r="C36" s="367"/>
       <c r="D36" s="272">
         <f>INPUT!D26</f>
         <v>0</v>
       </c>
       <c r="E36" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="272">
@@ -7315,7 +7318,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="275" t="e">
@@ -7323,7 +7326,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="275">
@@ -7331,11 +7334,11 @@
         <v>0</v>
       </c>
       <c r="Q36" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="46"/>
@@ -7344,17 +7347,17 @@
       <c r="A37" s="42">
         <v>25</v>
       </c>
-      <c r="B37" s="355">
+      <c r="B37" s="366">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="356"/>
+      <c r="C37" s="367"/>
       <c r="D37" s="272">
         <f>INPUT!D27</f>
         <v>0</v>
       </c>
       <c r="E37" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="272">
@@ -7386,7 +7389,7 @@
         <v>100</v>
       </c>
       <c r="M37" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="275" t="e">
@@ -7394,7 +7397,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="275">
@@ -7402,11 +7405,11 @@
         <v>0</v>
       </c>
       <c r="Q37" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="46"/>
@@ -7415,17 +7418,17 @@
       <c r="A38" s="42">
         <v>26</v>
       </c>
-      <c r="B38" s="355">
+      <c r="B38" s="366">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C38" s="356"/>
+      <c r="C38" s="367"/>
       <c r="D38" s="272">
         <f>INPUT!D28</f>
         <v>0</v>
       </c>
       <c r="E38" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="272">
@@ -7457,7 +7460,7 @@
         <v>100</v>
       </c>
       <c r="M38" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="275" t="e">
@@ -7465,7 +7468,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="275">
@@ -7473,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="333" t="e">
@@ -7486,17 +7489,17 @@
       <c r="A39" s="42">
         <v>27</v>
       </c>
-      <c r="B39" s="355">
+      <c r="B39" s="366">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C39" s="356"/>
+      <c r="C39" s="367"/>
       <c r="D39" s="272">
         <f>INPUT!D29</f>
         <v>0</v>
       </c>
       <c r="E39" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="272">
@@ -7528,7 +7531,7 @@
         <v>100</v>
       </c>
       <c r="M39" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N39" s="275" t="e">
@@ -7536,7 +7539,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="275">
@@ -7544,11 +7547,11 @@
         <v>0</v>
       </c>
       <c r="Q39" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="46"/>
@@ -7557,17 +7560,17 @@
       <c r="A40" s="42">
         <v>28</v>
       </c>
-      <c r="B40" s="355">
+      <c r="B40" s="366">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C40" s="356"/>
+      <c r="C40" s="367"/>
       <c r="D40" s="272">
         <f>INPUT!D30</f>
         <v>0</v>
       </c>
       <c r="E40" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="272">
@@ -7599,7 +7602,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="275" t="e">
@@ -7607,7 +7610,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="275">
@@ -7615,11 +7618,11 @@
         <v>0</v>
       </c>
       <c r="Q40" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="46"/>
@@ -7628,17 +7631,17 @@
       <c r="A41" s="42">
         <v>29</v>
       </c>
-      <c r="B41" s="355">
+      <c r="B41" s="366">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C41" s="356"/>
+      <c r="C41" s="367"/>
       <c r="D41" s="272">
         <f>INPUT!D31</f>
         <v>0</v>
       </c>
       <c r="E41" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="272">
@@ -7670,7 +7673,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41" s="275" t="e">
@@ -7678,7 +7681,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="275">
@@ -7686,11 +7689,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="46"/>
@@ -7699,17 +7702,17 @@
       <c r="A42" s="42">
         <v>30</v>
       </c>
-      <c r="B42" s="355">
+      <c r="B42" s="366">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="356"/>
+      <c r="C42" s="367"/>
       <c r="D42" s="272">
         <f>INPUT!D32</f>
         <v>0</v>
       </c>
       <c r="E42" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="272">
@@ -7741,7 +7744,7 @@
         <v>100</v>
       </c>
       <c r="M42" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N42" s="275" t="e">
@@ -7749,7 +7752,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P42" s="275">
@@ -7757,11 +7760,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="46"/>
@@ -7770,17 +7773,17 @@
       <c r="A43" s="42">
         <v>31</v>
       </c>
-      <c r="B43" s="355">
+      <c r="B43" s="366">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C43" s="356"/>
+      <c r="C43" s="367"/>
       <c r="D43" s="272">
         <f>INPUT!D33</f>
         <v>0</v>
       </c>
       <c r="E43" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="272">
@@ -7812,7 +7815,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="275" t="e">
@@ -7820,7 +7823,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" s="275">
@@ -7828,11 +7831,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="46"/>
@@ -7841,17 +7844,17 @@
       <c r="A44" s="42">
         <v>32</v>
       </c>
-      <c r="B44" s="355">
+      <c r="B44" s="366">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C44" s="356"/>
+      <c r="C44" s="367"/>
       <c r="D44" s="272">
         <f>INPUT!D34</f>
         <v>0</v>
       </c>
       <c r="E44" s="273" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="272">
@@ -7883,7 +7886,7 @@
         <v>100</v>
       </c>
       <c r="M44" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="275" t="e">
@@ -7891,7 +7894,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" s="275">
@@ -7899,11 +7902,11 @@
         <v>0</v>
       </c>
       <c r="Q44" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R44" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S44" s="46"/>
@@ -7912,11 +7915,11 @@
       <c r="A45" s="42">
         <v>33</v>
       </c>
-      <c r="B45" s="355">
+      <c r="B45" s="366">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="356"/>
+      <c r="C45" s="367"/>
       <c r="D45" s="272">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -7954,7 +7957,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="275" t="e">
@@ -7962,7 +7965,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P45" s="275">
@@ -7970,11 +7973,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S45" s="46"/>
@@ -7983,11 +7986,11 @@
       <c r="A46" s="42">
         <v>34</v>
       </c>
-      <c r="B46" s="355">
+      <c r="B46" s="366">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C46" s="356"/>
+      <c r="C46" s="367"/>
       <c r="D46" s="272">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -8025,7 +8028,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N46" s="275" t="e">
@@ -8033,7 +8036,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="275">
@@ -8041,11 +8044,11 @@
         <v>0</v>
       </c>
       <c r="Q46" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S46" s="46"/>
@@ -8054,11 +8057,11 @@
       <c r="A47" s="42">
         <v>35</v>
       </c>
-      <c r="B47" s="355">
+      <c r="B47" s="366">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C47" s="356"/>
+      <c r="C47" s="367"/>
       <c r="D47" s="272">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -8096,7 +8099,7 @@
         <v>100</v>
       </c>
       <c r="M47" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N47" s="275" t="e">
@@ -8104,7 +8107,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P47" s="275">
@@ -8112,11 +8115,11 @@
         <v>0</v>
       </c>
       <c r="Q47" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S47" s="46"/>
@@ -8125,11 +8128,11 @@
       <c r="A48" s="42">
         <v>36</v>
       </c>
-      <c r="B48" s="355">
+      <c r="B48" s="366">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C48" s="356"/>
+      <c r="C48" s="367"/>
       <c r="D48" s="272">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -8167,7 +8170,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N48" s="275" t="e">
@@ -8175,7 +8178,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P48" s="275">
@@ -8183,11 +8186,11 @@
         <v>0</v>
       </c>
       <c r="Q48" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S48" s="46"/>
@@ -8196,11 +8199,11 @@
       <c r="A49" s="42">
         <v>37</v>
       </c>
-      <c r="B49" s="355">
+      <c r="B49" s="366">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="356"/>
+      <c r="C49" s="367"/>
       <c r="D49" s="272">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -8238,7 +8241,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="275" t="e">
@@ -8246,7 +8249,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P49" s="275">
@@ -8254,11 +8257,11 @@
         <v>0</v>
       </c>
       <c r="Q49" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R49" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S49" s="46"/>
@@ -8267,11 +8270,11 @@
       <c r="A50" s="42">
         <v>38</v>
       </c>
-      <c r="B50" s="355">
+      <c r="B50" s="366">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C50" s="356"/>
+      <c r="C50" s="367"/>
       <c r="D50" s="272">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -8309,7 +8312,7 @@
         <v>100</v>
       </c>
       <c r="M50" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N50" s="275" t="e">
@@ -8317,7 +8320,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P50" s="275">
@@ -8325,11 +8328,11 @@
         <v>0</v>
       </c>
       <c r="Q50" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R50" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S50" s="46"/>
@@ -8338,11 +8341,11 @@
       <c r="A51" s="42">
         <v>39</v>
       </c>
-      <c r="B51" s="355">
+      <c r="B51" s="366">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C51" s="356"/>
+      <c r="C51" s="367"/>
       <c r="D51" s="272">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -8380,7 +8383,7 @@
         <v>100</v>
       </c>
       <c r="M51" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N51" s="275" t="e">
@@ -8388,7 +8391,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="275">
@@ -8396,11 +8399,11 @@
         <v>0</v>
       </c>
       <c r="Q51" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S51" s="46"/>
@@ -8409,11 +8412,11 @@
       <c r="A52" s="42">
         <v>40</v>
       </c>
-      <c r="B52" s="355">
+      <c r="B52" s="366">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C52" s="356"/>
+      <c r="C52" s="367"/>
       <c r="D52" s="272">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -8451,7 +8454,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N52" s="275" t="e">
@@ -8459,7 +8462,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" s="275">
@@ -8467,11 +8470,11 @@
         <v>0</v>
       </c>
       <c r="Q52" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R52" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S52" s="46"/>
@@ -8480,11 +8483,11 @@
       <c r="A53" s="42">
         <v>41</v>
       </c>
-      <c r="B53" s="355">
+      <c r="B53" s="366">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C53" s="356"/>
+      <c r="C53" s="367"/>
       <c r="D53" s="272">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -8522,7 +8525,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N53" s="275" t="e">
@@ -8530,7 +8533,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" s="275">
@@ -8538,11 +8541,11 @@
         <v>0</v>
       </c>
       <c r="Q53" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R53" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S53" s="46"/>
@@ -8551,11 +8554,11 @@
       <c r="A54" s="42">
         <v>42</v>
       </c>
-      <c r="B54" s="355">
+      <c r="B54" s="366">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C54" s="356"/>
+      <c r="C54" s="367"/>
       <c r="D54" s="272">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -8593,7 +8596,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N54" s="275" t="e">
@@ -8601,7 +8604,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="275">
@@ -8609,11 +8612,11 @@
         <v>0</v>
       </c>
       <c r="Q54" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S54" s="46"/>
@@ -8622,11 +8625,11 @@
       <c r="A55" s="42">
         <v>43</v>
       </c>
-      <c r="B55" s="355">
+      <c r="B55" s="366">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C55" s="356"/>
+      <c r="C55" s="367"/>
       <c r="D55" s="272">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -8664,7 +8667,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N55" s="275" t="e">
@@ -8672,7 +8675,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" s="275">
@@ -8680,11 +8683,11 @@
         <v>0</v>
       </c>
       <c r="Q55" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S55" s="46"/>
@@ -8693,11 +8696,11 @@
       <c r="A56" s="42">
         <v>44</v>
       </c>
-      <c r="B56" s="355">
+      <c r="B56" s="366">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="356"/>
+      <c r="C56" s="367"/>
       <c r="D56" s="272">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -8735,7 +8738,7 @@
         <v>100</v>
       </c>
       <c r="M56" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N56" s="275" t="e">
@@ -8743,7 +8746,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P56" s="275">
@@ -8751,11 +8754,11 @@
         <v>0</v>
       </c>
       <c r="Q56" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S56" s="46"/>
@@ -8764,11 +8767,11 @@
       <c r="A57" s="42">
         <v>45</v>
       </c>
-      <c r="B57" s="355">
+      <c r="B57" s="366">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C57" s="356"/>
+      <c r="C57" s="367"/>
       <c r="D57" s="272">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -8806,7 +8809,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N57" s="275" t="e">
@@ -8814,7 +8817,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P57" s="275">
@@ -8822,11 +8825,11 @@
         <v>0</v>
       </c>
       <c r="Q57" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R57" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S57" s="46"/>
@@ -8835,11 +8838,11 @@
       <c r="A58" s="42">
         <v>46</v>
       </c>
-      <c r="B58" s="355">
+      <c r="B58" s="366">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C58" s="356"/>
+      <c r="C58" s="367"/>
       <c r="D58" s="272">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -8877,7 +8880,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N58" s="275" t="e">
@@ -8885,7 +8888,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P58" s="275">
@@ -8893,11 +8896,11 @@
         <v>0</v>
       </c>
       <c r="Q58" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S58" s="46"/>
@@ -8906,11 +8909,11 @@
       <c r="A59" s="42">
         <v>47</v>
       </c>
-      <c r="B59" s="355">
+      <c r="B59" s="366">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C59" s="356"/>
+      <c r="C59" s="367"/>
       <c r="D59" s="272">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -8948,7 +8951,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N59" s="275" t="e">
@@ -8956,7 +8959,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P59" s="275">
@@ -8964,11 +8967,11 @@
         <v>0</v>
       </c>
       <c r="Q59" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="46"/>
@@ -8977,11 +8980,11 @@
       <c r="A60" s="42">
         <v>48</v>
       </c>
-      <c r="B60" s="355">
+      <c r="B60" s="366">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C60" s="356"/>
+      <c r="C60" s="367"/>
       <c r="D60" s="272">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -9019,7 +9022,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N60" s="275" t="e">
@@ -9027,7 +9030,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P60" s="275">
@@ -9035,11 +9038,11 @@
         <v>0</v>
       </c>
       <c r="Q60" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R60" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S60" s="46"/>
@@ -9048,11 +9051,11 @@
       <c r="A61" s="42">
         <v>49</v>
       </c>
-      <c r="B61" s="355">
+      <c r="B61" s="366">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C61" s="356"/>
+      <c r="C61" s="367"/>
       <c r="D61" s="272">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -9090,7 +9093,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N61" s="275" t="e">
@@ -9098,7 +9101,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P61" s="275">
@@ -9106,11 +9109,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R61" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S61" s="46"/>
@@ -9119,11 +9122,11 @@
       <c r="A62" s="42">
         <v>50</v>
       </c>
-      <c r="B62" s="355">
+      <c r="B62" s="366">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C62" s="356"/>
+      <c r="C62" s="367"/>
       <c r="D62" s="272">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -9161,7 +9164,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N62" s="275" t="e">
@@ -9169,7 +9172,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P62" s="275">
@@ -9177,11 +9180,11 @@
         <v>0</v>
       </c>
       <c r="Q62" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R62" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S62" s="46"/>
@@ -9190,11 +9193,11 @@
       <c r="A63" s="42">
         <v>51</v>
       </c>
-      <c r="B63" s="355">
+      <c r="B63" s="366">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C63" s="356"/>
+      <c r="C63" s="367"/>
       <c r="D63" s="272">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -9232,7 +9235,7 @@
         <v>100</v>
       </c>
       <c r="M63" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N63" s="275" t="e">
@@ -9240,7 +9243,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P63" s="275">
@@ -9248,11 +9251,11 @@
         <v>0</v>
       </c>
       <c r="Q63" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R63" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S63" s="46"/>
@@ -9261,11 +9264,11 @@
       <c r="A64" s="42">
         <v>52</v>
       </c>
-      <c r="B64" s="355">
+      <c r="B64" s="366">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C64" s="356"/>
+      <c r="C64" s="367"/>
       <c r="D64" s="272">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -9303,7 +9306,7 @@
         <v>100</v>
       </c>
       <c r="M64" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N64" s="275" t="e">
@@ -9311,7 +9314,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O64" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64" s="275">
@@ -9319,11 +9322,11 @@
         <v>0</v>
       </c>
       <c r="Q64" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R64" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S64" s="46"/>
@@ -9332,11 +9335,11 @@
       <c r="A65" s="42">
         <v>53</v>
       </c>
-      <c r="B65" s="355">
+      <c r="B65" s="366">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C65" s="356"/>
+      <c r="C65" s="367"/>
       <c r="D65" s="272">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -9374,7 +9377,7 @@
         <v>100</v>
       </c>
       <c r="M65" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N65" s="275" t="e">
@@ -9382,7 +9385,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="275">
@@ -9390,11 +9393,11 @@
         <v>0</v>
       </c>
       <c r="Q65" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="46"/>
@@ -9403,11 +9406,11 @@
       <c r="A66" s="42">
         <v>54</v>
       </c>
-      <c r="B66" s="355">
+      <c r="B66" s="366">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C66" s="356"/>
+      <c r="C66" s="367"/>
       <c r="D66" s="272">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -9445,7 +9448,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N66" s="275" t="e">
@@ -9453,7 +9456,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="275">
@@ -9461,11 +9464,11 @@
         <v>0</v>
       </c>
       <c r="Q66" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="46"/>
@@ -9474,11 +9477,11 @@
       <c r="A67" s="42">
         <v>55</v>
       </c>
-      <c r="B67" s="355">
+      <c r="B67" s="366">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C67" s="356"/>
+      <c r="C67" s="367"/>
       <c r="D67" s="272">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -9516,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="M67" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N67" s="275" t="e">
@@ -9524,7 +9527,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="275">
@@ -9532,11 +9535,11 @@
         <v>0</v>
       </c>
       <c r="Q67" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="46"/>
@@ -9545,11 +9548,11 @@
       <c r="A68" s="42">
         <v>56</v>
       </c>
-      <c r="B68" s="355">
+      <c r="B68" s="366">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C68" s="356"/>
+      <c r="C68" s="367"/>
       <c r="D68" s="272">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -9587,7 +9590,7 @@
         <v>100</v>
       </c>
       <c r="M68" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N68" s="275" t="e">
@@ -9595,7 +9598,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P68" s="275">
@@ -9603,11 +9606,11 @@
         <v>0</v>
       </c>
       <c r="Q68" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R68" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S68" s="46"/>
@@ -9616,11 +9619,11 @@
       <c r="A69" s="42">
         <v>57</v>
       </c>
-      <c r="B69" s="355">
+      <c r="B69" s="366">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C69" s="356"/>
+      <c r="C69" s="367"/>
       <c r="D69" s="272">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -9658,7 +9661,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N69" s="275" t="e">
@@ -9666,7 +9669,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O69" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P69" s="275">
@@ -9674,11 +9677,11 @@
         <v>0</v>
       </c>
       <c r="Q69" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R69" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S69" s="46"/>
@@ -9687,11 +9690,11 @@
       <c r="A70" s="42">
         <v>58</v>
       </c>
-      <c r="B70" s="355">
+      <c r="B70" s="366">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C70" s="356"/>
+      <c r="C70" s="367"/>
       <c r="D70" s="272">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -9729,7 +9732,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N70" s="275" t="e">
@@ -9737,7 +9740,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O70" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P70" s="275">
@@ -9745,11 +9748,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R70" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S70" s="46"/>
@@ -9758,11 +9761,11 @@
       <c r="A71" s="42">
         <v>59</v>
       </c>
-      <c r="B71" s="355">
+      <c r="B71" s="366">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C71" s="356"/>
+      <c r="C71" s="367"/>
       <c r="D71" s="272">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -9800,7 +9803,7 @@
         <v>100</v>
       </c>
       <c r="M71" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N71" s="275" t="e">
@@ -9808,7 +9811,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O71" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P71" s="275">
@@ -9816,11 +9819,11 @@
         <v>0</v>
       </c>
       <c r="Q71" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S71" s="46"/>
@@ -9829,11 +9832,11 @@
       <c r="A72" s="42">
         <v>60</v>
       </c>
-      <c r="B72" s="355">
+      <c r="B72" s="366">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C72" s="356"/>
+      <c r="C72" s="367"/>
       <c r="D72" s="272">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -9871,7 +9874,7 @@
         <v>100</v>
       </c>
       <c r="M72" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N72" s="275" t="e">
@@ -9879,7 +9882,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O72" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P72" s="275">
@@ -9887,11 +9890,11 @@
         <v>0</v>
       </c>
       <c r="Q72" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R72" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S72" s="46"/>
@@ -9900,11 +9903,11 @@
       <c r="A73" s="42">
         <v>61</v>
       </c>
-      <c r="B73" s="355">
+      <c r="B73" s="366">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C73" s="356"/>
+      <c r="C73" s="367"/>
       <c r="D73" s="272">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -9942,7 +9945,7 @@
         <v>100</v>
       </c>
       <c r="M73" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N73" s="275" t="e">
@@ -9950,7 +9953,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O73" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P73" s="275">
@@ -9958,11 +9961,11 @@
         <v>0</v>
       </c>
       <c r="Q73" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R73" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S73" s="46"/>
@@ -9971,11 +9974,11 @@
       <c r="A74" s="42">
         <v>62</v>
       </c>
-      <c r="B74" s="355">
+      <c r="B74" s="366">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C74" s="356"/>
+      <c r="C74" s="367"/>
       <c r="D74" s="272">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -10013,7 +10016,7 @@
         <v>100</v>
       </c>
       <c r="M74" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N74" s="275" t="e">
@@ -10021,7 +10024,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O74" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P74" s="275">
@@ -10029,11 +10032,11 @@
         <v>0</v>
       </c>
       <c r="Q74" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R74" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S74" s="46"/>
@@ -10042,11 +10045,11 @@
       <c r="A75" s="42">
         <v>63</v>
       </c>
-      <c r="B75" s="355">
+      <c r="B75" s="366">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C75" s="356"/>
+      <c r="C75" s="367"/>
       <c r="D75" s="272">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -10084,7 +10087,7 @@
         <v>100</v>
       </c>
       <c r="M75" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N75" s="275" t="e">
@@ -10092,7 +10095,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O75" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P75" s="275">
@@ -10100,11 +10103,11 @@
         <v>0</v>
       </c>
       <c r="Q75" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R75" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S75" s="46"/>
@@ -10113,11 +10116,11 @@
       <c r="A76" s="42">
         <v>64</v>
       </c>
-      <c r="B76" s="355">
+      <c r="B76" s="366">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C76" s="356"/>
+      <c r="C76" s="367"/>
       <c r="D76" s="272">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -10155,7 +10158,7 @@
         <v>100</v>
       </c>
       <c r="M76" s="276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N76" s="275" t="e">
@@ -10163,7 +10166,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O76" s="275" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P76" s="275">
@@ -10171,11 +10174,11 @@
         <v>0</v>
       </c>
       <c r="Q76" s="275" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R76" s="333" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S76" s="46"/>
@@ -10184,11 +10187,11 @@
       <c r="A77" s="42">
         <v>65</v>
       </c>
-      <c r="B77" s="355">
+      <c r="B77" s="366">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C77" s="356"/>
+      <c r="C77" s="367"/>
       <c r="D77" s="272">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -10255,11 +10258,11 @@
       <c r="A78" s="42">
         <v>66</v>
       </c>
-      <c r="B78" s="355">
+      <c r="B78" s="366">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C78" s="356"/>
+      <c r="C78" s="367"/>
       <c r="D78" s="272">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -10326,11 +10329,11 @@
       <c r="A79" s="42">
         <v>67</v>
       </c>
-      <c r="B79" s="355">
+      <c r="B79" s="366">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C79" s="356"/>
+      <c r="C79" s="367"/>
       <c r="D79" s="272">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -10397,11 +10400,11 @@
       <c r="A80" s="42">
         <v>68</v>
       </c>
-      <c r="B80" s="355">
+      <c r="B80" s="366">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C80" s="356"/>
+      <c r="C80" s="367"/>
       <c r="D80" s="272">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -10468,11 +10471,11 @@
       <c r="A81" s="42">
         <v>69</v>
       </c>
-      <c r="B81" s="355">
+      <c r="B81" s="366">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C81" s="356"/>
+      <c r="C81" s="367"/>
       <c r="D81" s="272">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -10539,11 +10542,11 @@
       <c r="A82" s="42">
         <v>70</v>
       </c>
-      <c r="B82" s="355">
+      <c r="B82" s="366">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C82" s="356"/>
+      <c r="C82" s="367"/>
       <c r="D82" s="272">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -10610,11 +10613,11 @@
       <c r="A83" s="42">
         <v>71</v>
       </c>
-      <c r="B83" s="355">
+      <c r="B83" s="366">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C83" s="356"/>
+      <c r="C83" s="367"/>
       <c r="D83" s="272">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -10681,11 +10684,11 @@
       <c r="A84" s="42">
         <v>72</v>
       </c>
-      <c r="B84" s="355">
+      <c r="B84" s="366">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C84" s="356"/>
+      <c r="C84" s="367"/>
       <c r="D84" s="272">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -10750,8 +10753,8 @@
     </row>
     <row r="85" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="190"/>
-      <c r="B85" s="374"/>
-      <c r="C85" s="375"/>
+      <c r="B85" s="375"/>
+      <c r="C85" s="376"/>
       <c r="D85" s="48"/>
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
@@ -10770,11 +10773,11 @@
       <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" s="33" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="371" t="s">
+      <c r="A86" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="372"/>
-      <c r="C86" s="373"/>
+      <c r="B86" s="373"/>
+      <c r="C86" s="374"/>
       <c r="D86" s="55">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -11235,12 +11238,73 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D10:D11"/>
@@ -11257,73 +11321,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496063" top="0.78740157480314998" bottom="0.39370078740157499" header="0.31496062992126" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11396,10 +11399,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="394" t="s">
+      <c r="S2" s="399" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="395"/>
+      <c r="T2" s="400"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -11557,51 +11560,51 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="381"/>
-      <c r="D9" s="391" t="s">
+      <c r="C9" s="359"/>
+      <c r="D9" s="394" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="391" t="s">
+      <c r="E9" s="394" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="399" t="s">
+      <c r="F9" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="399"/>
-      <c r="H9" s="399"/>
-      <c r="I9" s="399" t="s">
+      <c r="G9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="404" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="399"/>
-      <c r="K9" s="399"/>
-      <c r="L9" s="396" t="s">
+      <c r="J9" s="404"/>
+      <c r="K9" s="404"/>
+      <c r="L9" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="397"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="396" t="s">
+      <c r="M9" s="402"/>
+      <c r="N9" s="403"/>
+      <c r="O9" s="401" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="397"/>
-      <c r="Q9" s="398"/>
-      <c r="R9" s="363" t="s">
+      <c r="P9" s="402"/>
+      <c r="Q9" s="403"/>
+      <c r="R9" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="364"/>
-      <c r="T9" s="400"/>
+      <c r="S9" s="370"/>
+      <c r="T9" s="405"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="379"/>
-      <c r="B10" s="384"/>
-      <c r="C10" s="385"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
       <c r="F10" s="131" t="s">
         <v>44</v>
       </c>
@@ -11652,10 +11655,10 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="404">
+      <c r="B11" s="397">
         <v>2</v>
       </c>
-      <c r="C11" s="405"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="134">
         <v>3</v>
       </c>
@@ -11734,11 +11737,11 @@
       <c r="A13" s="256">
         <v>1</v>
       </c>
-      <c r="B13" s="389">
+      <c r="B13" s="395">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C13" s="390"/>
+      <c r="C13" s="396"/>
       <c r="D13" s="213">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -11773,11 +11776,11 @@
       <c r="A14" s="256">
         <v>2</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="395">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="390"/>
+      <c r="C14" s="396"/>
       <c r="D14" s="213">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -11812,11 +11815,11 @@
       <c r="A15" s="256">
         <v>3</v>
       </c>
-      <c r="B15" s="389">
+      <c r="B15" s="395">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C15" s="390"/>
+      <c r="C15" s="396"/>
       <c r="D15" s="213">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -11851,11 +11854,11 @@
       <c r="A16" s="256">
         <v>4</v>
       </c>
-      <c r="B16" s="389">
+      <c r="B16" s="395">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C16" s="390"/>
+      <c r="C16" s="396"/>
       <c r="D16" s="245">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -11890,11 +11893,11 @@
       <c r="A17" s="256">
         <v>5</v>
       </c>
-      <c r="B17" s="389">
+      <c r="B17" s="395">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="390"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="245">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -11929,11 +11932,11 @@
       <c r="A18" s="256">
         <v>6</v>
       </c>
-      <c r="B18" s="389">
+      <c r="B18" s="395">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="390"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="245">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -11968,11 +11971,11 @@
       <c r="A19" s="256">
         <v>7</v>
       </c>
-      <c r="B19" s="389">
+      <c r="B19" s="395">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="390"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="245">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -12007,11 +12010,11 @@
       <c r="A20" s="256">
         <v>8</v>
       </c>
-      <c r="B20" s="389">
+      <c r="B20" s="395">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C20" s="390"/>
+      <c r="C20" s="396"/>
       <c r="D20" s="245">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -12046,11 +12049,11 @@
       <c r="A21" s="256">
         <v>9</v>
       </c>
-      <c r="B21" s="389">
+      <c r="B21" s="395">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C21" s="390"/>
+      <c r="C21" s="396"/>
       <c r="D21" s="245">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -12085,11 +12088,11 @@
       <c r="A22" s="256">
         <v>10</v>
       </c>
-      <c r="B22" s="389">
+      <c r="B22" s="395">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C22" s="390"/>
+      <c r="C22" s="396"/>
       <c r="D22" s="245">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -12124,11 +12127,11 @@
       <c r="A23" s="256">
         <v>11</v>
       </c>
-      <c r="B23" s="389">
+      <c r="B23" s="395">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C23" s="390"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="245">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -12163,11 +12166,11 @@
       <c r="A24" s="256">
         <v>12</v>
       </c>
-      <c r="B24" s="389">
+      <c r="B24" s="395">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="390"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="245">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -12202,11 +12205,11 @@
       <c r="A25" s="256">
         <v>13</v>
       </c>
-      <c r="B25" s="389">
+      <c r="B25" s="395">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C25" s="390"/>
+      <c r="C25" s="396"/>
       <c r="D25" s="245">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -12241,11 +12244,11 @@
       <c r="A26" s="256">
         <v>14</v>
       </c>
-      <c r="B26" s="389">
+      <c r="B26" s="395">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C26" s="390"/>
+      <c r="C26" s="396"/>
       <c r="D26" s="245">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -12280,11 +12283,11 @@
       <c r="A27" s="256">
         <v>15</v>
       </c>
-      <c r="B27" s="389">
+      <c r="B27" s="395">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C27" s="390"/>
+      <c r="C27" s="396"/>
       <c r="D27" s="245">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -12319,11 +12322,11 @@
       <c r="A28" s="256">
         <v>16</v>
       </c>
-      <c r="B28" s="389">
+      <c r="B28" s="395">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C28" s="390"/>
+      <c r="C28" s="396"/>
       <c r="D28" s="245">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -12358,11 +12361,11 @@
       <c r="A29" s="256">
         <v>17</v>
       </c>
-      <c r="B29" s="392">
+      <c r="B29" s="389">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C29" s="393"/>
+      <c r="C29" s="390"/>
       <c r="D29" s="245">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -12397,11 +12400,11 @@
       <c r="A30" s="256">
         <v>18</v>
       </c>
-      <c r="B30" s="392">
+      <c r="B30" s="389">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C30" s="393"/>
+      <c r="C30" s="390"/>
       <c r="D30" s="245">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -12436,11 +12439,11 @@
       <c r="A31" s="256">
         <v>19</v>
       </c>
-      <c r="B31" s="392">
+      <c r="B31" s="389">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C31" s="393"/>
+      <c r="C31" s="390"/>
       <c r="D31" s="245">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -12475,11 +12478,11 @@
       <c r="A32" s="256">
         <v>20</v>
       </c>
-      <c r="B32" s="392">
+      <c r="B32" s="389">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C32" s="393"/>
+      <c r="C32" s="390"/>
       <c r="D32" s="245">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -12514,11 +12517,11 @@
       <c r="A33" s="256">
         <v>21</v>
       </c>
-      <c r="B33" s="392">
+      <c r="B33" s="389">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C33" s="393"/>
+      <c r="C33" s="390"/>
       <c r="D33" s="245">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -12553,11 +12556,11 @@
       <c r="A34" s="256">
         <v>22</v>
       </c>
-      <c r="B34" s="392">
+      <c r="B34" s="389">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C34" s="393"/>
+      <c r="C34" s="390"/>
       <c r="D34" s="245">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -12592,11 +12595,11 @@
       <c r="A35" s="256">
         <v>23</v>
       </c>
-      <c r="B35" s="392">
+      <c r="B35" s="389">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C35" s="393"/>
+      <c r="C35" s="390"/>
       <c r="D35" s="245">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -12631,11 +12634,11 @@
       <c r="A36" s="256">
         <v>24</v>
       </c>
-      <c r="B36" s="389">
+      <c r="B36" s="395">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C36" s="390"/>
+      <c r="C36" s="396"/>
       <c r="D36" s="245">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -12670,11 +12673,11 @@
       <c r="A37" s="256">
         <v>25</v>
       </c>
-      <c r="B37" s="389">
+      <c r="B37" s="395">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C37" s="390"/>
+      <c r="C37" s="396"/>
       <c r="D37" s="245">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -12709,11 +12712,11 @@
       <c r="A38" s="256">
         <v>26</v>
       </c>
-      <c r="B38" s="389">
+      <c r="B38" s="395">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="390"/>
+      <c r="C38" s="396"/>
       <c r="D38" s="245">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -12748,11 +12751,11 @@
       <c r="A39" s="256">
         <v>27</v>
       </c>
-      <c r="B39" s="389">
+      <c r="B39" s="395">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="390"/>
+      <c r="C39" s="396"/>
       <c r="D39" s="245">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -12787,11 +12790,11 @@
       <c r="A40" s="256">
         <v>28</v>
       </c>
-      <c r="B40" s="389">
+      <c r="B40" s="395">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C40" s="390"/>
+      <c r="C40" s="396"/>
       <c r="D40" s="245">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -12826,11 +12829,11 @@
       <c r="A41" s="256">
         <v>29</v>
       </c>
-      <c r="B41" s="389">
+      <c r="B41" s="395">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="390"/>
+      <c r="C41" s="396"/>
       <c r="D41" s="245">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -12865,11 +12868,11 @@
       <c r="A42" s="256">
         <v>30</v>
       </c>
-      <c r="B42" s="389">
+      <c r="B42" s="395">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C42" s="390"/>
+      <c r="C42" s="396"/>
       <c r="D42" s="245">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -12904,11 +12907,11 @@
       <c r="A43" s="256">
         <v>31</v>
       </c>
-      <c r="B43" s="389">
+      <c r="B43" s="395">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="390"/>
+      <c r="C43" s="396"/>
       <c r="D43" s="245">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -12943,11 +12946,11 @@
       <c r="A44" s="256">
         <v>32</v>
       </c>
-      <c r="B44" s="389">
+      <c r="B44" s="395">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C44" s="390"/>
+      <c r="C44" s="396"/>
       <c r="D44" s="245">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -12982,11 +12985,11 @@
       <c r="A45" s="256">
         <v>33</v>
       </c>
-      <c r="B45" s="389">
+      <c r="B45" s="395">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C45" s="390"/>
+      <c r="C45" s="396"/>
       <c r="D45" s="245">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -13021,11 +13024,11 @@
       <c r="A46" s="256">
         <v>34</v>
       </c>
-      <c r="B46" s="389">
+      <c r="B46" s="395">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C46" s="390"/>
+      <c r="C46" s="396"/>
       <c r="D46" s="245">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -13060,11 +13063,11 @@
       <c r="A47" s="256">
         <v>35</v>
       </c>
-      <c r="B47" s="389">
+      <c r="B47" s="395">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C47" s="390"/>
+      <c r="C47" s="396"/>
       <c r="D47" s="245">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -13099,11 +13102,11 @@
       <c r="A48" s="256">
         <v>36</v>
       </c>
-      <c r="B48" s="389">
+      <c r="B48" s="395">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C48" s="390"/>
+      <c r="C48" s="396"/>
       <c r="D48" s="245">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -13138,11 +13141,11 @@
       <c r="A49" s="256">
         <v>37</v>
       </c>
-      <c r="B49" s="389">
+      <c r="B49" s="395">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C49" s="390"/>
+      <c r="C49" s="396"/>
       <c r="D49" s="245">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -13177,11 +13180,11 @@
       <c r="A50" s="256">
         <v>38</v>
       </c>
-      <c r="B50" s="389">
+      <c r="B50" s="395">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C50" s="390"/>
+      <c r="C50" s="396"/>
       <c r="D50" s="245">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -13216,11 +13219,11 @@
       <c r="A51" s="256">
         <v>39</v>
       </c>
-      <c r="B51" s="389">
+      <c r="B51" s="395">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C51" s="390"/>
+      <c r="C51" s="396"/>
       <c r="D51" s="245">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -13255,11 +13258,11 @@
       <c r="A52" s="256">
         <v>40</v>
       </c>
-      <c r="B52" s="389">
+      <c r="B52" s="395">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="390"/>
+      <c r="C52" s="396"/>
       <c r="D52" s="245">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -13294,11 +13297,11 @@
       <c r="A53" s="256">
         <v>41</v>
       </c>
-      <c r="B53" s="389">
+      <c r="B53" s="395">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C53" s="390"/>
+      <c r="C53" s="396"/>
       <c r="D53" s="245">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -13333,11 +13336,11 @@
       <c r="A54" s="256">
         <v>42</v>
       </c>
-      <c r="B54" s="389">
+      <c r="B54" s="395">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C54" s="390"/>
+      <c r="C54" s="396"/>
       <c r="D54" s="245">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -13372,11 +13375,11 @@
       <c r="A55" s="256">
         <v>43</v>
       </c>
-      <c r="B55" s="389">
+      <c r="B55" s="395">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C55" s="390"/>
+      <c r="C55" s="396"/>
       <c r="D55" s="245">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -13411,11 +13414,11 @@
       <c r="A56" s="256">
         <v>44</v>
       </c>
-      <c r="B56" s="389">
+      <c r="B56" s="395">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C56" s="390"/>
+      <c r="C56" s="396"/>
       <c r="D56" s="245">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -13450,11 +13453,11 @@
       <c r="A57" s="256">
         <v>45</v>
       </c>
-      <c r="B57" s="389">
+      <c r="B57" s="395">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="390"/>
+      <c r="C57" s="396"/>
       <c r="D57" s="245">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -13489,11 +13492,11 @@
       <c r="A58" s="256">
         <v>46</v>
       </c>
-      <c r="B58" s="389">
+      <c r="B58" s="395">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C58" s="390"/>
+      <c r="C58" s="396"/>
       <c r="D58" s="245">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -13528,11 +13531,11 @@
       <c r="A59" s="256">
         <v>47</v>
       </c>
-      <c r="B59" s="389">
+      <c r="B59" s="395">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C59" s="390"/>
+      <c r="C59" s="396"/>
       <c r="D59" s="245">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -13567,11 +13570,11 @@
       <c r="A60" s="256">
         <v>48</v>
       </c>
-      <c r="B60" s="389">
+      <c r="B60" s="395">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C60" s="390"/>
+      <c r="C60" s="396"/>
       <c r="D60" s="245">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -13606,11 +13609,11 @@
       <c r="A61" s="256">
         <v>49</v>
       </c>
-      <c r="B61" s="389">
+      <c r="B61" s="395">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C61" s="390"/>
+      <c r="C61" s="396"/>
       <c r="D61" s="245">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -13645,11 +13648,11 @@
       <c r="A62" s="256">
         <v>50</v>
       </c>
-      <c r="B62" s="389">
+      <c r="B62" s="395">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C62" s="390"/>
+      <c r="C62" s="396"/>
       <c r="D62" s="245">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -13684,11 +13687,11 @@
       <c r="A63" s="256">
         <v>51</v>
       </c>
-      <c r="B63" s="389">
+      <c r="B63" s="395">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C63" s="390"/>
+      <c r="C63" s="396"/>
       <c r="D63" s="245">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -13723,11 +13726,11 @@
       <c r="A64" s="256">
         <v>52</v>
       </c>
-      <c r="B64" s="389">
+      <c r="B64" s="395">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C64" s="390"/>
+      <c r="C64" s="396"/>
       <c r="D64" s="245">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -13762,11 +13765,11 @@
       <c r="A65" s="256">
         <v>53</v>
       </c>
-      <c r="B65" s="389">
+      <c r="B65" s="395">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C65" s="390"/>
+      <c r="C65" s="396"/>
       <c r="D65" s="245">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -13801,11 +13804,11 @@
       <c r="A66" s="256">
         <v>54</v>
       </c>
-      <c r="B66" s="389">
+      <c r="B66" s="395">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C66" s="390"/>
+      <c r="C66" s="396"/>
       <c r="D66" s="245">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -13840,11 +13843,11 @@
       <c r="A67" s="256">
         <v>55</v>
       </c>
-      <c r="B67" s="389">
+      <c r="B67" s="395">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C67" s="390"/>
+      <c r="C67" s="396"/>
       <c r="D67" s="245">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -13879,11 +13882,11 @@
       <c r="A68" s="256">
         <v>56</v>
       </c>
-      <c r="B68" s="389">
+      <c r="B68" s="395">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C68" s="390"/>
+      <c r="C68" s="396"/>
       <c r="D68" s="245">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -13918,11 +13921,11 @@
       <c r="A69" s="256">
         <v>57</v>
       </c>
-      <c r="B69" s="389">
+      <c r="B69" s="395">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C69" s="390"/>
+      <c r="C69" s="396"/>
       <c r="D69" s="245">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -13957,11 +13960,11 @@
       <c r="A70" s="256">
         <v>58</v>
       </c>
-      <c r="B70" s="389">
+      <c r="B70" s="395">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C70" s="390"/>
+      <c r="C70" s="396"/>
       <c r="D70" s="245">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -13996,11 +13999,11 @@
       <c r="A71" s="256">
         <v>59</v>
       </c>
-      <c r="B71" s="389">
+      <c r="B71" s="395">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C71" s="390"/>
+      <c r="C71" s="396"/>
       <c r="D71" s="245">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -14035,11 +14038,11 @@
       <c r="A72" s="256">
         <v>60</v>
       </c>
-      <c r="B72" s="389">
+      <c r="B72" s="395">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C72" s="390"/>
+      <c r="C72" s="396"/>
       <c r="D72" s="245">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -14074,11 +14077,11 @@
       <c r="A73" s="256">
         <v>61</v>
       </c>
-      <c r="B73" s="389">
+      <c r="B73" s="395">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C73" s="390"/>
+      <c r="C73" s="396"/>
       <c r="D73" s="245">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -14113,11 +14116,11 @@
       <c r="A74" s="256">
         <v>62</v>
       </c>
-      <c r="B74" s="389">
+      <c r="B74" s="395">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C74" s="390"/>
+      <c r="C74" s="396"/>
       <c r="D74" s="245">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -14152,11 +14155,11 @@
       <c r="A75" s="256">
         <v>63</v>
       </c>
-      <c r="B75" s="389">
+      <c r="B75" s="395">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C75" s="390"/>
+      <c r="C75" s="396"/>
       <c r="D75" s="245">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -14191,11 +14194,11 @@
       <c r="A76" s="256">
         <v>64</v>
       </c>
-      <c r="B76" s="389">
+      <c r="B76" s="395">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C76" s="390"/>
+      <c r="C76" s="396"/>
       <c r="D76" s="245">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -14230,11 +14233,11 @@
       <c r="A77" s="256">
         <v>65</v>
       </c>
-      <c r="B77" s="389">
+      <c r="B77" s="395">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C77" s="390"/>
+      <c r="C77" s="396"/>
       <c r="D77" s="245">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -14269,11 +14272,11 @@
       <c r="A78" s="256">
         <v>66</v>
       </c>
-      <c r="B78" s="389">
+      <c r="B78" s="395">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C78" s="390"/>
+      <c r="C78" s="396"/>
       <c r="D78" s="245">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -14308,11 +14311,11 @@
       <c r="A79" s="256">
         <v>67</v>
       </c>
-      <c r="B79" s="389">
+      <c r="B79" s="395">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C79" s="390"/>
+      <c r="C79" s="396"/>
       <c r="D79" s="245">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -14347,11 +14350,11 @@
       <c r="A80" s="256">
         <v>68</v>
       </c>
-      <c r="B80" s="389">
+      <c r="B80" s="395">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="390"/>
+      <c r="C80" s="396"/>
       <c r="D80" s="245">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -14386,11 +14389,11 @@
       <c r="A81" s="256">
         <v>69</v>
       </c>
-      <c r="B81" s="389">
+      <c r="B81" s="395">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C81" s="390"/>
+      <c r="C81" s="396"/>
       <c r="D81" s="245">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -14425,11 +14428,11 @@
       <c r="A82" s="256">
         <v>70</v>
       </c>
-      <c r="B82" s="389">
+      <c r="B82" s="395">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C82" s="390"/>
+      <c r="C82" s="396"/>
       <c r="D82" s="245">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -14464,11 +14467,11 @@
       <c r="A83" s="256">
         <v>71</v>
       </c>
-      <c r="B83" s="389">
+      <c r="B83" s="395">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C83" s="390"/>
+      <c r="C83" s="396"/>
       <c r="D83" s="245">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -14503,11 +14506,11 @@
       <c r="A84" s="256">
         <v>72</v>
       </c>
-      <c r="B84" s="389">
+      <c r="B84" s="395">
         <f>INPUT!C75</f>
         <v>0</v>
       </c>
-      <c r="C84" s="390"/>
+      <c r="C84" s="396"/>
       <c r="D84" s="245">
         <f>INPUT!D75</f>
         <v>0</v>
@@ -14583,11 +14586,11 @@
       <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="401" t="s">
+      <c r="A87" s="391" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="402"/>
-      <c r="C87" s="403"/>
+      <c r="B87" s="392"/>
+      <c r="C87" s="393"/>
       <c r="D87" s="147">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -14909,11 +14912,69 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C10"/>
@@ -14930,69 +14991,11 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.15748031496063" top="0.74803149606299202" bottom="0.39370078740157499" header="0.31496062992126" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15106,53 +15109,53 @@
       <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A9" s="413" t="s">
+      <c r="A9" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="415" t="s">
+      <c r="B9" s="421" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="416"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="391" t="s">
+      <c r="C9" s="422"/>
+      <c r="D9" s="423"/>
+      <c r="E9" s="394" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="391" t="s">
+      <c r="F9" s="394" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="391" t="s">
+      <c r="G9" s="394" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="391" t="s">
+      <c r="H9" s="394" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="391" t="s">
+      <c r="I9" s="394" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="391" t="s">
+      <c r="J9" s="394" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="430" t="s">
+      <c r="K9" s="411" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="431"/>
+      <c r="L9" s="412"/>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="414"/>
-      <c r="B10" s="418"/>
-      <c r="C10" s="419"/>
-      <c r="D10" s="420"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="432"/>
-      <c r="L10" s="433"/>
+      <c r="A10" s="420"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
+      <c r="G10" s="365"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="365"/>
+      <c r="J10" s="365"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="414"/>
       <c r="O10" s="7" t="s">
         <v>25</v>
       </c>
@@ -15161,11 +15164,11 @@
       <c r="A11" s="199">
         <v>1</v>
       </c>
-      <c r="B11" s="421">
+      <c r="B11" s="409">
         <v>2</v>
       </c>
-      <c r="C11" s="422"/>
-      <c r="D11" s="423"/>
+      <c r="C11" s="427"/>
+      <c r="D11" s="428"/>
       <c r="E11" s="200">
         <v>3</v>
       </c>
@@ -15182,35 +15185,35 @@
       <c r="J11" s="201">
         <v>7</v>
       </c>
-      <c r="K11" s="421">
+      <c r="K11" s="409">
         <v>8</v>
       </c>
-      <c r="L11" s="429"/>
+      <c r="L11" s="410"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickTop="1">
       <c r="A12" s="202"/>
-      <c r="B12" s="424"/>
-      <c r="C12" s="425"/>
-      <c r="D12" s="426"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="429"/>
+      <c r="D12" s="430"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="424"/>
-      <c r="L12" s="436"/>
+      <c r="K12" s="417"/>
+      <c r="L12" s="418"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1">
       <c r="A13" s="259">
         <v>1</v>
       </c>
-      <c r="B13" s="389">
+      <c r="B13" s="395">
         <f>PBJ!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="406"/>
-      <c r="D13" s="390"/>
+      <c r="D13" s="396"/>
       <c r="E13" s="247">
         <f>PBJ!D13</f>
         <v>0</v>
@@ -15227,12 +15230,12 @@
       <c r="A14" s="259">
         <v>2</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="395">
         <f>PBJ!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="406"/>
-      <c r="D14" s="390"/>
+      <c r="D14" s="396"/>
       <c r="E14" s="247">
         <f>PBJ!D14</f>
         <v>0</v>
@@ -15249,12 +15252,12 @@
       <c r="A15" s="259">
         <v>3</v>
       </c>
-      <c r="B15" s="389">
+      <c r="B15" s="395">
         <f>PBJ!B16</f>
         <v>0</v>
       </c>
       <c r="C15" s="406"/>
-      <c r="D15" s="390"/>
+      <c r="D15" s="396"/>
       <c r="E15" s="247">
         <f>PBJ!D16</f>
         <v>0</v>
@@ -15264,19 +15267,19 @@
       <c r="H15" s="251"/>
       <c r="I15" s="251"/>
       <c r="J15" s="258"/>
-      <c r="K15" s="434"/>
-      <c r="L15" s="435"/>
+      <c r="K15" s="415"/>
+      <c r="L15" s="416"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
       <c r="A16" s="259">
         <v>4</v>
       </c>
-      <c r="B16" s="389">
+      <c r="B16" s="395">
         <f>PBJ!B17</f>
         <v>0</v>
       </c>
       <c r="C16" s="406"/>
-      <c r="D16" s="390"/>
+      <c r="D16" s="396"/>
       <c r="E16" s="247">
         <f>PBJ!D17</f>
         <v>0</v>
@@ -15286,19 +15289,19 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="258"/>
-      <c r="K16" s="434"/>
-      <c r="L16" s="435"/>
+      <c r="K16" s="415"/>
+      <c r="L16" s="416"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="259">
         <v>5</v>
       </c>
-      <c r="B17" s="389">
+      <c r="B17" s="395">
         <f>PBJ!B18</f>
         <v>0</v>
       </c>
       <c r="C17" s="406"/>
-      <c r="D17" s="390"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="247">
         <f>PBJ!D18</f>
         <v>0</v>
@@ -15315,12 +15318,12 @@
       <c r="A18" s="259">
         <v>6</v>
       </c>
-      <c r="B18" s="389">
+      <c r="B18" s="395">
         <f>PBJ!B19</f>
         <v>0</v>
       </c>
       <c r="C18" s="406"/>
-      <c r="D18" s="390"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="247">
         <f>PBJ!D19</f>
         <v>0</v>
@@ -15337,12 +15340,12 @@
       <c r="A19" s="259">
         <v>7</v>
       </c>
-      <c r="B19" s="389">
+      <c r="B19" s="395">
         <f>PBJ!B20</f>
         <v>0</v>
       </c>
       <c r="C19" s="406"/>
-      <c r="D19" s="390"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="247">
         <f>PBJ!D20</f>
         <v>0</v>
@@ -15359,12 +15362,12 @@
       <c r="A20" s="259">
         <v>8</v>
       </c>
-      <c r="B20" s="389">
+      <c r="B20" s="395">
         <f>PBJ!B21</f>
         <v>0</v>
       </c>
       <c r="C20" s="406"/>
-      <c r="D20" s="390"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="247">
         <f>PBJ!D21</f>
         <v>0</v>
@@ -15381,12 +15384,12 @@
       <c r="A21" s="259">
         <v>9</v>
       </c>
-      <c r="B21" s="389">
+      <c r="B21" s="395">
         <f>PBJ!B22</f>
         <v>0</v>
       </c>
       <c r="C21" s="406"/>
-      <c r="D21" s="390"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="247">
         <f>PBJ!D22</f>
         <v>0</v>
@@ -15403,12 +15406,12 @@
       <c r="A22" s="259">
         <v>10</v>
       </c>
-      <c r="B22" s="389">
+      <c r="B22" s="395">
         <f>PBJ!B23</f>
         <v>0</v>
       </c>
       <c r="C22" s="406"/>
-      <c r="D22" s="390"/>
+      <c r="D22" s="396"/>
       <c r="E22" s="247">
         <f>PBJ!D23</f>
         <v>0</v>
@@ -15425,12 +15428,12 @@
       <c r="A23" s="259">
         <v>11</v>
       </c>
-      <c r="B23" s="389">
+      <c r="B23" s="395">
         <f>PBJ!B24</f>
         <v>0</v>
       </c>
       <c r="C23" s="406"/>
-      <c r="D23" s="390"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="247">
         <f>PBJ!D24</f>
         <v>0</v>
@@ -15447,12 +15450,12 @@
       <c r="A24" s="259">
         <v>12</v>
       </c>
-      <c r="B24" s="389">
+      <c r="B24" s="395">
         <f>PBJ!B25</f>
         <v>0</v>
       </c>
       <c r="C24" s="406"/>
-      <c r="D24" s="390"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="247">
         <f>PBJ!D25</f>
         <v>0</v>
@@ -15469,12 +15472,12 @@
       <c r="A25" s="259">
         <v>13</v>
       </c>
-      <c r="B25" s="389">
+      <c r="B25" s="395">
         <f>PBJ!B26</f>
         <v>0</v>
       </c>
       <c r="C25" s="406"/>
-      <c r="D25" s="390"/>
+      <c r="D25" s="396"/>
       <c r="E25" s="247">
         <f>PBJ!D26</f>
         <v>0</v>
@@ -15491,12 +15494,12 @@
       <c r="A26" s="259">
         <v>14</v>
       </c>
-      <c r="B26" s="389">
+      <c r="B26" s="395">
         <f>PBJ!B27</f>
         <v>0</v>
       </c>
       <c r="C26" s="406"/>
-      <c r="D26" s="390"/>
+      <c r="D26" s="396"/>
       <c r="E26" s="247">
         <f>PBJ!D27</f>
         <v>0</v>
@@ -15513,12 +15516,12 @@
       <c r="A27" s="259">
         <v>15</v>
       </c>
-      <c r="B27" s="389">
+      <c r="B27" s="395">
         <f>PBJ!B28</f>
         <v>0</v>
       </c>
       <c r="C27" s="406"/>
-      <c r="D27" s="390"/>
+      <c r="D27" s="396"/>
       <c r="E27" s="247">
         <f>PBJ!D28</f>
         <v>0</v>
@@ -15535,12 +15538,12 @@
       <c r="A28" s="259">
         <v>16</v>
       </c>
-      <c r="B28" s="389">
+      <c r="B28" s="395">
         <f>PBJ!B29</f>
         <v>0</v>
       </c>
       <c r="C28" s="406"/>
-      <c r="D28" s="390"/>
+      <c r="D28" s="396"/>
       <c r="E28" s="247">
         <f>PBJ!D29</f>
         <v>0</v>
@@ -15557,12 +15560,12 @@
       <c r="A29" s="259">
         <v>17</v>
       </c>
-      <c r="B29" s="389">
+      <c r="B29" s="395">
         <f>PBJ!B30</f>
         <v>0</v>
       </c>
       <c r="C29" s="406"/>
-      <c r="D29" s="390"/>
+      <c r="D29" s="396"/>
       <c r="E29" s="247">
         <f>PBJ!D30</f>
         <v>0</v>
@@ -15579,12 +15582,12 @@
       <c r="A30" s="259">
         <v>18</v>
       </c>
-      <c r="B30" s="389">
+      <c r="B30" s="395">
         <f>PBJ!B31</f>
         <v>0</v>
       </c>
       <c r="C30" s="406"/>
-      <c r="D30" s="390"/>
+      <c r="D30" s="396"/>
       <c r="E30" s="247">
         <f>PBJ!D31</f>
         <v>0</v>
@@ -15601,12 +15604,12 @@
       <c r="A31" s="259">
         <v>19</v>
       </c>
-      <c r="B31" s="389">
+      <c r="B31" s="395">
         <f>PBJ!B32</f>
         <v>0</v>
       </c>
       <c r="C31" s="406"/>
-      <c r="D31" s="390"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="247">
         <f>PBJ!D32</f>
         <v>0</v>
@@ -15623,12 +15626,12 @@
       <c r="A32" s="259">
         <v>20</v>
       </c>
-      <c r="B32" s="389">
+      <c r="B32" s="395">
         <f>PBJ!B33</f>
         <v>0</v>
       </c>
       <c r="C32" s="406"/>
-      <c r="D32" s="390"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="247">
         <f>PBJ!D33</f>
         <v>0</v>
@@ -15645,12 +15648,12 @@
       <c r="A33" s="259">
         <v>21</v>
       </c>
-      <c r="B33" s="389">
+      <c r="B33" s="395">
         <f>PBJ!B34</f>
         <v>0</v>
       </c>
       <c r="C33" s="406"/>
-      <c r="D33" s="390"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="247">
         <f>PBJ!D34</f>
         <v>0</v>
@@ -15667,12 +15670,12 @@
       <c r="A34" s="259">
         <v>22</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="395">
         <f>PBJ!B35</f>
         <v>0</v>
       </c>
       <c r="C34" s="406"/>
-      <c r="D34" s="390"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="247">
         <f>PBJ!D35</f>
         <v>0</v>
@@ -15689,12 +15692,12 @@
       <c r="A35" s="259">
         <v>23</v>
       </c>
-      <c r="B35" s="389">
+      <c r="B35" s="395">
         <f>PBJ!B36</f>
         <v>0</v>
       </c>
       <c r="C35" s="406"/>
-      <c r="D35" s="390"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="247">
         <f>PBJ!D36</f>
         <v>0</v>
@@ -15711,12 +15714,12 @@
       <c r="A36" s="259">
         <v>24</v>
       </c>
-      <c r="B36" s="389">
+      <c r="B36" s="395">
         <f>PBJ!B37</f>
         <v>0</v>
       </c>
       <c r="C36" s="406"/>
-      <c r="D36" s="390"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="247"/>
       <c r="F36" s="250"/>
       <c r="G36" s="251"/>
@@ -15730,12 +15733,12 @@
       <c r="A37" s="259">
         <v>25</v>
       </c>
-      <c r="B37" s="389">
+      <c r="B37" s="395">
         <f>PBJ!B38</f>
         <v>0</v>
       </c>
       <c r="C37" s="406"/>
-      <c r="D37" s="390"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="247"/>
       <c r="F37" s="250"/>
       <c r="G37" s="251"/>
@@ -15749,12 +15752,12 @@
       <c r="A38" s="259">
         <v>26</v>
       </c>
-      <c r="B38" s="389">
+      <c r="B38" s="395">
         <f>PBJ!B39</f>
         <v>0</v>
       </c>
       <c r="C38" s="406"/>
-      <c r="D38" s="390"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="247"/>
       <c r="F38" s="250"/>
       <c r="G38" s="251"/>
@@ -15768,12 +15771,12 @@
       <c r="A39" s="259">
         <v>27</v>
       </c>
-      <c r="B39" s="389">
+      <c r="B39" s="395">
         <f>PBJ!B40</f>
         <v>0</v>
       </c>
       <c r="C39" s="406"/>
-      <c r="D39" s="390"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="247"/>
       <c r="F39" s="250"/>
       <c r="G39" s="251"/>
@@ -15787,12 +15790,12 @@
       <c r="A40" s="259">
         <v>28</v>
       </c>
-      <c r="B40" s="389">
+      <c r="B40" s="395">
         <f>PBJ!B41</f>
         <v>0</v>
       </c>
       <c r="C40" s="406"/>
-      <c r="D40" s="390"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="247"/>
       <c r="F40" s="250"/>
       <c r="G40" s="251"/>
@@ -15806,12 +15809,12 @@
       <c r="A41" s="259">
         <v>29</v>
       </c>
-      <c r="B41" s="389">
+      <c r="B41" s="395">
         <f>PBJ!B42</f>
         <v>0</v>
       </c>
       <c r="C41" s="406"/>
-      <c r="D41" s="390"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="247"/>
       <c r="F41" s="250"/>
       <c r="G41" s="251"/>
@@ -15825,12 +15828,12 @@
       <c r="A42" s="259">
         <v>30</v>
       </c>
-      <c r="B42" s="389">
+      <c r="B42" s="395">
         <f>PBJ!B43</f>
         <v>0</v>
       </c>
       <c r="C42" s="406"/>
-      <c r="D42" s="390"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="247"/>
       <c r="F42" s="250"/>
       <c r="G42" s="251"/>
@@ -15844,12 +15847,12 @@
       <c r="A43" s="259">
         <v>31</v>
       </c>
-      <c r="B43" s="389">
+      <c r="B43" s="395">
         <f>PBJ!B44</f>
         <v>0</v>
       </c>
       <c r="C43" s="406"/>
-      <c r="D43" s="390"/>
+      <c r="D43" s="396"/>
       <c r="E43" s="247"/>
       <c r="F43" s="250"/>
       <c r="G43" s="251"/>
@@ -15863,12 +15866,12 @@
       <c r="A44" s="259">
         <v>32</v>
       </c>
-      <c r="B44" s="389">
+      <c r="B44" s="395">
         <f>PBJ!B45</f>
         <v>0</v>
       </c>
       <c r="C44" s="406"/>
-      <c r="D44" s="390"/>
+      <c r="D44" s="396"/>
       <c r="E44" s="247"/>
       <c r="F44" s="250"/>
       <c r="G44" s="251"/>
@@ -15882,12 +15885,12 @@
       <c r="A45" s="259">
         <v>33</v>
       </c>
-      <c r="B45" s="389">
+      <c r="B45" s="395">
         <f>PBJ!B46</f>
         <v>0</v>
       </c>
       <c r="C45" s="406"/>
-      <c r="D45" s="390"/>
+      <c r="D45" s="396"/>
       <c r="E45" s="247"/>
       <c r="F45" s="250"/>
       <c r="G45" s="251"/>
@@ -15901,12 +15904,12 @@
       <c r="A46" s="259">
         <v>34</v>
       </c>
-      <c r="B46" s="389">
+      <c r="B46" s="395">
         <f>PBJ!B47</f>
         <v>0</v>
       </c>
       <c r="C46" s="406"/>
-      <c r="D46" s="390"/>
+      <c r="D46" s="396"/>
       <c r="E46" s="247"/>
       <c r="F46" s="250"/>
       <c r="G46" s="251"/>
@@ -15920,12 +15923,12 @@
       <c r="A47" s="259">
         <v>35</v>
       </c>
-      <c r="B47" s="389">
+      <c r="B47" s="395">
         <f>PBJ!B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="406"/>
-      <c r="D47" s="390"/>
+      <c r="D47" s="396"/>
       <c r="E47" s="247"/>
       <c r="F47" s="250"/>
       <c r="G47" s="251"/>
@@ -15939,12 +15942,12 @@
       <c r="A48" s="259">
         <v>36</v>
       </c>
-      <c r="B48" s="389">
+      <c r="B48" s="395">
         <f>PBJ!B49</f>
         <v>0</v>
       </c>
       <c r="C48" s="406"/>
-      <c r="D48" s="390"/>
+      <c r="D48" s="396"/>
       <c r="E48" s="247"/>
       <c r="F48" s="250"/>
       <c r="G48" s="251"/>
@@ -15958,12 +15961,12 @@
       <c r="A49" s="259">
         <v>37</v>
       </c>
-      <c r="B49" s="389">
+      <c r="B49" s="395">
         <f>PBJ!B50</f>
         <v>0</v>
       </c>
       <c r="C49" s="406"/>
-      <c r="D49" s="390"/>
+      <c r="D49" s="396"/>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>
       <c r="G49" s="251"/>
@@ -15977,12 +15980,12 @@
       <c r="A50" s="259">
         <v>38</v>
       </c>
-      <c r="B50" s="389">
+      <c r="B50" s="395">
         <f>PBJ!B51</f>
         <v>0</v>
       </c>
       <c r="C50" s="406"/>
-      <c r="D50" s="390"/>
+      <c r="D50" s="396"/>
       <c r="E50" s="247"/>
       <c r="F50" s="250"/>
       <c r="G50" s="251"/>
@@ -15996,12 +15999,12 @@
       <c r="A51" s="259">
         <v>39</v>
       </c>
-      <c r="B51" s="389">
+      <c r="B51" s="395">
         <f>PBJ!B52</f>
         <v>0</v>
       </c>
       <c r="C51" s="406"/>
-      <c r="D51" s="390"/>
+      <c r="D51" s="396"/>
       <c r="E51" s="247"/>
       <c r="F51" s="250"/>
       <c r="G51" s="251"/>
@@ -16015,12 +16018,12 @@
       <c r="A52" s="259">
         <v>40</v>
       </c>
-      <c r="B52" s="389">
+      <c r="B52" s="395">
         <f>PBJ!B53</f>
         <v>0</v>
       </c>
       <c r="C52" s="406"/>
-      <c r="D52" s="390"/>
+      <c r="D52" s="396"/>
       <c r="E52" s="247"/>
       <c r="F52" s="250"/>
       <c r="G52" s="251"/>
@@ -16034,12 +16037,12 @@
       <c r="A53" s="259">
         <v>41</v>
       </c>
-      <c r="B53" s="389">
+      <c r="B53" s="395">
         <f>PBJ!B54</f>
         <v>0</v>
       </c>
       <c r="C53" s="406"/>
-      <c r="D53" s="390"/>
+      <c r="D53" s="396"/>
       <c r="E53" s="247"/>
       <c r="F53" s="250"/>
       <c r="G53" s="251"/>
@@ -16053,12 +16056,12 @@
       <c r="A54" s="259">
         <v>42</v>
       </c>
-      <c r="B54" s="389">
+      <c r="B54" s="395">
         <f>PBJ!B55</f>
         <v>0</v>
       </c>
       <c r="C54" s="406"/>
-      <c r="D54" s="390"/>
+      <c r="D54" s="396"/>
       <c r="E54" s="247"/>
       <c r="F54" s="250"/>
       <c r="G54" s="251"/>
@@ -16072,12 +16075,12 @@
       <c r="A55" s="259">
         <v>43</v>
       </c>
-      <c r="B55" s="389">
+      <c r="B55" s="395">
         <f>PBJ!B56</f>
         <v>0</v>
       </c>
       <c r="C55" s="406"/>
-      <c r="D55" s="390"/>
+      <c r="D55" s="396"/>
       <c r="E55" s="247"/>
       <c r="F55" s="250"/>
       <c r="G55" s="251"/>
@@ -16091,12 +16094,12 @@
       <c r="A56" s="259">
         <v>44</v>
       </c>
-      <c r="B56" s="389">
+      <c r="B56" s="395">
         <f>PBJ!B57</f>
         <v>0</v>
       </c>
       <c r="C56" s="406"/>
-      <c r="D56" s="390"/>
+      <c r="D56" s="396"/>
       <c r="E56" s="247"/>
       <c r="F56" s="250"/>
       <c r="G56" s="251"/>
@@ -16110,12 +16113,12 @@
       <c r="A57" s="259">
         <v>45</v>
       </c>
-      <c r="B57" s="389">
+      <c r="B57" s="395">
         <f>PBJ!B58</f>
         <v>0</v>
       </c>
       <c r="C57" s="406"/>
-      <c r="D57" s="390"/>
+      <c r="D57" s="396"/>
       <c r="E57" s="247"/>
       <c r="F57" s="250"/>
       <c r="G57" s="251"/>
@@ -16129,12 +16132,12 @@
       <c r="A58" s="259">
         <v>46</v>
       </c>
-      <c r="B58" s="389">
+      <c r="B58" s="395">
         <f>PBJ!B59</f>
         <v>0</v>
       </c>
       <c r="C58" s="406"/>
-      <c r="D58" s="390"/>
+      <c r="D58" s="396"/>
       <c r="E58" s="247"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251"/>
@@ -16148,12 +16151,12 @@
       <c r="A59" s="259">
         <v>47</v>
       </c>
-      <c r="B59" s="389">
+      <c r="B59" s="395">
         <f>PBJ!B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="406"/>
-      <c r="D59" s="390"/>
+      <c r="D59" s="396"/>
       <c r="E59" s="247"/>
       <c r="F59" s="250"/>
       <c r="G59" s="251"/>
@@ -16167,12 +16170,12 @@
       <c r="A60" s="259">
         <v>48</v>
       </c>
-      <c r="B60" s="389">
+      <c r="B60" s="395">
         <f>PBJ!B61</f>
         <v>0</v>
       </c>
       <c r="C60" s="406"/>
-      <c r="D60" s="390"/>
+      <c r="D60" s="396"/>
       <c r="E60" s="247"/>
       <c r="F60" s="250"/>
       <c r="G60" s="251"/>
@@ -16186,12 +16189,12 @@
       <c r="A61" s="259">
         <v>49</v>
       </c>
-      <c r="B61" s="389">
+      <c r="B61" s="395">
         <f>PBJ!B62</f>
         <v>0</v>
       </c>
       <c r="C61" s="406"/>
-      <c r="D61" s="390"/>
+      <c r="D61" s="396"/>
       <c r="E61" s="247"/>
       <c r="F61" s="250"/>
       <c r="G61" s="251"/>
@@ -16205,12 +16208,12 @@
       <c r="A62" s="259">
         <v>50</v>
       </c>
-      <c r="B62" s="389">
+      <c r="B62" s="395">
         <f>PBJ!B63</f>
         <v>0</v>
       </c>
       <c r="C62" s="406"/>
-      <c r="D62" s="390"/>
+      <c r="D62" s="396"/>
       <c r="E62" s="247"/>
       <c r="F62" s="250"/>
       <c r="G62" s="251"/>
@@ -16224,12 +16227,12 @@
       <c r="A63" s="259">
         <v>51</v>
       </c>
-      <c r="B63" s="389">
+      <c r="B63" s="395">
         <f>PBJ!B64</f>
         <v>0</v>
       </c>
       <c r="C63" s="406"/>
-      <c r="D63" s="390"/>
+      <c r="D63" s="396"/>
       <c r="E63" s="247"/>
       <c r="F63" s="250"/>
       <c r="G63" s="251"/>
@@ -16243,12 +16246,12 @@
       <c r="A64" s="259">
         <v>52</v>
       </c>
-      <c r="B64" s="389">
+      <c r="B64" s="395">
         <f>PBJ!B65</f>
         <v>0</v>
       </c>
       <c r="C64" s="406"/>
-      <c r="D64" s="390"/>
+      <c r="D64" s="396"/>
       <c r="E64" s="247"/>
       <c r="F64" s="250"/>
       <c r="G64" s="251"/>
@@ -16262,12 +16265,12 @@
       <c r="A65" s="259">
         <v>53</v>
       </c>
-      <c r="B65" s="389">
+      <c r="B65" s="395">
         <f>PBJ!B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="406"/>
-      <c r="D65" s="390"/>
+      <c r="D65" s="396"/>
       <c r="E65" s="247"/>
       <c r="F65" s="250"/>
       <c r="G65" s="251"/>
@@ -16281,12 +16284,12 @@
       <c r="A66" s="259">
         <v>54</v>
       </c>
-      <c r="B66" s="389">
+      <c r="B66" s="395">
         <f>PBJ!B67</f>
         <v>0</v>
       </c>
       <c r="C66" s="406"/>
-      <c r="D66" s="390"/>
+      <c r="D66" s="396"/>
       <c r="E66" s="247"/>
       <c r="F66" s="250"/>
       <c r="G66" s="251"/>
@@ -16300,12 +16303,12 @@
       <c r="A67" s="259">
         <v>55</v>
       </c>
-      <c r="B67" s="389">
+      <c r="B67" s="395">
         <f>PBJ!B68</f>
         <v>0</v>
       </c>
       <c r="C67" s="406"/>
-      <c r="D67" s="390"/>
+      <c r="D67" s="396"/>
       <c r="E67" s="247"/>
       <c r="F67" s="250"/>
       <c r="G67" s="251"/>
@@ -16319,12 +16322,12 @@
       <c r="A68" s="259">
         <v>56</v>
       </c>
-      <c r="B68" s="389">
+      <c r="B68" s="395">
         <f>PBJ!B69</f>
         <v>0</v>
       </c>
       <c r="C68" s="406"/>
-      <c r="D68" s="390"/>
+      <c r="D68" s="396"/>
       <c r="E68" s="247"/>
       <c r="F68" s="250"/>
       <c r="G68" s="251"/>
@@ -16338,12 +16341,12 @@
       <c r="A69" s="259">
         <v>57</v>
       </c>
-      <c r="B69" s="389">
+      <c r="B69" s="395">
         <f>PBJ!B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="406"/>
-      <c r="D69" s="390"/>
+      <c r="D69" s="396"/>
       <c r="E69" s="247"/>
       <c r="F69" s="250"/>
       <c r="G69" s="251"/>
@@ -16357,12 +16360,12 @@
       <c r="A70" s="259">
         <v>58</v>
       </c>
-      <c r="B70" s="389">
+      <c r="B70" s="395">
         <f>PBJ!B71</f>
         <v>0</v>
       </c>
       <c r="C70" s="406"/>
-      <c r="D70" s="390"/>
+      <c r="D70" s="396"/>
       <c r="E70" s="247"/>
       <c r="F70" s="250"/>
       <c r="G70" s="251"/>
@@ -16376,12 +16379,12 @@
       <c r="A71" s="259">
         <v>59</v>
       </c>
-      <c r="B71" s="389">
+      <c r="B71" s="395">
         <f>PBJ!B72</f>
         <v>0</v>
       </c>
       <c r="C71" s="406"/>
-      <c r="D71" s="390"/>
+      <c r="D71" s="396"/>
       <c r="E71" s="247"/>
       <c r="F71" s="250"/>
       <c r="G71" s="251"/>
@@ -16395,12 +16398,12 @@
       <c r="A72" s="259">
         <v>60</v>
       </c>
-      <c r="B72" s="389">
+      <c r="B72" s="395">
         <f>PBJ!B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="406"/>
-      <c r="D72" s="390"/>
+      <c r="D72" s="396"/>
       <c r="E72" s="247"/>
       <c r="F72" s="250"/>
       <c r="G72" s="251"/>
@@ -16414,12 +16417,12 @@
       <c r="A73" s="259">
         <v>61</v>
       </c>
-      <c r="B73" s="389">
+      <c r="B73" s="395">
         <f>PBJ!B74</f>
         <v>0</v>
       </c>
       <c r="C73" s="406"/>
-      <c r="D73" s="390"/>
+      <c r="D73" s="396"/>
       <c r="E73" s="247"/>
       <c r="F73" s="250"/>
       <c r="G73" s="251"/>
@@ -16433,12 +16436,12 @@
       <c r="A74" s="259">
         <v>62</v>
       </c>
-      <c r="B74" s="389">
+      <c r="B74" s="395">
         <f>PBJ!B75</f>
         <v>0</v>
       </c>
       <c r="C74" s="406"/>
-      <c r="D74" s="390"/>
+      <c r="D74" s="396"/>
       <c r="E74" s="247"/>
       <c r="F74" s="250"/>
       <c r="G74" s="251"/>
@@ -16452,12 +16455,12 @@
       <c r="A75" s="259">
         <v>63</v>
       </c>
-      <c r="B75" s="389">
+      <c r="B75" s="395">
         <f>PBJ!B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="406"/>
-      <c r="D75" s="390"/>
+      <c r="D75" s="396"/>
       <c r="E75" s="247"/>
       <c r="F75" s="250"/>
       <c r="G75" s="251"/>
@@ -16471,12 +16474,12 @@
       <c r="A76" s="259">
         <v>64</v>
       </c>
-      <c r="B76" s="389">
+      <c r="B76" s="395">
         <f>PBJ!B77</f>
         <v>0</v>
       </c>
       <c r="C76" s="406"/>
-      <c r="D76" s="390"/>
+      <c r="D76" s="396"/>
       <c r="E76" s="247"/>
       <c r="F76" s="250"/>
       <c r="G76" s="251"/>
@@ -16490,12 +16493,12 @@
       <c r="A77" s="259">
         <v>65</v>
       </c>
-      <c r="B77" s="389">
+      <c r="B77" s="395">
         <f>PBJ!B78</f>
         <v>0</v>
       </c>
       <c r="C77" s="406"/>
-      <c r="D77" s="390"/>
+      <c r="D77" s="396"/>
       <c r="E77" s="247"/>
       <c r="F77" s="250"/>
       <c r="G77" s="251"/>
@@ -16509,12 +16512,12 @@
       <c r="A78" s="259">
         <v>66</v>
       </c>
-      <c r="B78" s="389">
+      <c r="B78" s="395">
         <f>PBJ!B79</f>
         <v>0</v>
       </c>
       <c r="C78" s="406"/>
-      <c r="D78" s="390"/>
+      <c r="D78" s="396"/>
       <c r="E78" s="247"/>
       <c r="F78" s="250"/>
       <c r="G78" s="251"/>
@@ -16528,12 +16531,12 @@
       <c r="A79" s="259">
         <v>67</v>
       </c>
-      <c r="B79" s="389">
+      <c r="B79" s="395">
         <f>PBJ!B80</f>
         <v>0</v>
       </c>
       <c r="C79" s="406"/>
-      <c r="D79" s="390"/>
+      <c r="D79" s="396"/>
       <c r="E79" s="247"/>
       <c r="F79" s="250"/>
       <c r="G79" s="251"/>
@@ -16547,12 +16550,12 @@
       <c r="A80" s="259">
         <v>68</v>
       </c>
-      <c r="B80" s="389">
+      <c r="B80" s="395">
         <f>PBJ!B81</f>
         <v>0</v>
       </c>
       <c r="C80" s="406"/>
-      <c r="D80" s="390"/>
+      <c r="D80" s="396"/>
       <c r="E80" s="247"/>
       <c r="F80" s="250"/>
       <c r="G80" s="251"/>
@@ -16566,12 +16569,12 @@
       <c r="A81" s="259">
         <v>69</v>
       </c>
-      <c r="B81" s="389">
+      <c r="B81" s="395">
         <f>PBJ!B82</f>
         <v>0</v>
       </c>
       <c r="C81" s="406"/>
-      <c r="D81" s="390"/>
+      <c r="D81" s="396"/>
       <c r="E81" s="247"/>
       <c r="F81" s="250"/>
       <c r="G81" s="251"/>
@@ -16585,12 +16588,12 @@
       <c r="A82" s="259">
         <v>70</v>
       </c>
-      <c r="B82" s="389">
+      <c r="B82" s="395">
         <f>PBJ!B83</f>
         <v>0</v>
       </c>
       <c r="C82" s="406"/>
-      <c r="D82" s="390"/>
+      <c r="D82" s="396"/>
       <c r="E82" s="247"/>
       <c r="F82" s="250"/>
       <c r="G82" s="251"/>
@@ -16604,12 +16607,12 @@
       <c r="A83" s="259">
         <v>71</v>
       </c>
-      <c r="B83" s="389">
+      <c r="B83" s="395">
         <f>PBJ!B84</f>
         <v>0</v>
       </c>
       <c r="C83" s="406"/>
-      <c r="D83" s="390"/>
+      <c r="D83" s="396"/>
       <c r="E83" s="247"/>
       <c r="F83" s="250"/>
       <c r="G83" s="251"/>
@@ -16621,9 +16624,9 @@
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1">
       <c r="A84" s="259"/>
-      <c r="B84" s="389"/>
+      <c r="B84" s="395"/>
       <c r="C84" s="406"/>
-      <c r="D84" s="390"/>
+      <c r="D84" s="396"/>
       <c r="E84" s="247"/>
       <c r="F84" s="250"/>
       <c r="G84" s="251"/>
@@ -16635,26 +16638,26 @@
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="206"/>
-      <c r="B85" s="410"/>
-      <c r="C85" s="411"/>
-      <c r="D85" s="412"/>
+      <c r="B85" s="431"/>
+      <c r="C85" s="432"/>
+      <c r="D85" s="433"/>
       <c r="E85" s="207"/>
       <c r="F85" s="207"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
       <c r="J85" s="209"/>
-      <c r="K85" s="427"/>
-      <c r="L85" s="428"/>
+      <c r="K85" s="407"/>
+      <c r="L85" s="408"/>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="407" t="str">
+      <c r="A86" s="434" t="str">
         <f>RFK!A86</f>
         <v>Jumlah</v>
       </c>
-      <c r="B86" s="408"/>
-      <c r="C86" s="408"/>
-      <c r="D86" s="409"/>
+      <c r="B86" s="435"/>
+      <c r="C86" s="435"/>
+      <c r="D86" s="436"/>
       <c r="E86" s="210">
         <f>SUM(E12:E84)</f>
         <v>0</v>
@@ -16851,32 +16854,54 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -16893,54 +16918,32 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.23622047244094499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17057,138 +17060,138 @@
       <c r="A9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="437" t="s">
+      <c r="B9" s="445" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="438"/>
+      <c r="C9" s="446"/>
       <c r="D9" s="104" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="437" t="s">
+      <c r="F9" s="445" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="439"/>
+      <c r="G9" s="447"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="105">
         <v>1</v>
       </c>
-      <c r="B10" s="440">
+      <c r="B10" s="448">
         <v>2</v>
       </c>
-      <c r="C10" s="441"/>
+      <c r="C10" s="449"/>
       <c r="D10" s="106">
         <v>3</v>
       </c>
       <c r="E10" s="106">
         <v>4</v>
       </c>
-      <c r="F10" s="440">
+      <c r="F10" s="448">
         <v>5</v>
       </c>
-      <c r="G10" s="446"/>
+      <c r="G10" s="450"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1" thickTop="1">
       <c r="A11" s="107"/>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="447"/>
-      <c r="G11" s="449"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="453"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="110"/>
-      <c r="B12" s="444"/>
-      <c r="C12" s="445"/>
+      <c r="B12" s="441"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="443"/>
+      <c r="F12" s="439"/>
+      <c r="G12" s="440"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="444"/>
-      <c r="C13" s="445"/>
+      <c r="B13" s="441"/>
+      <c r="C13" s="442"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="443"/>
+      <c r="F13" s="439"/>
+      <c r="G13" s="440"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="113"/>
-      <c r="B14" s="444"/>
-      <c r="C14" s="445"/>
+      <c r="B14" s="441"/>
+      <c r="C14" s="442"/>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="442"/>
-      <c r="G14" s="443"/>
+      <c r="F14" s="439"/>
+      <c r="G14" s="440"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="444"/>
-      <c r="C15" s="445"/>
+      <c r="B15" s="441"/>
+      <c r="C15" s="442"/>
       <c r="D15" s="111"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="442"/>
-      <c r="G15" s="443"/>
+      <c r="F15" s="439"/>
+      <c r="G15" s="440"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="444"/>
-      <c r="C16" s="445"/>
+      <c r="B16" s="441"/>
+      <c r="C16" s="442"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117"/>
-      <c r="F16" s="442"/>
-      <c r="G16" s="443"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="440"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="444"/>
-      <c r="C17" s="445"/>
+      <c r="B17" s="441"/>
+      <c r="C17" s="442"/>
       <c r="D17" s="192"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="442"/>
-      <c r="G17" s="443"/>
+      <c r="F17" s="439"/>
+      <c r="G17" s="440"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="444"/>
-      <c r="C18" s="445"/>
+      <c r="B18" s="441"/>
+      <c r="C18" s="442"/>
       <c r="D18" s="192"/>
       <c r="E18" s="117"/>
-      <c r="F18" s="442"/>
-      <c r="G18" s="443"/>
+      <c r="F18" s="439"/>
+      <c r="G18" s="440"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="444"/>
-      <c r="C19" s="445"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="442"/>
       <c r="D19" s="192"/>
       <c r="E19" s="117"/>
-      <c r="F19" s="442"/>
-      <c r="G19" s="443"/>
+      <c r="F19" s="439"/>
+      <c r="G19" s="440"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="450"/>
-      <c r="C20" s="451"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="438"/>
       <c r="D20" s="120"/>
       <c r="E20" s="121"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="453"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" thickTop="1">
@@ -17281,15 +17284,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
@@ -17305,6 +17299,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.35433070866141703" top="0.62992125984252001" bottom="0.39370078740157499" header="0.35433070866141703" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17384,10 +17387,10 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="394" t="s">
+      <c r="T2" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="395"/>
+      <c r="U2" s="400"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" ht="13" customHeight="1">
@@ -17526,42 +17529,42 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="456" t="s">
+      <c r="T7" s="464" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="456"/>
+      <c r="U7" s="464"/>
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="457"/>
-      <c r="B8" s="457"/>
-      <c r="C8" s="457"/>
-      <c r="D8" s="457"/>
-      <c r="E8" s="457"/>
-      <c r="F8" s="457"/>
-      <c r="G8" s="457"/>
-      <c r="H8" s="457"/>
-      <c r="I8" s="457"/>
-      <c r="J8" s="457"/>
-      <c r="K8" s="457"/>
-      <c r="L8" s="457"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="465"/>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="465"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="465"/>
+      <c r="K8" s="465"/>
+      <c r="L8" s="465"/>
     </row>
     <row r="9" spans="1:22" ht="14" thickBot="1"/>
     <row r="10" spans="1:22" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="458" t="s">
+      <c r="B10" s="466" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="459"/>
+      <c r="C10" s="467"/>
       <c r="D10" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="458" t="s">
+      <c r="E10" s="466" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="459"/>
+      <c r="F10" s="467"/>
       <c r="G10" s="222" t="s">
         <v>141</v>
       </c>
@@ -17586,17 +17589,17 @@
       <c r="A11" s="224">
         <v>1</v>
       </c>
-      <c r="B11" s="454">
+      <c r="B11" s="462">
         <v>2</v>
       </c>
-      <c r="C11" s="455"/>
+      <c r="C11" s="463"/>
       <c r="D11" s="224">
         <v>3</v>
       </c>
-      <c r="E11" s="454">
+      <c r="E11" s="462">
         <v>4</v>
       </c>
-      <c r="F11" s="455"/>
+      <c r="F11" s="463"/>
       <c r="G11" s="224">
         <v>5</v>
       </c>
@@ -17622,8 +17625,8 @@
       <c r="B12" s="228"/>
       <c r="C12" s="229"/>
       <c r="D12" s="227"/>
-      <c r="E12" s="460"/>
-      <c r="F12" s="461"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="455"/>
       <c r="G12" s="227"/>
       <c r="H12" s="227"/>
       <c r="I12" s="227"/>
@@ -17636,8 +17639,8 @@
       <c r="B13" s="214"/>
       <c r="C13" s="248"/>
       <c r="D13" s="231"/>
-      <c r="E13" s="462"/>
-      <c r="F13" s="463"/>
+      <c r="E13" s="456"/>
+      <c r="F13" s="457"/>
       <c r="G13" s="232"/>
       <c r="H13" s="230"/>
       <c r="I13" s="231"/>
@@ -17678,8 +17681,8 @@
       <c r="B16" s="234"/>
       <c r="C16" s="235"/>
       <c r="D16" s="233"/>
-      <c r="E16" s="465"/>
-      <c r="F16" s="466"/>
+      <c r="E16" s="459"/>
+      <c r="F16" s="460"/>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
       <c r="I16" s="233"/>
@@ -17711,9 +17714,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
-      <c r="L18" s="467"/>
+      <c r="J18" s="461"/>
+      <c r="K18" s="461"/>
+      <c r="L18" s="461"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
@@ -17727,12 +17730,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="464" t="str">
+      <c r="J19" s="458" t="str">
         <f>RFK!N88</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
-      <c r="K19" s="464"/>
-      <c r="L19" s="464"/>
+      <c r="K19" s="458"/>
+      <c r="L19" s="458"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
@@ -17788,9 +17791,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="464"/>
-      <c r="K23" s="464"/>
-      <c r="L23" s="464"/>
+      <c r="J23" s="458"/>
+      <c r="K23" s="458"/>
+      <c r="L23" s="458"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -17804,12 +17807,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="464" t="str">
+      <c r="J24" s="458" t="str">
         <f>RFK!N94</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
-      <c r="K24" s="464"/>
-      <c r="L24" s="464"/>
+      <c r="K24" s="458"/>
+      <c r="L24" s="458"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -17823,12 +17826,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="464" t="str">
+      <c r="J25" s="458" t="str">
         <f>[1]INPUT!H9</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
-      <c r="K25" s="464"/>
-      <c r="L25" s="464"/>
+      <c r="K25" s="458"/>
+      <c r="L25" s="458"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -18074,6 +18077,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="J25:L25"/>
@@ -18082,13 +18092,6 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18310,32 +18313,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A1" s="482" t="s">
+      <c r="A1" s="473" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
-      <c r="N1" s="482"/>
-      <c r="O1" s="482"/>
-      <c r="P1" s="482"/>
-      <c r="Q1" s="482"/>
-      <c r="R1" s="482"/>
-      <c r="S1" s="482"/>
-      <c r="T1" s="482"/>
-      <c r="U1" s="482"/>
-      <c r="V1" s="482"/>
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
+      <c r="E1" s="473"/>
+      <c r="F1" s="473"/>
+      <c r="G1" s="473"/>
+      <c r="H1" s="473"/>
+      <c r="I1" s="473"/>
+      <c r="J1" s="473"/>
+      <c r="K1" s="473"/>
+      <c r="L1" s="473"/>
+      <c r="M1" s="473"/>
+      <c r="N1" s="473"/>
+      <c r="O1" s="473"/>
+      <c r="P1" s="473"/>
+      <c r="Q1" s="473"/>
+      <c r="R1" s="473"/>
+      <c r="S1" s="473"/>
+      <c r="T1" s="473"/>
+      <c r="U1" s="473"/>
+      <c r="V1" s="473"/>
       <c r="W1" s="76"/>
-      <c r="X1" s="471" t="s">
+      <c r="X1" s="478" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18363,7 +18366,7 @@
       <c r="U2" s="78"/>
       <c r="V2" s="78"/>
       <c r="W2" s="76"/>
-      <c r="X2" s="471"/>
+      <c r="X2" s="478"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -18392,7 +18395,7 @@
       <c r="U3" s="78"/>
       <c r="V3" s="78"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="471"/>
+      <c r="X3" s="478"/>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -18421,7 +18424,7 @@
       <c r="U4" s="78"/>
       <c r="V4" s="78"/>
       <c r="W4" s="76"/>
-      <c r="X4" s="471"/>
+      <c r="X4" s="478"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
@@ -18450,7 +18453,7 @@
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
       <c r="W5" s="76"/>
-      <c r="X5" s="471"/>
+      <c r="X5" s="478"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -18479,7 +18482,7 @@
       <c r="U6" s="78"/>
       <c r="V6" s="78"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="471"/>
+      <c r="X6" s="478"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -18508,7 +18511,7 @@
       <c r="U7" s="78"/>
       <c r="V7" s="78"/>
       <c r="W7" s="76"/>
-      <c r="X7" s="471"/>
+      <c r="X7" s="478"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="78"/>
@@ -18534,7 +18537,7 @@
       <c r="U8" s="78"/>
       <c r="V8" s="78"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="471"/>
+      <c r="X8" s="478"/>
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="78"/>
@@ -18560,18 +18563,18 @@
       <c r="U9" s="78"/>
       <c r="V9" s="78"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="471"/>
+      <c r="X9" s="478"/>
     </row>
     <row r="10" spans="1:24" s="99" customFormat="1" ht="22" customHeight="1" thickTop="1">
-      <c r="A10" s="472" t="s">
+      <c r="A10" s="479" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="472"/>
-      <c r="C10" s="472"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="472"/>
-      <c r="F10" s="472"/>
-      <c r="G10" s="472"/>
+      <c r="B10" s="479"/>
+      <c r="C10" s="479"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="479"/>
+      <c r="F10" s="479"/>
+      <c r="G10" s="479"/>
       <c r="H10" s="298" t="s">
         <v>83</v>
       </c>
@@ -18618,7 +18621,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="98"/>
-      <c r="X10" s="471"/>
+      <c r="X10" s="478"/>
     </row>
     <row r="11" spans="1:24" ht="17" customHeight="1">
       <c r="A11" s="299">
@@ -39157,13 +39160,13 @@
       </c>
     </row>
     <row r="446" spans="1:24" ht="17" customHeight="1">
-      <c r="A446" s="474"/>
-      <c r="B446" s="475"/>
-      <c r="C446" s="475"/>
-      <c r="D446" s="475"/>
-      <c r="E446" s="475"/>
-      <c r="F446" s="475"/>
-      <c r="G446" s="476"/>
+      <c r="A446" s="481"/>
+      <c r="B446" s="482"/>
+      <c r="C446" s="482"/>
+      <c r="D446" s="482"/>
+      <c r="E446" s="482"/>
+      <c r="F446" s="482"/>
+      <c r="G446" s="483"/>
       <c r="H446" s="304"/>
       <c r="I446" s="301" t="s">
         <v>100</v>
@@ -39191,13 +39194,13 @@
       </c>
     </row>
     <row r="447" spans="1:24" s="84" customFormat="1" ht="17" customHeight="1">
-      <c r="A447" s="477"/>
-      <c r="B447" s="478"/>
-      <c r="C447" s="478"/>
-      <c r="D447" s="478"/>
-      <c r="E447" s="478"/>
-      <c r="F447" s="478"/>
-      <c r="G447" s="479"/>
+      <c r="A447" s="484"/>
+      <c r="B447" s="485"/>
+      <c r="C447" s="485"/>
+      <c r="D447" s="485"/>
+      <c r="E447" s="485"/>
+      <c r="F447" s="485"/>
+      <c r="G447" s="486"/>
       <c r="H447" s="307"/>
       <c r="I447" s="318"/>
       <c r="J447" s="319" t="e">
@@ -39256,13 +39259,13 @@
       <c r="X447" s="289"/>
     </row>
     <row r="448" spans="1:24" ht="17" customHeight="1">
-      <c r="A448" s="473"/>
-      <c r="B448" s="473"/>
-      <c r="C448" s="473"/>
-      <c r="D448" s="473"/>
-      <c r="E448" s="473"/>
-      <c r="F448" s="473"/>
-      <c r="G448" s="473"/>
+      <c r="A448" s="480"/>
+      <c r="B448" s="480"/>
+      <c r="C448" s="480"/>
+      <c r="D448" s="480"/>
+      <c r="E448" s="480"/>
+      <c r="F448" s="480"/>
+      <c r="G448" s="480"/>
       <c r="H448" s="304"/>
       <c r="I448" s="304"/>
       <c r="J448" s="311"/>
@@ -39282,13 +39285,13 @@
       <c r="X448" s="290"/>
     </row>
     <row r="449" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A449" s="486"/>
-      <c r="B449" s="486"/>
-      <c r="C449" s="486"/>
-      <c r="D449" s="486"/>
-      <c r="E449" s="486"/>
-      <c r="F449" s="486"/>
-      <c r="G449" s="486"/>
+      <c r="A449" s="477"/>
+      <c r="B449" s="477"/>
+      <c r="C449" s="477"/>
+      <c r="D449" s="477"/>
+      <c r="E449" s="477"/>
+      <c r="F449" s="477"/>
+      <c r="G449" s="477"/>
       <c r="H449" s="323"/>
       <c r="I449" s="324"/>
       <c r="J449" s="325"/>
@@ -39308,16 +39311,16 @@
       <c r="X449" s="290"/>
     </row>
     <row r="450" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A450" s="483" t="s">
+      <c r="A450" s="474" t="s">
         <v>112</v>
       </c>
-      <c r="B450" s="484"/>
-      <c r="C450" s="484"/>
-      <c r="D450" s="484"/>
-      <c r="E450" s="484"/>
-      <c r="F450" s="484"/>
-      <c r="G450" s="485"/>
-      <c r="H450" s="480">
+      <c r="B450" s="475"/>
+      <c r="C450" s="475"/>
+      <c r="D450" s="475"/>
+      <c r="E450" s="475"/>
+      <c r="F450" s="475"/>
+      <c r="G450" s="476"/>
+      <c r="H450" s="471">
         <f>SUM(H11:H448)</f>
         <v>0</v>
       </c>
@@ -39381,16 +39384,16 @@
       </c>
     </row>
     <row r="451" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A451" s="483" t="s">
+      <c r="A451" s="474" t="s">
         <v>113</v>
       </c>
-      <c r="B451" s="484"/>
-      <c r="C451" s="484"/>
-      <c r="D451" s="484"/>
-      <c r="E451" s="484"/>
-      <c r="F451" s="484"/>
-      <c r="G451" s="485"/>
-      <c r="H451" s="481"/>
+      <c r="B451" s="475"/>
+      <c r="C451" s="475"/>
+      <c r="D451" s="475"/>
+      <c r="E451" s="475"/>
+      <c r="F451" s="475"/>
+      <c r="G451" s="476"/>
+      <c r="H451" s="472"/>
       <c r="I451" s="86"/>
       <c r="J451" s="87" t="e">
         <f t="shared" ref="J451:U451" si="74">SUM(J15,J21,J27,J39,J45,J51,J57,J63,J69,J75,J81,J87,J93,J99,J105,J111,J117,J123,J129,J135,J141,J147,J153,J159,J165,J171,J177,J183,J189,J195)+SUM(J201,J207,J213,J219,J225,J231,J237,J243,J249,J255,J261,J267,J273,J279,J285,J291,J297,J303,J309,J315,J321,J327,J333,J339,J345,J351,J357,J363,J369,J375)+SUM(J381,J387,J393,J399,J405,J411,J417,J423,J429,J435,J441,J447)</f>
@@ -39774,16 +39777,16 @@
     <row r="504" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="X1:X10"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A448:G448"/>
+    <mergeCell ref="A446:G446"/>
+    <mergeCell ref="A447:G447"/>
     <mergeCell ref="H450:H451"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A450:G450"/>
     <mergeCell ref="A449:G449"/>
     <mergeCell ref="A451:G451"/>
-    <mergeCell ref="X1:X10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A448:G448"/>
-    <mergeCell ref="A446:G446"/>
-    <mergeCell ref="A447:G447"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.27559055118110198" top="0.59055118110236204" bottom="0.70866141732283505" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/excel/mei.xlsx
+++ b/public/excel/mei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE534CB5-F153-3642-A1C3-8BE759910CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A61CC-EE98-1042-A070-6FE7C93AD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="940" windowWidth="33600" windowHeight="18840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPENGANTAR" sheetId="12" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
   <si>
     <t>Rp</t>
   </si>
@@ -3617,6 +3617,72 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,77 +3713,20 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3725,6 +3734,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,54 +3764,81 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3803,65 +3860,47 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3869,50 +3908,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3938,24 +3956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3965,6 +3965,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3984,33 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5249,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A66" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5474,81 +5474,81 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="370" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="371"/>
-      <c r="F9" s="383" t="s">
+      <c r="E9" s="367"/>
+      <c r="F9" s="363" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="370"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="371"/>
-      <c r="N9" s="383" t="s">
+      <c r="G9" s="364"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="364"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="370"/>
-      <c r="P9" s="370"/>
-      <c r="Q9" s="370"/>
-      <c r="R9" s="370"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="356"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="377" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="364" t="s">
+      <c r="A10" s="378"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="376" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="386" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="378" t="s">
+      <c r="F10" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="378" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="379"/>
-      <c r="K10" s="380"/>
-      <c r="L10" s="387" t="s">
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="359" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="386" t="s">
+      <c r="M10" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="381" t="s">
+      <c r="N10" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="382"/>
-      <c r="P10" s="381" t="s">
+      <c r="O10" s="362"/>
+      <c r="P10" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="384" t="s">
+      <c r="Q10" s="362"/>
+      <c r="R10" s="365" t="s">
         <v>207</v>
       </c>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" s="33" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="357"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="384"/>
+      <c r="C11" s="385"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
       <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
@@ -5567,8 +5567,8 @@
       <c r="K11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="388"/>
-      <c r="M11" s="365"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="358"/>
       <c r="N11" s="37" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5581,17 @@
       <c r="Q11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="385"/>
+      <c r="R11" s="366"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="368">
+      <c r="B12" s="387">
         <v>2</v>
       </c>
-      <c r="C12" s="369"/>
+      <c r="C12" s="388"/>
       <c r="D12" s="39">
         <v>3</v>
       </c>
@@ -5643,11 +5643,11 @@
       <c r="A13" s="271">
         <v>1</v>
       </c>
-      <c r="B13" s="366">
+      <c r="B13" s="355">
         <f>INPUT!C3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="367"/>
+      <c r="C13" s="356"/>
       <c r="D13" s="272">
         <f>INPUT!D3</f>
         <v>0</v>
@@ -5714,11 +5714,11 @@
       <c r="A14" s="277">
         <v>2</v>
       </c>
-      <c r="B14" s="366">
+      <c r="B14" s="355">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="367"/>
+      <c r="C14" s="356"/>
       <c r="D14" s="272">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -5785,11 +5785,11 @@
       <c r="A15" s="277">
         <v>3</v>
       </c>
-      <c r="B15" s="366">
+      <c r="B15" s="355">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="367"/>
+      <c r="C15" s="356"/>
       <c r="D15" s="272">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -5856,11 +5856,11 @@
       <c r="A16" s="277">
         <v>4</v>
       </c>
-      <c r="B16" s="366">
+      <c r="B16" s="355">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="367"/>
+      <c r="C16" s="356"/>
       <c r="D16" s="272">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -5927,11 +5927,11 @@
       <c r="A17" s="271">
         <v>5</v>
       </c>
-      <c r="B17" s="366">
+      <c r="B17" s="355">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="367"/>
+      <c r="C17" s="356"/>
       <c r="D17" s="272">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -5998,11 +5998,11 @@
       <c r="A18" s="277">
         <v>6</v>
       </c>
-      <c r="B18" s="366">
+      <c r="B18" s="355">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="367"/>
+      <c r="C18" s="356"/>
       <c r="D18" s="272">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -6069,11 +6069,11 @@
       <c r="A19" s="277">
         <v>7</v>
       </c>
-      <c r="B19" s="366">
+      <c r="B19" s="355">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="367"/>
+      <c r="C19" s="356"/>
       <c r="D19" s="272">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -6140,11 +6140,11 @@
       <c r="A20" s="277">
         <v>8</v>
       </c>
-      <c r="B20" s="366">
+      <c r="B20" s="355">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="367"/>
+      <c r="C20" s="356"/>
       <c r="D20" s="272">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -6211,11 +6211,11 @@
       <c r="A21" s="278">
         <v>9</v>
       </c>
-      <c r="B21" s="366">
+      <c r="B21" s="355">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="367"/>
+      <c r="C21" s="356"/>
       <c r="D21" s="272">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -6282,11 +6282,11 @@
       <c r="A22" s="277">
         <v>10</v>
       </c>
-      <c r="B22" s="366">
+      <c r="B22" s="355">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="367"/>
+      <c r="C22" s="356"/>
       <c r="D22" s="272">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -6353,11 +6353,11 @@
       <c r="A23" s="277">
         <v>11</v>
       </c>
-      <c r="B23" s="366">
+      <c r="B23" s="355">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="367"/>
+      <c r="C23" s="356"/>
       <c r="D23" s="272">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -6424,11 +6424,11 @@
       <c r="A24" s="277">
         <v>12</v>
       </c>
-      <c r="B24" s="366">
+      <c r="B24" s="355">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="367"/>
+      <c r="C24" s="356"/>
       <c r="D24" s="272">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -6495,11 +6495,11 @@
       <c r="A25" s="278">
         <v>13</v>
       </c>
-      <c r="B25" s="366">
+      <c r="B25" s="355">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="367"/>
+      <c r="C25" s="356"/>
       <c r="D25" s="272">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -6566,11 +6566,11 @@
       <c r="A26" s="277">
         <v>14</v>
       </c>
-      <c r="B26" s="366">
+      <c r="B26" s="355">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="367"/>
+      <c r="C26" s="356"/>
       <c r="D26" s="272">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -6637,11 +6637,11 @@
       <c r="A27" s="277">
         <v>15</v>
       </c>
-      <c r="B27" s="366">
+      <c r="B27" s="355">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="367"/>
+      <c r="C27" s="356"/>
       <c r="D27" s="272">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -6708,11 +6708,11 @@
       <c r="A28" s="277">
         <v>16</v>
       </c>
-      <c r="B28" s="366">
+      <c r="B28" s="355">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="367"/>
+      <c r="C28" s="356"/>
       <c r="D28" s="272">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -6779,11 +6779,11 @@
       <c r="A29" s="278">
         <v>17</v>
       </c>
-      <c r="B29" s="366">
+      <c r="B29" s="355">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="367"/>
+      <c r="C29" s="356"/>
       <c r="D29" s="272">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -6850,11 +6850,11 @@
       <c r="A30" s="277">
         <v>18</v>
       </c>
-      <c r="B30" s="366">
+      <c r="B30" s="355">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="367"/>
+      <c r="C30" s="356"/>
       <c r="D30" s="272">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -6921,11 +6921,11 @@
       <c r="A31" s="277">
         <v>19</v>
       </c>
-      <c r="B31" s="366">
+      <c r="B31" s="355">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="367"/>
+      <c r="C31" s="356"/>
       <c r="D31" s="272">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -6992,11 +6992,11 @@
       <c r="A32" s="277">
         <v>20</v>
       </c>
-      <c r="B32" s="366">
+      <c r="B32" s="355">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="367"/>
+      <c r="C32" s="356"/>
       <c r="D32" s="272">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -7063,11 +7063,11 @@
       <c r="A33" s="278">
         <v>21</v>
       </c>
-      <c r="B33" s="366">
+      <c r="B33" s="355">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="367"/>
+      <c r="C33" s="356"/>
       <c r="D33" s="272">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -7134,11 +7134,11 @@
       <c r="A34" s="277">
         <v>22</v>
       </c>
-      <c r="B34" s="366">
+      <c r="B34" s="355">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="367"/>
+      <c r="C34" s="356"/>
       <c r="D34" s="272">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -7205,11 +7205,11 @@
       <c r="A35" s="277">
         <v>23</v>
       </c>
-      <c r="B35" s="366">
+      <c r="B35" s="355">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="367"/>
+      <c r="C35" s="356"/>
       <c r="D35" s="272">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -7276,11 +7276,11 @@
       <c r="A36" s="277">
         <v>24</v>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="355">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="367"/>
+      <c r="C36" s="356"/>
       <c r="D36" s="272">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -7347,11 +7347,11 @@
       <c r="A37" s="42">
         <v>25</v>
       </c>
-      <c r="B37" s="366">
+      <c r="B37" s="355">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="367"/>
+      <c r="C37" s="356"/>
       <c r="D37" s="272">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -7418,11 +7418,11 @@
       <c r="A38" s="42">
         <v>26</v>
       </c>
-      <c r="B38" s="366">
+      <c r="B38" s="355">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C38" s="367"/>
+      <c r="C38" s="356"/>
       <c r="D38" s="272">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -7489,11 +7489,11 @@
       <c r="A39" s="42">
         <v>27</v>
       </c>
-      <c r="B39" s="366">
+      <c r="B39" s="355">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C39" s="367"/>
+      <c r="C39" s="356"/>
       <c r="D39" s="272">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -7560,11 +7560,11 @@
       <c r="A40" s="42">
         <v>28</v>
       </c>
-      <c r="B40" s="366">
+      <c r="B40" s="355">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C40" s="367"/>
+      <c r="C40" s="356"/>
       <c r="D40" s="272">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -7631,11 +7631,11 @@
       <c r="A41" s="42">
         <v>29</v>
       </c>
-      <c r="B41" s="366">
+      <c r="B41" s="355">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C41" s="367"/>
+      <c r="C41" s="356"/>
       <c r="D41" s="272">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -7702,11 +7702,11 @@
       <c r="A42" s="42">
         <v>30</v>
       </c>
-      <c r="B42" s="366">
+      <c r="B42" s="355">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="367"/>
+      <c r="C42" s="356"/>
       <c r="D42" s="272">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -7773,11 +7773,11 @@
       <c r="A43" s="42">
         <v>31</v>
       </c>
-      <c r="B43" s="366">
+      <c r="B43" s="355">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C43" s="367"/>
+      <c r="C43" s="356"/>
       <c r="D43" s="272">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -7844,11 +7844,11 @@
       <c r="A44" s="42">
         <v>32</v>
       </c>
-      <c r="B44" s="366">
+      <c r="B44" s="355">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C44" s="367"/>
+      <c r="C44" s="356"/>
       <c r="D44" s="272">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -7915,11 +7915,11 @@
       <c r="A45" s="42">
         <v>33</v>
       </c>
-      <c r="B45" s="366">
+      <c r="B45" s="355">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="367"/>
+      <c r="C45" s="356"/>
       <c r="D45" s="272">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -7986,11 +7986,11 @@
       <c r="A46" s="42">
         <v>34</v>
       </c>
-      <c r="B46" s="366">
+      <c r="B46" s="355">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C46" s="367"/>
+      <c r="C46" s="356"/>
       <c r="D46" s="272">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -8057,11 +8057,11 @@
       <c r="A47" s="42">
         <v>35</v>
       </c>
-      <c r="B47" s="366">
+      <c r="B47" s="355">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C47" s="367"/>
+      <c r="C47" s="356"/>
       <c r="D47" s="272">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -8128,11 +8128,11 @@
       <c r="A48" s="42">
         <v>36</v>
       </c>
-      <c r="B48" s="366">
+      <c r="B48" s="355">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C48" s="367"/>
+      <c r="C48" s="356"/>
       <c r="D48" s="272">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -8199,11 +8199,11 @@
       <c r="A49" s="42">
         <v>37</v>
       </c>
-      <c r="B49" s="366">
+      <c r="B49" s="355">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="367"/>
+      <c r="C49" s="356"/>
       <c r="D49" s="272">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -8270,11 +8270,11 @@
       <c r="A50" s="42">
         <v>38</v>
       </c>
-      <c r="B50" s="366">
+      <c r="B50" s="355">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C50" s="367"/>
+      <c r="C50" s="356"/>
       <c r="D50" s="272">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -8341,11 +8341,11 @@
       <c r="A51" s="42">
         <v>39</v>
       </c>
-      <c r="B51" s="366">
+      <c r="B51" s="355">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C51" s="367"/>
+      <c r="C51" s="356"/>
       <c r="D51" s="272">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -8412,11 +8412,11 @@
       <c r="A52" s="42">
         <v>40</v>
       </c>
-      <c r="B52" s="366">
+      <c r="B52" s="355">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C52" s="367"/>
+      <c r="C52" s="356"/>
       <c r="D52" s="272">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -8483,11 +8483,11 @@
       <c r="A53" s="42">
         <v>41</v>
       </c>
-      <c r="B53" s="366">
+      <c r="B53" s="355">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C53" s="367"/>
+      <c r="C53" s="356"/>
       <c r="D53" s="272">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -8554,11 +8554,11 @@
       <c r="A54" s="42">
         <v>42</v>
       </c>
-      <c r="B54" s="366">
+      <c r="B54" s="355">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C54" s="367"/>
+      <c r="C54" s="356"/>
       <c r="D54" s="272">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -8625,11 +8625,11 @@
       <c r="A55" s="42">
         <v>43</v>
       </c>
-      <c r="B55" s="366">
+      <c r="B55" s="355">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C55" s="367"/>
+      <c r="C55" s="356"/>
       <c r="D55" s="272">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -8696,11 +8696,11 @@
       <c r="A56" s="42">
         <v>44</v>
       </c>
-      <c r="B56" s="366">
+      <c r="B56" s="355">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="367"/>
+      <c r="C56" s="356"/>
       <c r="D56" s="272">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -8767,11 +8767,11 @@
       <c r="A57" s="42">
         <v>45</v>
       </c>
-      <c r="B57" s="366">
+      <c r="B57" s="355">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C57" s="367"/>
+      <c r="C57" s="356"/>
       <c r="D57" s="272">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -8838,11 +8838,11 @@
       <c r="A58" s="42">
         <v>46</v>
       </c>
-      <c r="B58" s="366">
+      <c r="B58" s="355">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C58" s="367"/>
+      <c r="C58" s="356"/>
       <c r="D58" s="272">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -8909,11 +8909,11 @@
       <c r="A59" s="42">
         <v>47</v>
       </c>
-      <c r="B59" s="366">
+      <c r="B59" s="355">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C59" s="367"/>
+      <c r="C59" s="356"/>
       <c r="D59" s="272">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -8980,11 +8980,11 @@
       <c r="A60" s="42">
         <v>48</v>
       </c>
-      <c r="B60" s="366">
+      <c r="B60" s="355">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C60" s="367"/>
+      <c r="C60" s="356"/>
       <c r="D60" s="272">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -9051,11 +9051,11 @@
       <c r="A61" s="42">
         <v>49</v>
       </c>
-      <c r="B61" s="366">
+      <c r="B61" s="355">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C61" s="367"/>
+      <c r="C61" s="356"/>
       <c r="D61" s="272">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -9122,11 +9122,11 @@
       <c r="A62" s="42">
         <v>50</v>
       </c>
-      <c r="B62" s="366">
+      <c r="B62" s="355">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C62" s="367"/>
+      <c r="C62" s="356"/>
       <c r="D62" s="272">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -9193,11 +9193,11 @@
       <c r="A63" s="42">
         <v>51</v>
       </c>
-      <c r="B63" s="366">
+      <c r="B63" s="355">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C63" s="367"/>
+      <c r="C63" s="356"/>
       <c r="D63" s="272">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -9264,11 +9264,11 @@
       <c r="A64" s="42">
         <v>52</v>
       </c>
-      <c r="B64" s="366">
+      <c r="B64" s="355">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C64" s="367"/>
+      <c r="C64" s="356"/>
       <c r="D64" s="272">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -9335,11 +9335,11 @@
       <c r="A65" s="42">
         <v>53</v>
       </c>
-      <c r="B65" s="366">
+      <c r="B65" s="355">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C65" s="367"/>
+      <c r="C65" s="356"/>
       <c r="D65" s="272">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -9406,11 +9406,11 @@
       <c r="A66" s="42">
         <v>54</v>
       </c>
-      <c r="B66" s="366">
+      <c r="B66" s="355">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C66" s="367"/>
+      <c r="C66" s="356"/>
       <c r="D66" s="272">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -9477,11 +9477,11 @@
       <c r="A67" s="42">
         <v>55</v>
       </c>
-      <c r="B67" s="366">
+      <c r="B67" s="355">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C67" s="367"/>
+      <c r="C67" s="356"/>
       <c r="D67" s="272">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -9548,11 +9548,11 @@
       <c r="A68" s="42">
         <v>56</v>
       </c>
-      <c r="B68" s="366">
+      <c r="B68" s="355">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C68" s="367"/>
+      <c r="C68" s="356"/>
       <c r="D68" s="272">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -9619,11 +9619,11 @@
       <c r="A69" s="42">
         <v>57</v>
       </c>
-      <c r="B69" s="366">
+      <c r="B69" s="355">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C69" s="367"/>
+      <c r="C69" s="356"/>
       <c r="D69" s="272">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -9690,11 +9690,11 @@
       <c r="A70" s="42">
         <v>58</v>
       </c>
-      <c r="B70" s="366">
+      <c r="B70" s="355">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C70" s="367"/>
+      <c r="C70" s="356"/>
       <c r="D70" s="272">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -9761,11 +9761,11 @@
       <c r="A71" s="42">
         <v>59</v>
       </c>
-      <c r="B71" s="366">
+      <c r="B71" s="355">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C71" s="367"/>
+      <c r="C71" s="356"/>
       <c r="D71" s="272">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -9832,11 +9832,11 @@
       <c r="A72" s="42">
         <v>60</v>
       </c>
-      <c r="B72" s="366">
+      <c r="B72" s="355">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C72" s="367"/>
+      <c r="C72" s="356"/>
       <c r="D72" s="272">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -9903,11 +9903,11 @@
       <c r="A73" s="42">
         <v>61</v>
       </c>
-      <c r="B73" s="366">
+      <c r="B73" s="355">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C73" s="367"/>
+      <c r="C73" s="356"/>
       <c r="D73" s="272">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -9974,11 +9974,11 @@
       <c r="A74" s="42">
         <v>62</v>
       </c>
-      <c r="B74" s="366">
+      <c r="B74" s="355">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C74" s="367"/>
+      <c r="C74" s="356"/>
       <c r="D74" s="272">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -10045,11 +10045,11 @@
       <c r="A75" s="42">
         <v>63</v>
       </c>
-      <c r="B75" s="366">
+      <c r="B75" s="355">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C75" s="367"/>
+      <c r="C75" s="356"/>
       <c r="D75" s="272">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -10116,11 +10116,11 @@
       <c r="A76" s="42">
         <v>64</v>
       </c>
-      <c r="B76" s="366">
+      <c r="B76" s="355">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C76" s="367"/>
+      <c r="C76" s="356"/>
       <c r="D76" s="272">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -10187,11 +10187,11 @@
       <c r="A77" s="42">
         <v>65</v>
       </c>
-      <c r="B77" s="366">
+      <c r="B77" s="355">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C77" s="367"/>
+      <c r="C77" s="356"/>
       <c r="D77" s="272">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -10258,11 +10258,11 @@
       <c r="A78" s="42">
         <v>66</v>
       </c>
-      <c r="B78" s="366">
+      <c r="B78" s="355">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C78" s="367"/>
+      <c r="C78" s="356"/>
       <c r="D78" s="272">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -10329,11 +10329,11 @@
       <c r="A79" s="42">
         <v>67</v>
       </c>
-      <c r="B79" s="366">
+      <c r="B79" s="355">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C79" s="367"/>
+      <c r="C79" s="356"/>
       <c r="D79" s="272">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -10400,11 +10400,11 @@
       <c r="A80" s="42">
         <v>68</v>
       </c>
-      <c r="B80" s="366">
+      <c r="B80" s="355">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C80" s="367"/>
+      <c r="C80" s="356"/>
       <c r="D80" s="272">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -10471,11 +10471,11 @@
       <c r="A81" s="42">
         <v>69</v>
       </c>
-      <c r="B81" s="366">
+      <c r="B81" s="355">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C81" s="367"/>
+      <c r="C81" s="356"/>
       <c r="D81" s="272">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -10542,11 +10542,11 @@
       <c r="A82" s="42">
         <v>70</v>
       </c>
-      <c r="B82" s="366">
+      <c r="B82" s="355">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C82" s="367"/>
+      <c r="C82" s="356"/>
       <c r="D82" s="272">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -10613,11 +10613,11 @@
       <c r="A83" s="42">
         <v>71</v>
       </c>
-      <c r="B83" s="366">
+      <c r="B83" s="355">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C83" s="367"/>
+      <c r="C83" s="356"/>
       <c r="D83" s="272">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -10684,11 +10684,11 @@
       <c r="A84" s="42">
         <v>72</v>
       </c>
-      <c r="B84" s="366">
+      <c r="B84" s="355">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C84" s="367"/>
+      <c r="C84" s="356"/>
       <c r="D84" s="272">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -10753,8 +10753,8 @@
     </row>
     <row r="85" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="190"/>
-      <c r="B85" s="375"/>
-      <c r="C85" s="376"/>
+      <c r="B85" s="374"/>
+      <c r="C85" s="375"/>
       <c r="D85" s="48"/>
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
@@ -10773,11 +10773,11 @@
       <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" s="33" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="372" t="s">
+      <c r="A86" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="373"/>
-      <c r="C86" s="374"/>
+      <c r="B86" s="372"/>
+      <c r="C86" s="373"/>
       <c r="D86" s="55">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -10897,8 +10897,9 @@
     </row>
     <row r="90" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
       <c r="A90" s="26"/>
-      <c r="B90" s="26" t="s">
-        <v>133</v>
+      <c r="B90" s="26" t="str">
+        <f>CONCATENATE("Kepala Bidang ",INPUT!H9)</f>
+        <v>Kepala Bidang Pembinaan SD</v>
       </c>
       <c r="C90" s="26"/>
       <c r="E90" s="28"/>
@@ -11238,73 +11239,12 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D10:D11"/>
@@ -11321,12 +11261,73 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496063" top="0.78740157480314998" bottom="0.39370078740157499" header="0.31496062992126" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11399,10 +11400,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="399" t="s">
+      <c r="S2" s="394" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="400"/>
+      <c r="T2" s="395"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -11560,51 +11561,51 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="394" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="391" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="394" t="s">
+      <c r="E9" s="391" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="404" t="s">
+      <c r="F9" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="404"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="404" t="s">
+      <c r="G9" s="399"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="404"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="401" t="s">
+      <c r="J9" s="399"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="396" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="402"/>
-      <c r="N9" s="403"/>
-      <c r="O9" s="401" t="s">
+      <c r="M9" s="397"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="396" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="402"/>
-      <c r="Q9" s="403"/>
-      <c r="R9" s="383" t="s">
+      <c r="P9" s="397"/>
+      <c r="Q9" s="398"/>
+      <c r="R9" s="363" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="370"/>
-      <c r="T9" s="405"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="400"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="357"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="385"/>
+      <c r="D10" s="358"/>
+      <c r="E10" s="358"/>
       <c r="F10" s="131" t="s">
         <v>44</v>
       </c>
@@ -11655,10 +11656,10 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="397">
+      <c r="B11" s="404">
         <v>2</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="134">
         <v>3</v>
       </c>
@@ -11737,11 +11738,11 @@
       <c r="A13" s="256">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C13" s="396"/>
+      <c r="C13" s="390"/>
       <c r="D13" s="213">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -11776,11 +11777,11 @@
       <c r="A14" s="256">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="396"/>
+      <c r="C14" s="390"/>
       <c r="D14" s="213">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -11815,11 +11816,11 @@
       <c r="A15" s="256">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C15" s="396"/>
+      <c r="C15" s="390"/>
       <c r="D15" s="213">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -11854,11 +11855,11 @@
       <c r="A16" s="256">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C16" s="396"/>
+      <c r="C16" s="390"/>
       <c r="D16" s="245">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -11893,11 +11894,11 @@
       <c r="A17" s="256">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="396"/>
+      <c r="C17" s="390"/>
       <c r="D17" s="245">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -11932,11 +11933,11 @@
       <c r="A18" s="256">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="396"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="245">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -11971,11 +11972,11 @@
       <c r="A19" s="256">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="396"/>
+      <c r="C19" s="390"/>
       <c r="D19" s="245">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -12010,11 +12011,11 @@
       <c r="A20" s="256">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C20" s="396"/>
+      <c r="C20" s="390"/>
       <c r="D20" s="245">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -12049,11 +12050,11 @@
       <c r="A21" s="256">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C21" s="396"/>
+      <c r="C21" s="390"/>
       <c r="D21" s="245">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -12088,11 +12089,11 @@
       <c r="A22" s="256">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C22" s="396"/>
+      <c r="C22" s="390"/>
       <c r="D22" s="245">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -12127,11 +12128,11 @@
       <c r="A23" s="256">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C23" s="396"/>
+      <c r="C23" s="390"/>
       <c r="D23" s="245">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -12166,11 +12167,11 @@
       <c r="A24" s="256">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="396"/>
+      <c r="C24" s="390"/>
       <c r="D24" s="245">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -12205,11 +12206,11 @@
       <c r="A25" s="256">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C25" s="396"/>
+      <c r="C25" s="390"/>
       <c r="D25" s="245">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -12244,11 +12245,11 @@
       <c r="A26" s="256">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C26" s="396"/>
+      <c r="C26" s="390"/>
       <c r="D26" s="245">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -12283,11 +12284,11 @@
       <c r="A27" s="256">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C27" s="396"/>
+      <c r="C27" s="390"/>
       <c r="D27" s="245">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -12322,11 +12323,11 @@
       <c r="A28" s="256">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C28" s="396"/>
+      <c r="C28" s="390"/>
       <c r="D28" s="245">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -12361,11 +12362,11 @@
       <c r="A29" s="256">
         <v>17</v>
       </c>
-      <c r="B29" s="389">
+      <c r="B29" s="392">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C29" s="390"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="245">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -12400,11 +12401,11 @@
       <c r="A30" s="256">
         <v>18</v>
       </c>
-      <c r="B30" s="389">
+      <c r="B30" s="392">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C30" s="390"/>
+      <c r="C30" s="393"/>
       <c r="D30" s="245">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -12439,11 +12440,11 @@
       <c r="A31" s="256">
         <v>19</v>
       </c>
-      <c r="B31" s="389">
+      <c r="B31" s="392">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C31" s="390"/>
+      <c r="C31" s="393"/>
       <c r="D31" s="245">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -12478,11 +12479,11 @@
       <c r="A32" s="256">
         <v>20</v>
       </c>
-      <c r="B32" s="389">
+      <c r="B32" s="392">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C32" s="390"/>
+      <c r="C32" s="393"/>
       <c r="D32" s="245">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -12517,11 +12518,11 @@
       <c r="A33" s="256">
         <v>21</v>
       </c>
-      <c r="B33" s="389">
+      <c r="B33" s="392">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C33" s="390"/>
+      <c r="C33" s="393"/>
       <c r="D33" s="245">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -12556,11 +12557,11 @@
       <c r="A34" s="256">
         <v>22</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="392">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C34" s="390"/>
+      <c r="C34" s="393"/>
       <c r="D34" s="245">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -12595,11 +12596,11 @@
       <c r="A35" s="256">
         <v>23</v>
       </c>
-      <c r="B35" s="389">
+      <c r="B35" s="392">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C35" s="390"/>
+      <c r="C35" s="393"/>
       <c r="D35" s="245">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -12634,11 +12635,11 @@
       <c r="A36" s="256">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C36" s="396"/>
+      <c r="C36" s="390"/>
       <c r="D36" s="245">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -12673,11 +12674,11 @@
       <c r="A37" s="256">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C37" s="396"/>
+      <c r="C37" s="390"/>
       <c r="D37" s="245">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -12712,11 +12713,11 @@
       <c r="A38" s="256">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="396"/>
+      <c r="C38" s="390"/>
       <c r="D38" s="245">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -12751,11 +12752,11 @@
       <c r="A39" s="256">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="396"/>
+      <c r="C39" s="390"/>
       <c r="D39" s="245">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -12790,11 +12791,11 @@
       <c r="A40" s="256">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C40" s="396"/>
+      <c r="C40" s="390"/>
       <c r="D40" s="245">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -12829,11 +12830,11 @@
       <c r="A41" s="256">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="396"/>
+      <c r="C41" s="390"/>
       <c r="D41" s="245">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -12868,11 +12869,11 @@
       <c r="A42" s="256">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C42" s="396"/>
+      <c r="C42" s="390"/>
       <c r="D42" s="245">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -12907,11 +12908,11 @@
       <c r="A43" s="256">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="396"/>
+      <c r="C43" s="390"/>
       <c r="D43" s="245">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -12946,11 +12947,11 @@
       <c r="A44" s="256">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C44" s="396"/>
+      <c r="C44" s="390"/>
       <c r="D44" s="245">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -12985,11 +12986,11 @@
       <c r="A45" s="256">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C45" s="396"/>
+      <c r="C45" s="390"/>
       <c r="D45" s="245">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -13024,11 +13025,11 @@
       <c r="A46" s="256">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C46" s="396"/>
+      <c r="C46" s="390"/>
       <c r="D46" s="245">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -13063,11 +13064,11 @@
       <c r="A47" s="256">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C47" s="396"/>
+      <c r="C47" s="390"/>
       <c r="D47" s="245">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -13102,11 +13103,11 @@
       <c r="A48" s="256">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C48" s="396"/>
+      <c r="C48" s="390"/>
       <c r="D48" s="245">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -13141,11 +13142,11 @@
       <c r="A49" s="256">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C49" s="396"/>
+      <c r="C49" s="390"/>
       <c r="D49" s="245">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -13180,11 +13181,11 @@
       <c r="A50" s="256">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C50" s="396"/>
+      <c r="C50" s="390"/>
       <c r="D50" s="245">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -13219,11 +13220,11 @@
       <c r="A51" s="256">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C51" s="396"/>
+      <c r="C51" s="390"/>
       <c r="D51" s="245">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -13258,11 +13259,11 @@
       <c r="A52" s="256">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="396"/>
+      <c r="C52" s="390"/>
       <c r="D52" s="245">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -13297,11 +13298,11 @@
       <c r="A53" s="256">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C53" s="396"/>
+      <c r="C53" s="390"/>
       <c r="D53" s="245">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -13336,11 +13337,11 @@
       <c r="A54" s="256">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C54" s="396"/>
+      <c r="C54" s="390"/>
       <c r="D54" s="245">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -13375,11 +13376,11 @@
       <c r="A55" s="256">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C55" s="396"/>
+      <c r="C55" s="390"/>
       <c r="D55" s="245">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -13414,11 +13415,11 @@
       <c r="A56" s="256">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C56" s="396"/>
+      <c r="C56" s="390"/>
       <c r="D56" s="245">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -13453,11 +13454,11 @@
       <c r="A57" s="256">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="396"/>
+      <c r="C57" s="390"/>
       <c r="D57" s="245">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -13492,11 +13493,11 @@
       <c r="A58" s="256">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C58" s="396"/>
+      <c r="C58" s="390"/>
       <c r="D58" s="245">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -13531,11 +13532,11 @@
       <c r="A59" s="256">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C59" s="396"/>
+      <c r="C59" s="390"/>
       <c r="D59" s="245">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -13570,11 +13571,11 @@
       <c r="A60" s="256">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C60" s="396"/>
+      <c r="C60" s="390"/>
       <c r="D60" s="245">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -13609,11 +13610,11 @@
       <c r="A61" s="256">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C61" s="396"/>
+      <c r="C61" s="390"/>
       <c r="D61" s="245">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -13648,11 +13649,11 @@
       <c r="A62" s="256">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C62" s="396"/>
+      <c r="C62" s="390"/>
       <c r="D62" s="245">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -13687,11 +13688,11 @@
       <c r="A63" s="256">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C63" s="396"/>
+      <c r="C63" s="390"/>
       <c r="D63" s="245">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -13726,11 +13727,11 @@
       <c r="A64" s="256">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C64" s="396"/>
+      <c r="C64" s="390"/>
       <c r="D64" s="245">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -13765,11 +13766,11 @@
       <c r="A65" s="256">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C65" s="396"/>
+      <c r="C65" s="390"/>
       <c r="D65" s="245">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -13804,11 +13805,11 @@
       <c r="A66" s="256">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C66" s="396"/>
+      <c r="C66" s="390"/>
       <c r="D66" s="245">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -13843,11 +13844,11 @@
       <c r="A67" s="256">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C67" s="396"/>
+      <c r="C67" s="390"/>
       <c r="D67" s="245">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -13882,11 +13883,11 @@
       <c r="A68" s="256">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C68" s="396"/>
+      <c r="C68" s="390"/>
       <c r="D68" s="245">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -13921,11 +13922,11 @@
       <c r="A69" s="256">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C69" s="396"/>
+      <c r="C69" s="390"/>
       <c r="D69" s="245">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -13960,11 +13961,11 @@
       <c r="A70" s="256">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C70" s="396"/>
+      <c r="C70" s="390"/>
       <c r="D70" s="245">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -13999,11 +14000,11 @@
       <c r="A71" s="256">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C71" s="396"/>
+      <c r="C71" s="390"/>
       <c r="D71" s="245">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -14038,11 +14039,11 @@
       <c r="A72" s="256">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C72" s="396"/>
+      <c r="C72" s="390"/>
       <c r="D72" s="245">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -14077,11 +14078,11 @@
       <c r="A73" s="256">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C73" s="396"/>
+      <c r="C73" s="390"/>
       <c r="D73" s="245">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -14116,11 +14117,11 @@
       <c r="A74" s="256">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C74" s="396"/>
+      <c r="C74" s="390"/>
       <c r="D74" s="245">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -14155,11 +14156,11 @@
       <c r="A75" s="256">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C75" s="396"/>
+      <c r="C75" s="390"/>
       <c r="D75" s="245">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -14194,11 +14195,11 @@
       <c r="A76" s="256">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C76" s="396"/>
+      <c r="C76" s="390"/>
       <c r="D76" s="245">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -14233,11 +14234,11 @@
       <c r="A77" s="256">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C77" s="396"/>
+      <c r="C77" s="390"/>
       <c r="D77" s="245">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -14272,11 +14273,11 @@
       <c r="A78" s="256">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C78" s="396"/>
+      <c r="C78" s="390"/>
       <c r="D78" s="245">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -14311,11 +14312,11 @@
       <c r="A79" s="256">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C79" s="396"/>
+      <c r="C79" s="390"/>
       <c r="D79" s="245">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -14350,11 +14351,11 @@
       <c r="A80" s="256">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="396"/>
+      <c r="C80" s="390"/>
       <c r="D80" s="245">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -14389,11 +14390,11 @@
       <c r="A81" s="256">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C81" s="396"/>
+      <c r="C81" s="390"/>
       <c r="D81" s="245">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -14428,11 +14429,11 @@
       <c r="A82" s="256">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C82" s="396"/>
+      <c r="C82" s="390"/>
       <c r="D82" s="245">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -14467,11 +14468,11 @@
       <c r="A83" s="256">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C83" s="396"/>
+      <c r="C83" s="390"/>
       <c r="D83" s="245">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -14506,11 +14507,11 @@
       <c r="A84" s="256">
         <v>72</v>
       </c>
-      <c r="B84" s="395">
+      <c r="B84" s="389">
         <f>INPUT!C75</f>
         <v>0</v>
       </c>
-      <c r="C84" s="396"/>
+      <c r="C84" s="390"/>
       <c r="D84" s="245">
         <f>INPUT!D75</f>
         <v>0</v>
@@ -14586,11 +14587,11 @@
       <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="391" t="s">
+      <c r="A87" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="392"/>
-      <c r="C87" s="393"/>
+      <c r="B87" s="402"/>
+      <c r="C87" s="403"/>
       <c r="D87" s="147">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -14912,47 +14913,33 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -14969,33 +14956,47 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.15748031496063" top="0.74803149606299202" bottom="0.39370078740157499" header="0.31496062992126" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15109,53 +15110,53 @@
       <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A9" s="419" t="s">
+      <c r="A9" s="413" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="421" t="s">
+      <c r="B9" s="415" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="422"/>
-      <c r="D9" s="423"/>
-      <c r="E9" s="394" t="s">
+      <c r="C9" s="416"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="394" t="s">
+      <c r="F9" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="394" t="s">
+      <c r="G9" s="391" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="394" t="s">
+      <c r="H9" s="391" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="394" t="s">
+      <c r="I9" s="391" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="394" t="s">
+      <c r="J9" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="411" t="s">
+      <c r="K9" s="430" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="412"/>
+      <c r="L9" s="431"/>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="420"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="425"/>
-      <c r="D10" s="426"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
-      <c r="G10" s="365"/>
-      <c r="H10" s="365"/>
-      <c r="I10" s="365"/>
-      <c r="J10" s="365"/>
-      <c r="K10" s="413"/>
-      <c r="L10" s="414"/>
+      <c r="A10" s="414"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="419"/>
+      <c r="D10" s="420"/>
+      <c r="E10" s="358"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="433"/>
       <c r="O10" s="7" t="s">
         <v>25</v>
       </c>
@@ -15164,11 +15165,11 @@
       <c r="A11" s="199">
         <v>1</v>
       </c>
-      <c r="B11" s="409">
+      <c r="B11" s="421">
         <v>2</v>
       </c>
-      <c r="C11" s="427"/>
-      <c r="D11" s="428"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="200">
         <v>3</v>
       </c>
@@ -15185,35 +15186,35 @@
       <c r="J11" s="201">
         <v>7</v>
       </c>
-      <c r="K11" s="409">
+      <c r="K11" s="421">
         <v>8</v>
       </c>
-      <c r="L11" s="410"/>
+      <c r="L11" s="429"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickTop="1">
       <c r="A12" s="202"/>
-      <c r="B12" s="417"/>
-      <c r="C12" s="429"/>
-      <c r="D12" s="430"/>
+      <c r="B12" s="424"/>
+      <c r="C12" s="425"/>
+      <c r="D12" s="426"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="417"/>
-      <c r="L12" s="418"/>
+      <c r="K12" s="424"/>
+      <c r="L12" s="436"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1">
       <c r="A13" s="259">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>PBJ!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="406"/>
-      <c r="D13" s="396"/>
+      <c r="D13" s="390"/>
       <c r="E13" s="247">
         <f>PBJ!D13</f>
         <v>0</v>
@@ -15230,12 +15231,12 @@
       <c r="A14" s="259">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>PBJ!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="406"/>
-      <c r="D14" s="396"/>
+      <c r="D14" s="390"/>
       <c r="E14" s="247">
         <f>PBJ!D14</f>
         <v>0</v>
@@ -15252,12 +15253,12 @@
       <c r="A15" s="259">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>PBJ!B16</f>
         <v>0</v>
       </c>
       <c r="C15" s="406"/>
-      <c r="D15" s="396"/>
+      <c r="D15" s="390"/>
       <c r="E15" s="247">
         <f>PBJ!D16</f>
         <v>0</v>
@@ -15267,19 +15268,19 @@
       <c r="H15" s="251"/>
       <c r="I15" s="251"/>
       <c r="J15" s="258"/>
-      <c r="K15" s="415"/>
-      <c r="L15" s="416"/>
+      <c r="K15" s="434"/>
+      <c r="L15" s="435"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
       <c r="A16" s="259">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>PBJ!B17</f>
         <v>0</v>
       </c>
       <c r="C16" s="406"/>
-      <c r="D16" s="396"/>
+      <c r="D16" s="390"/>
       <c r="E16" s="247">
         <f>PBJ!D17</f>
         <v>0</v>
@@ -15289,19 +15290,19 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="258"/>
-      <c r="K16" s="415"/>
-      <c r="L16" s="416"/>
+      <c r="K16" s="434"/>
+      <c r="L16" s="435"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="259">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>PBJ!B18</f>
         <v>0</v>
       </c>
       <c r="C17" s="406"/>
-      <c r="D17" s="396"/>
+      <c r="D17" s="390"/>
       <c r="E17" s="247">
         <f>PBJ!D18</f>
         <v>0</v>
@@ -15318,12 +15319,12 @@
       <c r="A18" s="259">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>PBJ!B19</f>
         <v>0</v>
       </c>
       <c r="C18" s="406"/>
-      <c r="D18" s="396"/>
+      <c r="D18" s="390"/>
       <c r="E18" s="247">
         <f>PBJ!D19</f>
         <v>0</v>
@@ -15340,12 +15341,12 @@
       <c r="A19" s="259">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>PBJ!B20</f>
         <v>0</v>
       </c>
       <c r="C19" s="406"/>
-      <c r="D19" s="396"/>
+      <c r="D19" s="390"/>
       <c r="E19" s="247">
         <f>PBJ!D20</f>
         <v>0</v>
@@ -15362,12 +15363,12 @@
       <c r="A20" s="259">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>PBJ!B21</f>
         <v>0</v>
       </c>
       <c r="C20" s="406"/>
-      <c r="D20" s="396"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="247">
         <f>PBJ!D21</f>
         <v>0</v>
@@ -15384,12 +15385,12 @@
       <c r="A21" s="259">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>PBJ!B22</f>
         <v>0</v>
       </c>
       <c r="C21" s="406"/>
-      <c r="D21" s="396"/>
+      <c r="D21" s="390"/>
       <c r="E21" s="247">
         <f>PBJ!D22</f>
         <v>0</v>
@@ -15406,12 +15407,12 @@
       <c r="A22" s="259">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>PBJ!B23</f>
         <v>0</v>
       </c>
       <c r="C22" s="406"/>
-      <c r="D22" s="396"/>
+      <c r="D22" s="390"/>
       <c r="E22" s="247">
         <f>PBJ!D23</f>
         <v>0</v>
@@ -15428,12 +15429,12 @@
       <c r="A23" s="259">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>PBJ!B24</f>
         <v>0</v>
       </c>
       <c r="C23" s="406"/>
-      <c r="D23" s="396"/>
+      <c r="D23" s="390"/>
       <c r="E23" s="247">
         <f>PBJ!D24</f>
         <v>0</v>
@@ -15450,12 +15451,12 @@
       <c r="A24" s="259">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>PBJ!B25</f>
         <v>0</v>
       </c>
       <c r="C24" s="406"/>
-      <c r="D24" s="396"/>
+      <c r="D24" s="390"/>
       <c r="E24" s="247">
         <f>PBJ!D25</f>
         <v>0</v>
@@ -15472,12 +15473,12 @@
       <c r="A25" s="259">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>PBJ!B26</f>
         <v>0</v>
       </c>
       <c r="C25" s="406"/>
-      <c r="D25" s="396"/>
+      <c r="D25" s="390"/>
       <c r="E25" s="247">
         <f>PBJ!D26</f>
         <v>0</v>
@@ -15494,12 +15495,12 @@
       <c r="A26" s="259">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>PBJ!B27</f>
         <v>0</v>
       </c>
       <c r="C26" s="406"/>
-      <c r="D26" s="396"/>
+      <c r="D26" s="390"/>
       <c r="E26" s="247">
         <f>PBJ!D27</f>
         <v>0</v>
@@ -15516,12 +15517,12 @@
       <c r="A27" s="259">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>PBJ!B28</f>
         <v>0</v>
       </c>
       <c r="C27" s="406"/>
-      <c r="D27" s="396"/>
+      <c r="D27" s="390"/>
       <c r="E27" s="247">
         <f>PBJ!D28</f>
         <v>0</v>
@@ -15538,12 +15539,12 @@
       <c r="A28" s="259">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>PBJ!B29</f>
         <v>0</v>
       </c>
       <c r="C28" s="406"/>
-      <c r="D28" s="396"/>
+      <c r="D28" s="390"/>
       <c r="E28" s="247">
         <f>PBJ!D29</f>
         <v>0</v>
@@ -15560,12 +15561,12 @@
       <c r="A29" s="259">
         <v>17</v>
       </c>
-      <c r="B29" s="395">
+      <c r="B29" s="389">
         <f>PBJ!B30</f>
         <v>0</v>
       </c>
       <c r="C29" s="406"/>
-      <c r="D29" s="396"/>
+      <c r="D29" s="390"/>
       <c r="E29" s="247">
         <f>PBJ!D30</f>
         <v>0</v>
@@ -15582,12 +15583,12 @@
       <c r="A30" s="259">
         <v>18</v>
       </c>
-      <c r="B30" s="395">
+      <c r="B30" s="389">
         <f>PBJ!B31</f>
         <v>0</v>
       </c>
       <c r="C30" s="406"/>
-      <c r="D30" s="396"/>
+      <c r="D30" s="390"/>
       <c r="E30" s="247">
         <f>PBJ!D31</f>
         <v>0</v>
@@ -15604,12 +15605,12 @@
       <c r="A31" s="259">
         <v>19</v>
       </c>
-      <c r="B31" s="395">
+      <c r="B31" s="389">
         <f>PBJ!B32</f>
         <v>0</v>
       </c>
       <c r="C31" s="406"/>
-      <c r="D31" s="396"/>
+      <c r="D31" s="390"/>
       <c r="E31" s="247">
         <f>PBJ!D32</f>
         <v>0</v>
@@ -15626,12 +15627,12 @@
       <c r="A32" s="259">
         <v>20</v>
       </c>
-      <c r="B32" s="395">
+      <c r="B32" s="389">
         <f>PBJ!B33</f>
         <v>0</v>
       </c>
       <c r="C32" s="406"/>
-      <c r="D32" s="396"/>
+      <c r="D32" s="390"/>
       <c r="E32" s="247">
         <f>PBJ!D33</f>
         <v>0</v>
@@ -15648,12 +15649,12 @@
       <c r="A33" s="259">
         <v>21</v>
       </c>
-      <c r="B33" s="395">
+      <c r="B33" s="389">
         <f>PBJ!B34</f>
         <v>0</v>
       </c>
       <c r="C33" s="406"/>
-      <c r="D33" s="396"/>
+      <c r="D33" s="390"/>
       <c r="E33" s="247">
         <f>PBJ!D34</f>
         <v>0</v>
@@ -15670,12 +15671,12 @@
       <c r="A34" s="259">
         <v>22</v>
       </c>
-      <c r="B34" s="395">
+      <c r="B34" s="389">
         <f>PBJ!B35</f>
         <v>0</v>
       </c>
       <c r="C34" s="406"/>
-      <c r="D34" s="396"/>
+      <c r="D34" s="390"/>
       <c r="E34" s="247">
         <f>PBJ!D35</f>
         <v>0</v>
@@ -15692,12 +15693,12 @@
       <c r="A35" s="259">
         <v>23</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="389">
         <f>PBJ!B36</f>
         <v>0</v>
       </c>
       <c r="C35" s="406"/>
-      <c r="D35" s="396"/>
+      <c r="D35" s="390"/>
       <c r="E35" s="247">
         <f>PBJ!D36</f>
         <v>0</v>
@@ -15714,12 +15715,12 @@
       <c r="A36" s="259">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>PBJ!B37</f>
         <v>0</v>
       </c>
       <c r="C36" s="406"/>
-      <c r="D36" s="396"/>
+      <c r="D36" s="390"/>
       <c r="E36" s="247"/>
       <c r="F36" s="250"/>
       <c r="G36" s="251"/>
@@ -15733,12 +15734,12 @@
       <c r="A37" s="259">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>PBJ!B38</f>
         <v>0</v>
       </c>
       <c r="C37" s="406"/>
-      <c r="D37" s="396"/>
+      <c r="D37" s="390"/>
       <c r="E37" s="247"/>
       <c r="F37" s="250"/>
       <c r="G37" s="251"/>
@@ -15752,12 +15753,12 @@
       <c r="A38" s="259">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>PBJ!B39</f>
         <v>0</v>
       </c>
       <c r="C38" s="406"/>
-      <c r="D38" s="396"/>
+      <c r="D38" s="390"/>
       <c r="E38" s="247"/>
       <c r="F38" s="250"/>
       <c r="G38" s="251"/>
@@ -15771,12 +15772,12 @@
       <c r="A39" s="259">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>PBJ!B40</f>
         <v>0</v>
       </c>
       <c r="C39" s="406"/>
-      <c r="D39" s="396"/>
+      <c r="D39" s="390"/>
       <c r="E39" s="247"/>
       <c r="F39" s="250"/>
       <c r="G39" s="251"/>
@@ -15790,12 +15791,12 @@
       <c r="A40" s="259">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>PBJ!B41</f>
         <v>0</v>
       </c>
       <c r="C40" s="406"/>
-      <c r="D40" s="396"/>
+      <c r="D40" s="390"/>
       <c r="E40" s="247"/>
       <c r="F40" s="250"/>
       <c r="G40" s="251"/>
@@ -15809,12 +15810,12 @@
       <c r="A41" s="259">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>PBJ!B42</f>
         <v>0</v>
       </c>
       <c r="C41" s="406"/>
-      <c r="D41" s="396"/>
+      <c r="D41" s="390"/>
       <c r="E41" s="247"/>
       <c r="F41" s="250"/>
       <c r="G41" s="251"/>
@@ -15828,12 +15829,12 @@
       <c r="A42" s="259">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>PBJ!B43</f>
         <v>0</v>
       </c>
       <c r="C42" s="406"/>
-      <c r="D42" s="396"/>
+      <c r="D42" s="390"/>
       <c r="E42" s="247"/>
       <c r="F42" s="250"/>
       <c r="G42" s="251"/>
@@ -15847,12 +15848,12 @@
       <c r="A43" s="259">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>PBJ!B44</f>
         <v>0</v>
       </c>
       <c r="C43" s="406"/>
-      <c r="D43" s="396"/>
+      <c r="D43" s="390"/>
       <c r="E43" s="247"/>
       <c r="F43" s="250"/>
       <c r="G43" s="251"/>
@@ -15866,12 +15867,12 @@
       <c r="A44" s="259">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>PBJ!B45</f>
         <v>0</v>
       </c>
       <c r="C44" s="406"/>
-      <c r="D44" s="396"/>
+      <c r="D44" s="390"/>
       <c r="E44" s="247"/>
       <c r="F44" s="250"/>
       <c r="G44" s="251"/>
@@ -15885,12 +15886,12 @@
       <c r="A45" s="259">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>PBJ!B46</f>
         <v>0</v>
       </c>
       <c r="C45" s="406"/>
-      <c r="D45" s="396"/>
+      <c r="D45" s="390"/>
       <c r="E45" s="247"/>
       <c r="F45" s="250"/>
       <c r="G45" s="251"/>
@@ -15904,12 +15905,12 @@
       <c r="A46" s="259">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>PBJ!B47</f>
         <v>0</v>
       </c>
       <c r="C46" s="406"/>
-      <c r="D46" s="396"/>
+      <c r="D46" s="390"/>
       <c r="E46" s="247"/>
       <c r="F46" s="250"/>
       <c r="G46" s="251"/>
@@ -15923,12 +15924,12 @@
       <c r="A47" s="259">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>PBJ!B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="406"/>
-      <c r="D47" s="396"/>
+      <c r="D47" s="390"/>
       <c r="E47" s="247"/>
       <c r="F47" s="250"/>
       <c r="G47" s="251"/>
@@ -15942,12 +15943,12 @@
       <c r="A48" s="259">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>PBJ!B49</f>
         <v>0</v>
       </c>
       <c r="C48" s="406"/>
-      <c r="D48" s="396"/>
+      <c r="D48" s="390"/>
       <c r="E48" s="247"/>
       <c r="F48" s="250"/>
       <c r="G48" s="251"/>
@@ -15961,12 +15962,12 @@
       <c r="A49" s="259">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>PBJ!B50</f>
         <v>0</v>
       </c>
       <c r="C49" s="406"/>
-      <c r="D49" s="396"/>
+      <c r="D49" s="390"/>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>
       <c r="G49" s="251"/>
@@ -15980,12 +15981,12 @@
       <c r="A50" s="259">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>PBJ!B51</f>
         <v>0</v>
       </c>
       <c r="C50" s="406"/>
-      <c r="D50" s="396"/>
+      <c r="D50" s="390"/>
       <c r="E50" s="247"/>
       <c r="F50" s="250"/>
       <c r="G50" s="251"/>
@@ -15999,12 +16000,12 @@
       <c r="A51" s="259">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>PBJ!B52</f>
         <v>0</v>
       </c>
       <c r="C51" s="406"/>
-      <c r="D51" s="396"/>
+      <c r="D51" s="390"/>
       <c r="E51" s="247"/>
       <c r="F51" s="250"/>
       <c r="G51" s="251"/>
@@ -16018,12 +16019,12 @@
       <c r="A52" s="259">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>PBJ!B53</f>
         <v>0</v>
       </c>
       <c r="C52" s="406"/>
-      <c r="D52" s="396"/>
+      <c r="D52" s="390"/>
       <c r="E52" s="247"/>
       <c r="F52" s="250"/>
       <c r="G52" s="251"/>
@@ -16037,12 +16038,12 @@
       <c r="A53" s="259">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>PBJ!B54</f>
         <v>0</v>
       </c>
       <c r="C53" s="406"/>
-      <c r="D53" s="396"/>
+      <c r="D53" s="390"/>
       <c r="E53" s="247"/>
       <c r="F53" s="250"/>
       <c r="G53" s="251"/>
@@ -16056,12 +16057,12 @@
       <c r="A54" s="259">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>PBJ!B55</f>
         <v>0</v>
       </c>
       <c r="C54" s="406"/>
-      <c r="D54" s="396"/>
+      <c r="D54" s="390"/>
       <c r="E54" s="247"/>
       <c r="F54" s="250"/>
       <c r="G54" s="251"/>
@@ -16075,12 +16076,12 @@
       <c r="A55" s="259">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>PBJ!B56</f>
         <v>0</v>
       </c>
       <c r="C55" s="406"/>
-      <c r="D55" s="396"/>
+      <c r="D55" s="390"/>
       <c r="E55" s="247"/>
       <c r="F55" s="250"/>
       <c r="G55" s="251"/>
@@ -16094,12 +16095,12 @@
       <c r="A56" s="259">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>PBJ!B57</f>
         <v>0</v>
       </c>
       <c r="C56" s="406"/>
-      <c r="D56" s="396"/>
+      <c r="D56" s="390"/>
       <c r="E56" s="247"/>
       <c r="F56" s="250"/>
       <c r="G56" s="251"/>
@@ -16113,12 +16114,12 @@
       <c r="A57" s="259">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>PBJ!B58</f>
         <v>0</v>
       </c>
       <c r="C57" s="406"/>
-      <c r="D57" s="396"/>
+      <c r="D57" s="390"/>
       <c r="E57" s="247"/>
       <c r="F57" s="250"/>
       <c r="G57" s="251"/>
@@ -16132,12 +16133,12 @@
       <c r="A58" s="259">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>PBJ!B59</f>
         <v>0</v>
       </c>
       <c r="C58" s="406"/>
-      <c r="D58" s="396"/>
+      <c r="D58" s="390"/>
       <c r="E58" s="247"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251"/>
@@ -16151,12 +16152,12 @@
       <c r="A59" s="259">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>PBJ!B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="406"/>
-      <c r="D59" s="396"/>
+      <c r="D59" s="390"/>
       <c r="E59" s="247"/>
       <c r="F59" s="250"/>
       <c r="G59" s="251"/>
@@ -16170,12 +16171,12 @@
       <c r="A60" s="259">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>PBJ!B61</f>
         <v>0</v>
       </c>
       <c r="C60" s="406"/>
-      <c r="D60" s="396"/>
+      <c r="D60" s="390"/>
       <c r="E60" s="247"/>
       <c r="F60" s="250"/>
       <c r="G60" s="251"/>
@@ -16189,12 +16190,12 @@
       <c r="A61" s="259">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>PBJ!B62</f>
         <v>0</v>
       </c>
       <c r="C61" s="406"/>
-      <c r="D61" s="396"/>
+      <c r="D61" s="390"/>
       <c r="E61" s="247"/>
       <c r="F61" s="250"/>
       <c r="G61" s="251"/>
@@ -16208,12 +16209,12 @@
       <c r="A62" s="259">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>PBJ!B63</f>
         <v>0</v>
       </c>
       <c r="C62" s="406"/>
-      <c r="D62" s="396"/>
+      <c r="D62" s="390"/>
       <c r="E62" s="247"/>
       <c r="F62" s="250"/>
       <c r="G62" s="251"/>
@@ -16227,12 +16228,12 @@
       <c r="A63" s="259">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>PBJ!B64</f>
         <v>0</v>
       </c>
       <c r="C63" s="406"/>
-      <c r="D63" s="396"/>
+      <c r="D63" s="390"/>
       <c r="E63" s="247"/>
       <c r="F63" s="250"/>
       <c r="G63" s="251"/>
@@ -16246,12 +16247,12 @@
       <c r="A64" s="259">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>PBJ!B65</f>
         <v>0</v>
       </c>
       <c r="C64" s="406"/>
-      <c r="D64" s="396"/>
+      <c r="D64" s="390"/>
       <c r="E64" s="247"/>
       <c r="F64" s="250"/>
       <c r="G64" s="251"/>
@@ -16265,12 +16266,12 @@
       <c r="A65" s="259">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>PBJ!B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="406"/>
-      <c r="D65" s="396"/>
+      <c r="D65" s="390"/>
       <c r="E65" s="247"/>
       <c r="F65" s="250"/>
       <c r="G65" s="251"/>
@@ -16284,12 +16285,12 @@
       <c r="A66" s="259">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>PBJ!B67</f>
         <v>0</v>
       </c>
       <c r="C66" s="406"/>
-      <c r="D66" s="396"/>
+      <c r="D66" s="390"/>
       <c r="E66" s="247"/>
       <c r="F66" s="250"/>
       <c r="G66" s="251"/>
@@ -16303,12 +16304,12 @@
       <c r="A67" s="259">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>PBJ!B68</f>
         <v>0</v>
       </c>
       <c r="C67" s="406"/>
-      <c r="D67" s="396"/>
+      <c r="D67" s="390"/>
       <c r="E67" s="247"/>
       <c r="F67" s="250"/>
       <c r="G67" s="251"/>
@@ -16322,12 +16323,12 @@
       <c r="A68" s="259">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>PBJ!B69</f>
         <v>0</v>
       </c>
       <c r="C68" s="406"/>
-      <c r="D68" s="396"/>
+      <c r="D68" s="390"/>
       <c r="E68" s="247"/>
       <c r="F68" s="250"/>
       <c r="G68" s="251"/>
@@ -16341,12 +16342,12 @@
       <c r="A69" s="259">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>PBJ!B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="406"/>
-      <c r="D69" s="396"/>
+      <c r="D69" s="390"/>
       <c r="E69" s="247"/>
       <c r="F69" s="250"/>
       <c r="G69" s="251"/>
@@ -16360,12 +16361,12 @@
       <c r="A70" s="259">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>PBJ!B71</f>
         <v>0</v>
       </c>
       <c r="C70" s="406"/>
-      <c r="D70" s="396"/>
+      <c r="D70" s="390"/>
       <c r="E70" s="247"/>
       <c r="F70" s="250"/>
       <c r="G70" s="251"/>
@@ -16379,12 +16380,12 @@
       <c r="A71" s="259">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>PBJ!B72</f>
         <v>0</v>
       </c>
       <c r="C71" s="406"/>
-      <c r="D71" s="396"/>
+      <c r="D71" s="390"/>
       <c r="E71" s="247"/>
       <c r="F71" s="250"/>
       <c r="G71" s="251"/>
@@ -16398,12 +16399,12 @@
       <c r="A72" s="259">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>PBJ!B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="406"/>
-      <c r="D72" s="396"/>
+      <c r="D72" s="390"/>
       <c r="E72" s="247"/>
       <c r="F72" s="250"/>
       <c r="G72" s="251"/>
@@ -16417,12 +16418,12 @@
       <c r="A73" s="259">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>PBJ!B74</f>
         <v>0</v>
       </c>
       <c r="C73" s="406"/>
-      <c r="D73" s="396"/>
+      <c r="D73" s="390"/>
       <c r="E73" s="247"/>
       <c r="F73" s="250"/>
       <c r="G73" s="251"/>
@@ -16436,12 +16437,12 @@
       <c r="A74" s="259">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>PBJ!B75</f>
         <v>0</v>
       </c>
       <c r="C74" s="406"/>
-      <c r="D74" s="396"/>
+      <c r="D74" s="390"/>
       <c r="E74" s="247"/>
       <c r="F74" s="250"/>
       <c r="G74" s="251"/>
@@ -16455,12 +16456,12 @@
       <c r="A75" s="259">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>PBJ!B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="406"/>
-      <c r="D75" s="396"/>
+      <c r="D75" s="390"/>
       <c r="E75" s="247"/>
       <c r="F75" s="250"/>
       <c r="G75" s="251"/>
@@ -16474,12 +16475,12 @@
       <c r="A76" s="259">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>PBJ!B77</f>
         <v>0</v>
       </c>
       <c r="C76" s="406"/>
-      <c r="D76" s="396"/>
+      <c r="D76" s="390"/>
       <c r="E76" s="247"/>
       <c r="F76" s="250"/>
       <c r="G76" s="251"/>
@@ -16493,12 +16494,12 @@
       <c r="A77" s="259">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>PBJ!B78</f>
         <v>0</v>
       </c>
       <c r="C77" s="406"/>
-      <c r="D77" s="396"/>
+      <c r="D77" s="390"/>
       <c r="E77" s="247"/>
       <c r="F77" s="250"/>
       <c r="G77" s="251"/>
@@ -16512,12 +16513,12 @@
       <c r="A78" s="259">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>PBJ!B79</f>
         <v>0</v>
       </c>
       <c r="C78" s="406"/>
-      <c r="D78" s="396"/>
+      <c r="D78" s="390"/>
       <c r="E78" s="247"/>
       <c r="F78" s="250"/>
       <c r="G78" s="251"/>
@@ -16531,12 +16532,12 @@
       <c r="A79" s="259">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>PBJ!B80</f>
         <v>0</v>
       </c>
       <c r="C79" s="406"/>
-      <c r="D79" s="396"/>
+      <c r="D79" s="390"/>
       <c r="E79" s="247"/>
       <c r="F79" s="250"/>
       <c r="G79" s="251"/>
@@ -16550,12 +16551,12 @@
       <c r="A80" s="259">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>PBJ!B81</f>
         <v>0</v>
       </c>
       <c r="C80" s="406"/>
-      <c r="D80" s="396"/>
+      <c r="D80" s="390"/>
       <c r="E80" s="247"/>
       <c r="F80" s="250"/>
       <c r="G80" s="251"/>
@@ -16569,12 +16570,12 @@
       <c r="A81" s="259">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>PBJ!B82</f>
         <v>0</v>
       </c>
       <c r="C81" s="406"/>
-      <c r="D81" s="396"/>
+      <c r="D81" s="390"/>
       <c r="E81" s="247"/>
       <c r="F81" s="250"/>
       <c r="G81" s="251"/>
@@ -16588,12 +16589,12 @@
       <c r="A82" s="259">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>PBJ!B83</f>
         <v>0</v>
       </c>
       <c r="C82" s="406"/>
-      <c r="D82" s="396"/>
+      <c r="D82" s="390"/>
       <c r="E82" s="247"/>
       <c r="F82" s="250"/>
       <c r="G82" s="251"/>
@@ -16607,12 +16608,12 @@
       <c r="A83" s="259">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>PBJ!B84</f>
         <v>0</v>
       </c>
       <c r="C83" s="406"/>
-      <c r="D83" s="396"/>
+      <c r="D83" s="390"/>
       <c r="E83" s="247"/>
       <c r="F83" s="250"/>
       <c r="G83" s="251"/>
@@ -16624,9 +16625,9 @@
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1">
       <c r="A84" s="259"/>
-      <c r="B84" s="395"/>
+      <c r="B84" s="389"/>
       <c r="C84" s="406"/>
-      <c r="D84" s="396"/>
+      <c r="D84" s="390"/>
       <c r="E84" s="247"/>
       <c r="F84" s="250"/>
       <c r="G84" s="251"/>
@@ -16638,26 +16639,26 @@
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="206"/>
-      <c r="B85" s="431"/>
-      <c r="C85" s="432"/>
-      <c r="D85" s="433"/>
+      <c r="B85" s="410"/>
+      <c r="C85" s="411"/>
+      <c r="D85" s="412"/>
       <c r="E85" s="207"/>
       <c r="F85" s="207"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
       <c r="J85" s="209"/>
-      <c r="K85" s="407"/>
-      <c r="L85" s="408"/>
+      <c r="K85" s="427"/>
+      <c r="L85" s="428"/>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="434" t="str">
+      <c r="A86" s="407" t="str">
         <f>RFK!A86</f>
         <v>Jumlah</v>
       </c>
-      <c r="B86" s="435"/>
-      <c r="C86" s="435"/>
-      <c r="D86" s="436"/>
+      <c r="B86" s="408"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="409"/>
       <c r="E86" s="210">
         <f>SUM(E12:E84)</f>
         <v>0</v>
@@ -16854,38 +16855,48 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B32:D32"/>
@@ -16902,48 +16913,38 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.23622047244094499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16957,8 +16958,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -17060,138 +17061,138 @@
       <c r="A9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="446"/>
+      <c r="C9" s="438"/>
       <c r="D9" s="104" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="445" t="s">
+      <c r="F9" s="437" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="447"/>
+      <c r="G9" s="439"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="105">
         <v>1</v>
       </c>
-      <c r="B10" s="448">
+      <c r="B10" s="440">
         <v>2</v>
       </c>
-      <c r="C10" s="449"/>
+      <c r="C10" s="441"/>
       <c r="D10" s="106">
         <v>3</v>
       </c>
       <c r="E10" s="106">
         <v>4</v>
       </c>
-      <c r="F10" s="448">
+      <c r="F10" s="440">
         <v>5</v>
       </c>
-      <c r="G10" s="450"/>
+      <c r="G10" s="446"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1" thickTop="1">
       <c r="A11" s="107"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="453"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="449"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="110"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="442"/>
+      <c r="B12" s="444"/>
+      <c r="C12" s="445"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="439"/>
-      <c r="G12" s="440"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="443"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="441"/>
-      <c r="C13" s="442"/>
+      <c r="B13" s="444"/>
+      <c r="C13" s="445"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="439"/>
-      <c r="G13" s="440"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="443"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="113"/>
-      <c r="B14" s="441"/>
-      <c r="C14" s="442"/>
+      <c r="B14" s="444"/>
+      <c r="C14" s="445"/>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="439"/>
-      <c r="G14" s="440"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="443"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="441"/>
-      <c r="C15" s="442"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="445"/>
       <c r="D15" s="111"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="440"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="443"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="441"/>
-      <c r="C16" s="442"/>
+      <c r="B16" s="444"/>
+      <c r="C16" s="445"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117"/>
-      <c r="F16" s="439"/>
-      <c r="G16" s="440"/>
+      <c r="F16" s="442"/>
+      <c r="G16" s="443"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="441"/>
-      <c r="C17" s="442"/>
+      <c r="B17" s="444"/>
+      <c r="C17" s="445"/>
       <c r="D17" s="192"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="439"/>
-      <c r="G17" s="440"/>
+      <c r="F17" s="442"/>
+      <c r="G17" s="443"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="441"/>
-      <c r="C18" s="442"/>
+      <c r="B18" s="444"/>
+      <c r="C18" s="445"/>
       <c r="D18" s="192"/>
       <c r="E18" s="117"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="440"/>
+      <c r="F18" s="442"/>
+      <c r="G18" s="443"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="441"/>
-      <c r="C19" s="442"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="445"/>
       <c r="D19" s="192"/>
       <c r="E19" s="117"/>
-      <c r="F19" s="439"/>
-      <c r="G19" s="440"/>
+      <c r="F19" s="442"/>
+      <c r="G19" s="443"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="451"/>
       <c r="D20" s="120"/>
       <c r="E20" s="121"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="F20" s="452"/>
+      <c r="G20" s="453"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" thickTop="1">
@@ -17208,7 +17209,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="E24" s="26" t="str">
-        <f>RFK!N88</f>
+        <f>SPENGANTAR!F6</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
       <c r="F24" s="26"/>
@@ -17226,7 +17227,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="26" t="str">
-        <f>RFK!B90</f>
+        <f>CONCATENATE("Kepala Bidang ",INPUT!H9)</f>
         <v>Kepala Bidang Pembinaan SD</v>
       </c>
       <c r="E26" s="26" t="s">
@@ -17255,11 +17256,11 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="68" t="str">
-        <f>RFK!B94</f>
+        <f>INPUT!H5</f>
         <v>Isnooredy, SE</v>
       </c>
       <c r="E30" s="68" t="str">
-        <f>RFK!N94</f>
+        <f>INPUT!H7</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
       <c r="F30" s="68"/>
@@ -17267,11 +17268,11 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="26" t="str">
-        <f>RFK!B95</f>
+        <f>INPUT!H6</f>
         <v>NIP. 19731226 200501 1 004</v>
       </c>
       <c r="E31" s="26" t="str">
-        <f>RFK!N95</f>
+        <f>INPUT!H8</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
       <c r="F31" s="26"/>
@@ -17284,6 +17285,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
@@ -17299,15 +17309,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.35433070866141703" top="0.62992125984252001" bottom="0.39370078740157499" header="0.35433070866141703" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17387,10 +17388,10 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="399" t="s">
+      <c r="T2" s="394" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="400"/>
+      <c r="U2" s="395"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" ht="13" customHeight="1">
@@ -17529,42 +17530,42 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="464" t="s">
+      <c r="T7" s="456" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="464"/>
+      <c r="U7" s="456"/>
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="465"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="465"/>
-      <c r="G8" s="465"/>
-      <c r="H8" s="465"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="465"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="465"/>
+      <c r="A8" s="457"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="457"/>
+      <c r="D8" s="457"/>
+      <c r="E8" s="457"/>
+      <c r="F8" s="457"/>
+      <c r="G8" s="457"/>
+      <c r="H8" s="457"/>
+      <c r="I8" s="457"/>
+      <c r="J8" s="457"/>
+      <c r="K8" s="457"/>
+      <c r="L8" s="457"/>
     </row>
     <row r="9" spans="1:22" ht="14" thickBot="1"/>
     <row r="10" spans="1:22" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="466" t="s">
+      <c r="B10" s="458" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="467"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="466" t="s">
+      <c r="E10" s="458" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="467"/>
+      <c r="F10" s="459"/>
       <c r="G10" s="222" t="s">
         <v>141</v>
       </c>
@@ -17589,17 +17590,17 @@
       <c r="A11" s="224">
         <v>1</v>
       </c>
-      <c r="B11" s="462">
+      <c r="B11" s="454">
         <v>2</v>
       </c>
-      <c r="C11" s="463"/>
+      <c r="C11" s="455"/>
       <c r="D11" s="224">
         <v>3</v>
       </c>
-      <c r="E11" s="462">
+      <c r="E11" s="454">
         <v>4</v>
       </c>
-      <c r="F11" s="463"/>
+      <c r="F11" s="455"/>
       <c r="G11" s="224">
         <v>5</v>
       </c>
@@ -17625,8 +17626,8 @@
       <c r="B12" s="228"/>
       <c r="C12" s="229"/>
       <c r="D12" s="227"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="455"/>
+      <c r="E12" s="460"/>
+      <c r="F12" s="461"/>
       <c r="G12" s="227"/>
       <c r="H12" s="227"/>
       <c r="I12" s="227"/>
@@ -17639,8 +17640,8 @@
       <c r="B13" s="214"/>
       <c r="C13" s="248"/>
       <c r="D13" s="231"/>
-      <c r="E13" s="456"/>
-      <c r="F13" s="457"/>
+      <c r="E13" s="462"/>
+      <c r="F13" s="463"/>
       <c r="G13" s="232"/>
       <c r="H13" s="230"/>
       <c r="I13" s="231"/>
@@ -17681,8 +17682,8 @@
       <c r="B16" s="234"/>
       <c r="C16" s="235"/>
       <c r="D16" s="233"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="460"/>
+      <c r="E16" s="465"/>
+      <c r="F16" s="466"/>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
       <c r="I16" s="233"/>
@@ -17714,9 +17715,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="461"/>
-      <c r="K18" s="461"/>
-      <c r="L18" s="461"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
+      <c r="L18" s="467"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
@@ -17730,12 +17731,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="458" t="str">
+      <c r="J19" s="464" t="str">
         <f>RFK!N88</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
-      <c r="K19" s="458"/>
-      <c r="L19" s="458"/>
+      <c r="K19" s="464"/>
+      <c r="L19" s="464"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
@@ -17791,9 +17792,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="458"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
+      <c r="J23" s="464"/>
+      <c r="K23" s="464"/>
+      <c r="L23" s="464"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -17807,12 +17808,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="458" t="str">
+      <c r="J24" s="464" t="str">
         <f>RFK!N94</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
+      <c r="K24" s="464"/>
+      <c r="L24" s="464"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -17826,12 +17827,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="458" t="str">
+      <c r="J25" s="464" t="str">
         <f>[1]INPUT!H9</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
+      <c r="K25" s="464"/>
+      <c r="L25" s="464"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -18077,13 +18078,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="J25:L25"/>
@@ -18092,6 +18086,13 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18284,7 +18285,7 @@
   <dimension ref="A1:X504"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A409" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X451" sqref="X451"/>
+      <selection activeCell="R454" sqref="R454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
@@ -18313,32 +18314,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="482" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="473"/>
-      <c r="J1" s="473"/>
-      <c r="K1" s="473"/>
-      <c r="L1" s="473"/>
-      <c r="M1" s="473"/>
-      <c r="N1" s="473"/>
-      <c r="O1" s="473"/>
-      <c r="P1" s="473"/>
-      <c r="Q1" s="473"/>
-      <c r="R1" s="473"/>
-      <c r="S1" s="473"/>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="482"/>
+      <c r="M1" s="482"/>
+      <c r="N1" s="482"/>
+      <c r="O1" s="482"/>
+      <c r="P1" s="482"/>
+      <c r="Q1" s="482"/>
+      <c r="R1" s="482"/>
+      <c r="S1" s="482"/>
+      <c r="T1" s="482"/>
+      <c r="U1" s="482"/>
+      <c r="V1" s="482"/>
       <c r="W1" s="76"/>
-      <c r="X1" s="478" t="s">
+      <c r="X1" s="471" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       <c r="U2" s="78"/>
       <c r="V2" s="78"/>
       <c r="W2" s="76"/>
-      <c r="X2" s="478"/>
+      <c r="X2" s="471"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -18395,7 +18396,7 @@
       <c r="U3" s="78"/>
       <c r="V3" s="78"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="478"/>
+      <c r="X3" s="471"/>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -18424,7 +18425,7 @@
       <c r="U4" s="78"/>
       <c r="V4" s="78"/>
       <c r="W4" s="76"/>
-      <c r="X4" s="478"/>
+      <c r="X4" s="471"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
@@ -18453,7 +18454,7 @@
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
       <c r="W5" s="76"/>
-      <c r="X5" s="478"/>
+      <c r="X5" s="471"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -18482,7 +18483,7 @@
       <c r="U6" s="78"/>
       <c r="V6" s="78"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="478"/>
+      <c r="X6" s="471"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -18511,7 +18512,7 @@
       <c r="U7" s="78"/>
       <c r="V7" s="78"/>
       <c r="W7" s="76"/>
-      <c r="X7" s="478"/>
+      <c r="X7" s="471"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="78"/>
@@ -18537,7 +18538,7 @@
       <c r="U8" s="78"/>
       <c r="V8" s="78"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="478"/>
+      <c r="X8" s="471"/>
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="78"/>
@@ -18563,18 +18564,18 @@
       <c r="U9" s="78"/>
       <c r="V9" s="78"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="478"/>
+      <c r="X9" s="471"/>
     </row>
     <row r="10" spans="1:24" s="99" customFormat="1" ht="22" customHeight="1" thickTop="1">
-      <c r="A10" s="479" t="s">
+      <c r="A10" s="472" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="479"/>
-      <c r="C10" s="479"/>
-      <c r="D10" s="479"/>
-      <c r="E10" s="479"/>
-      <c r="F10" s="479"/>
-      <c r="G10" s="479"/>
+      <c r="B10" s="472"/>
+      <c r="C10" s="472"/>
+      <c r="D10" s="472"/>
+      <c r="E10" s="472"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="472"/>
       <c r="H10" s="298" t="s">
         <v>83</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="98"/>
-      <c r="X10" s="478"/>
+      <c r="X10" s="471"/>
     </row>
     <row r="11" spans="1:24" ht="17" customHeight="1">
       <c r="A11" s="299">
@@ -39160,13 +39161,13 @@
       </c>
     </row>
     <row r="446" spans="1:24" ht="17" customHeight="1">
-      <c r="A446" s="481"/>
-      <c r="B446" s="482"/>
-      <c r="C446" s="482"/>
-      <c r="D446" s="482"/>
-      <c r="E446" s="482"/>
-      <c r="F446" s="482"/>
-      <c r="G446" s="483"/>
+      <c r="A446" s="474"/>
+      <c r="B446" s="475"/>
+      <c r="C446" s="475"/>
+      <c r="D446" s="475"/>
+      <c r="E446" s="475"/>
+      <c r="F446" s="475"/>
+      <c r="G446" s="476"/>
       <c r="H446" s="304"/>
       <c r="I446" s="301" t="s">
         <v>100</v>
@@ -39194,13 +39195,13 @@
       </c>
     </row>
     <row r="447" spans="1:24" s="84" customFormat="1" ht="17" customHeight="1">
-      <c r="A447" s="484"/>
-      <c r="B447" s="485"/>
-      <c r="C447" s="485"/>
-      <c r="D447" s="485"/>
-      <c r="E447" s="485"/>
-      <c r="F447" s="485"/>
-      <c r="G447" s="486"/>
+      <c r="A447" s="477"/>
+      <c r="B447" s="478"/>
+      <c r="C447" s="478"/>
+      <c r="D447" s="478"/>
+      <c r="E447" s="478"/>
+      <c r="F447" s="478"/>
+      <c r="G447" s="479"/>
       <c r="H447" s="307"/>
       <c r="I447" s="318"/>
       <c r="J447" s="319" t="e">
@@ -39259,13 +39260,13 @@
       <c r="X447" s="289"/>
     </row>
     <row r="448" spans="1:24" ht="17" customHeight="1">
-      <c r="A448" s="480"/>
-      <c r="B448" s="480"/>
-      <c r="C448" s="480"/>
-      <c r="D448" s="480"/>
-      <c r="E448" s="480"/>
-      <c r="F448" s="480"/>
-      <c r="G448" s="480"/>
+      <c r="A448" s="473"/>
+      <c r="B448" s="473"/>
+      <c r="C448" s="473"/>
+      <c r="D448" s="473"/>
+      <c r="E448" s="473"/>
+      <c r="F448" s="473"/>
+      <c r="G448" s="473"/>
       <c r="H448" s="304"/>
       <c r="I448" s="304"/>
       <c r="J448" s="311"/>
@@ -39285,13 +39286,13 @@
       <c r="X448" s="290"/>
     </row>
     <row r="449" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A449" s="477"/>
-      <c r="B449" s="477"/>
-      <c r="C449" s="477"/>
-      <c r="D449" s="477"/>
-      <c r="E449" s="477"/>
-      <c r="F449" s="477"/>
-      <c r="G449" s="477"/>
+      <c r="A449" s="486"/>
+      <c r="B449" s="486"/>
+      <c r="C449" s="486"/>
+      <c r="D449" s="486"/>
+      <c r="E449" s="486"/>
+      <c r="F449" s="486"/>
+      <c r="G449" s="486"/>
       <c r="H449" s="323"/>
       <c r="I449" s="324"/>
       <c r="J449" s="325"/>
@@ -39311,16 +39312,16 @@
       <c r="X449" s="290"/>
     </row>
     <row r="450" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A450" s="474" t="s">
+      <c r="A450" s="483" t="s">
         <v>112</v>
       </c>
-      <c r="B450" s="475"/>
-      <c r="C450" s="475"/>
-      <c r="D450" s="475"/>
-      <c r="E450" s="475"/>
-      <c r="F450" s="475"/>
-      <c r="G450" s="476"/>
-      <c r="H450" s="471">
+      <c r="B450" s="484"/>
+      <c r="C450" s="484"/>
+      <c r="D450" s="484"/>
+      <c r="E450" s="484"/>
+      <c r="F450" s="484"/>
+      <c r="G450" s="485"/>
+      <c r="H450" s="480">
         <f>SUM(H11:H448)</f>
         <v>0</v>
       </c>
@@ -39384,16 +39385,16 @@
       </c>
     </row>
     <row r="451" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A451" s="474" t="s">
+      <c r="A451" s="483" t="s">
         <v>113</v>
       </c>
-      <c r="B451" s="475"/>
-      <c r="C451" s="475"/>
-      <c r="D451" s="475"/>
-      <c r="E451" s="475"/>
-      <c r="F451" s="475"/>
-      <c r="G451" s="476"/>
-      <c r="H451" s="472"/>
+      <c r="B451" s="484"/>
+      <c r="C451" s="484"/>
+      <c r="D451" s="484"/>
+      <c r="E451" s="484"/>
+      <c r="F451" s="484"/>
+      <c r="G451" s="485"/>
+      <c r="H451" s="481"/>
       <c r="I451" s="86"/>
       <c r="J451" s="87" t="e">
         <f t="shared" ref="J451:U451" si="74">SUM(J15,J21,J27,J39,J45,J51,J57,J63,J69,J75,J81,J87,J93,J99,J105,J111,J117,J123,J129,J135,J141,J147,J153,J159,J165,J171,J177,J183,J189,J195)+SUM(J201,J207,J213,J219,J225,J231,J237,J243,J249,J255,J261,J267,J273,J279,J285,J291,J297,J303,J309,J315,J321,J327,J333,J339,J345,J351,J357,J363,J369,J375)+SUM(J381,J387,J393,J399,J405,J411,J417,J423,J429,J435,J441,J447)</f>
@@ -39496,7 +39497,7 @@
       <c r="P453" s="96"/>
       <c r="Q453" s="96"/>
       <c r="R453" s="7" t="str">
-        <f>RFK!N88</f>
+        <f>SPENGANTAR!F6</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
       <c r="S453" s="7"/>
@@ -39538,7 +39539,7 @@
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
       <c r="H455" s="7" t="str">
-        <f>RFK!B90</f>
+        <f>CONCATENATE("Kepala Bidang ",INPUT!H9)</f>
         <v>Kepala Bidang Pembinaan SD</v>
       </c>
       <c r="I455" s="7"/>
@@ -39619,7 +39620,7 @@
       <c r="F459" s="7"/>
       <c r="G459" s="7"/>
       <c r="H459" s="211" t="str">
-        <f>RFK!B94</f>
+        <f>INPUT!H5</f>
         <v>Isnooredy, SE</v>
       </c>
       <c r="I459" s="7"/>
@@ -39630,7 +39631,7 @@
       <c r="P459" s="7"/>
       <c r="Q459" s="7"/>
       <c r="R459" s="211" t="str">
-        <f>RFK!N94</f>
+        <f>INPUT!H7</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
       <c r="S459" s="7"/>
@@ -39644,7 +39645,7 @@
       <c r="F460" s="7"/>
       <c r="G460" s="7"/>
       <c r="H460" s="7" t="str">
-        <f>RFK!B95</f>
+        <f>INPUT!H6</f>
         <v>NIP. 19731226 200501 1 004</v>
       </c>
       <c r="I460" s="7"/>
@@ -39655,7 +39656,7 @@
       <c r="P460" s="7"/>
       <c r="Q460" s="7"/>
       <c r="R460" s="7" t="str">
-        <f>RFK!N95</f>
+        <f>INPUT!H8</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
       <c r="S460" s="7"/>
@@ -39777,16 +39778,16 @@
     <row r="504" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H450:H451"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A450:G450"/>
+    <mergeCell ref="A449:G449"/>
+    <mergeCell ref="A451:G451"/>
     <mergeCell ref="X1:X10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A448:G448"/>
     <mergeCell ref="A446:G446"/>
     <mergeCell ref="A447:G447"/>
-    <mergeCell ref="H450:H451"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A450:G450"/>
-    <mergeCell ref="A449:G449"/>
-    <mergeCell ref="A451:G451"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.27559055118110198" top="0.59055118110236204" bottom="0.70866141732283505" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/excel/mei.xlsx
+++ b/public/excel/mei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A61CC-EE98-1042-A070-6FE7C93AD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5234237-1123-AE4E-A0CC-528F80348605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="940" windowWidth="33600" windowHeight="18840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="940" windowWidth="33600" windowHeight="18840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPENGANTAR" sheetId="12" r:id="rId1"/>
@@ -16958,7 +16958,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -18284,8 +18284,8 @@
   </sheetPr>
   <dimension ref="A1:X504"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A409" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R454" sqref="R454"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A409" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X450" sqref="X450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
@@ -39380,7 +39380,7 @@
       </c>
       <c r="W450" s="82"/>
       <c r="X450" s="291">
-        <f>SUM(J450:M450)</f>
+        <f>SUM(J450:N450)</f>
         <v>0</v>
       </c>
     </row>
